--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="4470" windowWidth="15900" windowHeight="12435" tabRatio="570"/>
+    <workbookView xWindow="11760" yWindow="4470" windowWidth="15900" windowHeight="12435" tabRatio="570" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="記入" sheetId="6" r:id="rId1"/>
+    <sheet name="記入" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="海外請求書" sheetId="4" r:id="rId2"/>
     <sheet name="税務局へのINVOICE" sheetId="8" r:id="rId3"/>
   </sheets>
@@ -664,14 +664,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${pd.openingdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.enddate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${pd.deliveryfinshdate}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -689,6 +681,14 @@
   </si>
   <si>
     <t>${pd.responphone}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -832,6 +832,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -861,6 +862,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1203,7 +1205,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,9 +1269,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1385,6 +1384,13 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="4" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1406,6 +1412,33 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1448,32 +1481,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1489,78 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1871,8 +1877,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1886,370 +1892,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="D1" s="70" t="s">
+      <c r="B1" s="70"/>
+      <c r="D1" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="71"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="18"/>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B9" s="17"/>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1">
+      <c r="A15" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1">
+      <c r="A16" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C16" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="23" t="s">
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1">
+      <c r="A17" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1">
+      <c r="A18" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
+      <c r="A19" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C19" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1">
+      <c r="A20" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
+      <c r="A21" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
+      <c r="A22" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
+    </row>
+    <row r="23" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A23" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+    </row>
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+    </row>
+    <row r="25" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="40" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+    </row>
+    <row r="26" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-    </row>
-    <row r="23" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-    </row>
-    <row r="24" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-    </row>
-    <row r="25" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-    </row>
-    <row r="26" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
     </row>
     <row r="27" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="43" t="s">
         <v>61</v>
       </c>
       <c r="B27" s="18" t="str">
         <f>"GF-"&amp;B12</f>
         <v>GF-${pd.contractnumber}</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="74"/>
     </row>
     <row r="28" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="43" t="s">
         <v>99</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="74"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="74"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
     </row>
     <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="12"/>
@@ -2302,7 +2308,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2319,16 +2325,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
-      <c r="A1" s="66"/>
+      <c r="A1" s="65"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="29" t="str">
+      <c r="H1" s="28" t="str">
         <f>記入!B16</f>
         <v>${pd.deliveryfinshdate}</v>
       </c>
@@ -2339,28 +2345,28 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="30" t="str">
+      <c r="H2" s="29" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="98" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="28" t="s">
+      <c r="E3" s="83"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="32" t="str">
+      <c r="H3" s="31" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
@@ -2368,191 +2374,191 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="48.75" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="33" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="93" t="str">
+      <c r="G4" s="78" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="95"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="53.25" customHeight="1">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="96" t="str">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="81" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="97"/>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="93" t="str">
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="78" t="str">
         <f>記入!B7</f>
         <v>${pd.responerglish}</v>
       </c>
-      <c r="H6" s="93"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="1:11" ht="31.5" customHeight="1">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="87" t="str">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="97" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="85" t="str">
+      <c r="C13" s="95" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="88"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="98"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="35" t="str">
+      <c r="C14" s="34" t="str">
         <f>記入!B14</f>
-        <v>${pd.openingdate}</v>
-      </c>
-      <c r="D14" s="36" t="s">
+        <v>${statime[0]}</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="35" t="str">
+      <c r="E14" s="34" t="str">
         <f>記入!B15</f>
-        <v>${pd.enddate}</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="88"/>
+        <v>${statime[1]}</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:11" ht="71.25" customHeight="1">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="82" t="str">
+      <c r="C15" s="92" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="89"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="27">
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="26">
         <f>SUM(H12:H15)</f>
         <v>0</v>
       </c>
@@ -2576,58 +2582,58 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8">
@@ -2726,20 +2732,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
@@ -2752,6 +2744,20 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H12:H15"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2771,1020 +2777,1009 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="46" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="46" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="46" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="46" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="46" customWidth="1"/>
-    <col min="7" max="7" width="6.125" style="46" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="46" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="46" customWidth="1"/>
-    <col min="11" max="257" width="9" style="46"/>
-    <col min="258" max="258" width="11.375" style="46" customWidth="1"/>
-    <col min="259" max="259" width="9.75" style="46" customWidth="1"/>
-    <col min="260" max="260" width="8.125" style="46" customWidth="1"/>
-    <col min="261" max="261" width="12.5" style="46" customWidth="1"/>
-    <col min="262" max="262" width="16.25" style="46" customWidth="1"/>
-    <col min="263" max="263" width="6.125" style="46" customWidth="1"/>
-    <col min="264" max="264" width="9.375" style="46" customWidth="1"/>
-    <col min="265" max="265" width="13.125" style="46" customWidth="1"/>
-    <col min="266" max="513" width="9" style="46"/>
-    <col min="514" max="514" width="11.375" style="46" customWidth="1"/>
-    <col min="515" max="515" width="9.75" style="46" customWidth="1"/>
-    <col min="516" max="516" width="8.125" style="46" customWidth="1"/>
-    <col min="517" max="517" width="12.5" style="46" customWidth="1"/>
-    <col min="518" max="518" width="16.25" style="46" customWidth="1"/>
-    <col min="519" max="519" width="6.125" style="46" customWidth="1"/>
-    <col min="520" max="520" width="9.375" style="46" customWidth="1"/>
-    <col min="521" max="521" width="13.125" style="46" customWidth="1"/>
-    <col min="522" max="769" width="9" style="46"/>
-    <col min="770" max="770" width="11.375" style="46" customWidth="1"/>
-    <col min="771" max="771" width="9.75" style="46" customWidth="1"/>
-    <col min="772" max="772" width="8.125" style="46" customWidth="1"/>
-    <col min="773" max="773" width="12.5" style="46" customWidth="1"/>
-    <col min="774" max="774" width="16.25" style="46" customWidth="1"/>
-    <col min="775" max="775" width="6.125" style="46" customWidth="1"/>
-    <col min="776" max="776" width="9.375" style="46" customWidth="1"/>
-    <col min="777" max="777" width="13.125" style="46" customWidth="1"/>
-    <col min="778" max="1025" width="9" style="46"/>
-    <col min="1026" max="1026" width="11.375" style="46" customWidth="1"/>
-    <col min="1027" max="1027" width="9.75" style="46" customWidth="1"/>
-    <col min="1028" max="1028" width="8.125" style="46" customWidth="1"/>
-    <col min="1029" max="1029" width="12.5" style="46" customWidth="1"/>
-    <col min="1030" max="1030" width="16.25" style="46" customWidth="1"/>
-    <col min="1031" max="1031" width="6.125" style="46" customWidth="1"/>
-    <col min="1032" max="1032" width="9.375" style="46" customWidth="1"/>
-    <col min="1033" max="1033" width="13.125" style="46" customWidth="1"/>
-    <col min="1034" max="1281" width="9" style="46"/>
-    <col min="1282" max="1282" width="11.375" style="46" customWidth="1"/>
-    <col min="1283" max="1283" width="9.75" style="46" customWidth="1"/>
-    <col min="1284" max="1284" width="8.125" style="46" customWidth="1"/>
-    <col min="1285" max="1285" width="12.5" style="46" customWidth="1"/>
-    <col min="1286" max="1286" width="16.25" style="46" customWidth="1"/>
-    <col min="1287" max="1287" width="6.125" style="46" customWidth="1"/>
-    <col min="1288" max="1288" width="9.375" style="46" customWidth="1"/>
-    <col min="1289" max="1289" width="13.125" style="46" customWidth="1"/>
-    <col min="1290" max="1537" width="9" style="46"/>
-    <col min="1538" max="1538" width="11.375" style="46" customWidth="1"/>
-    <col min="1539" max="1539" width="9.75" style="46" customWidth="1"/>
-    <col min="1540" max="1540" width="8.125" style="46" customWidth="1"/>
-    <col min="1541" max="1541" width="12.5" style="46" customWidth="1"/>
-    <col min="1542" max="1542" width="16.25" style="46" customWidth="1"/>
-    <col min="1543" max="1543" width="6.125" style="46" customWidth="1"/>
-    <col min="1544" max="1544" width="9.375" style="46" customWidth="1"/>
-    <col min="1545" max="1545" width="13.125" style="46" customWidth="1"/>
-    <col min="1546" max="1793" width="9" style="46"/>
-    <col min="1794" max="1794" width="11.375" style="46" customWidth="1"/>
-    <col min="1795" max="1795" width="9.75" style="46" customWidth="1"/>
-    <col min="1796" max="1796" width="8.125" style="46" customWidth="1"/>
-    <col min="1797" max="1797" width="12.5" style="46" customWidth="1"/>
-    <col min="1798" max="1798" width="16.25" style="46" customWidth="1"/>
-    <col min="1799" max="1799" width="6.125" style="46" customWidth="1"/>
-    <col min="1800" max="1800" width="9.375" style="46" customWidth="1"/>
-    <col min="1801" max="1801" width="13.125" style="46" customWidth="1"/>
-    <col min="1802" max="2049" width="9" style="46"/>
-    <col min="2050" max="2050" width="11.375" style="46" customWidth="1"/>
-    <col min="2051" max="2051" width="9.75" style="46" customWidth="1"/>
-    <col min="2052" max="2052" width="8.125" style="46" customWidth="1"/>
-    <col min="2053" max="2053" width="12.5" style="46" customWidth="1"/>
-    <col min="2054" max="2054" width="16.25" style="46" customWidth="1"/>
-    <col min="2055" max="2055" width="6.125" style="46" customWidth="1"/>
-    <col min="2056" max="2056" width="9.375" style="46" customWidth="1"/>
-    <col min="2057" max="2057" width="13.125" style="46" customWidth="1"/>
-    <col min="2058" max="2305" width="9" style="46"/>
-    <col min="2306" max="2306" width="11.375" style="46" customWidth="1"/>
-    <col min="2307" max="2307" width="9.75" style="46" customWidth="1"/>
-    <col min="2308" max="2308" width="8.125" style="46" customWidth="1"/>
-    <col min="2309" max="2309" width="12.5" style="46" customWidth="1"/>
-    <col min="2310" max="2310" width="16.25" style="46" customWidth="1"/>
-    <col min="2311" max="2311" width="6.125" style="46" customWidth="1"/>
-    <col min="2312" max="2312" width="9.375" style="46" customWidth="1"/>
-    <col min="2313" max="2313" width="13.125" style="46" customWidth="1"/>
-    <col min="2314" max="2561" width="9" style="46"/>
-    <col min="2562" max="2562" width="11.375" style="46" customWidth="1"/>
-    <col min="2563" max="2563" width="9.75" style="46" customWidth="1"/>
-    <col min="2564" max="2564" width="8.125" style="46" customWidth="1"/>
-    <col min="2565" max="2565" width="12.5" style="46" customWidth="1"/>
-    <col min="2566" max="2566" width="16.25" style="46" customWidth="1"/>
-    <col min="2567" max="2567" width="6.125" style="46" customWidth="1"/>
-    <col min="2568" max="2568" width="9.375" style="46" customWidth="1"/>
-    <col min="2569" max="2569" width="13.125" style="46" customWidth="1"/>
-    <col min="2570" max="2817" width="9" style="46"/>
-    <col min="2818" max="2818" width="11.375" style="46" customWidth="1"/>
-    <col min="2819" max="2819" width="9.75" style="46" customWidth="1"/>
-    <col min="2820" max="2820" width="8.125" style="46" customWidth="1"/>
-    <col min="2821" max="2821" width="12.5" style="46" customWidth="1"/>
-    <col min="2822" max="2822" width="16.25" style="46" customWidth="1"/>
-    <col min="2823" max="2823" width="6.125" style="46" customWidth="1"/>
-    <col min="2824" max="2824" width="9.375" style="46" customWidth="1"/>
-    <col min="2825" max="2825" width="13.125" style="46" customWidth="1"/>
-    <col min="2826" max="3073" width="9" style="46"/>
-    <col min="3074" max="3074" width="11.375" style="46" customWidth="1"/>
-    <col min="3075" max="3075" width="9.75" style="46" customWidth="1"/>
-    <col min="3076" max="3076" width="8.125" style="46" customWidth="1"/>
-    <col min="3077" max="3077" width="12.5" style="46" customWidth="1"/>
-    <col min="3078" max="3078" width="16.25" style="46" customWidth="1"/>
-    <col min="3079" max="3079" width="6.125" style="46" customWidth="1"/>
-    <col min="3080" max="3080" width="9.375" style="46" customWidth="1"/>
-    <col min="3081" max="3081" width="13.125" style="46" customWidth="1"/>
-    <col min="3082" max="3329" width="9" style="46"/>
-    <col min="3330" max="3330" width="11.375" style="46" customWidth="1"/>
-    <col min="3331" max="3331" width="9.75" style="46" customWidth="1"/>
-    <col min="3332" max="3332" width="8.125" style="46" customWidth="1"/>
-    <col min="3333" max="3333" width="12.5" style="46" customWidth="1"/>
-    <col min="3334" max="3334" width="16.25" style="46" customWidth="1"/>
-    <col min="3335" max="3335" width="6.125" style="46" customWidth="1"/>
-    <col min="3336" max="3336" width="9.375" style="46" customWidth="1"/>
-    <col min="3337" max="3337" width="13.125" style="46" customWidth="1"/>
-    <col min="3338" max="3585" width="9" style="46"/>
-    <col min="3586" max="3586" width="11.375" style="46" customWidth="1"/>
-    <col min="3587" max="3587" width="9.75" style="46" customWidth="1"/>
-    <col min="3588" max="3588" width="8.125" style="46" customWidth="1"/>
-    <col min="3589" max="3589" width="12.5" style="46" customWidth="1"/>
-    <col min="3590" max="3590" width="16.25" style="46" customWidth="1"/>
-    <col min="3591" max="3591" width="6.125" style="46" customWidth="1"/>
-    <col min="3592" max="3592" width="9.375" style="46" customWidth="1"/>
-    <col min="3593" max="3593" width="13.125" style="46" customWidth="1"/>
-    <col min="3594" max="3841" width="9" style="46"/>
-    <col min="3842" max="3842" width="11.375" style="46" customWidth="1"/>
-    <col min="3843" max="3843" width="9.75" style="46" customWidth="1"/>
-    <col min="3844" max="3844" width="8.125" style="46" customWidth="1"/>
-    <col min="3845" max="3845" width="12.5" style="46" customWidth="1"/>
-    <col min="3846" max="3846" width="16.25" style="46" customWidth="1"/>
-    <col min="3847" max="3847" width="6.125" style="46" customWidth="1"/>
-    <col min="3848" max="3848" width="9.375" style="46" customWidth="1"/>
-    <col min="3849" max="3849" width="13.125" style="46" customWidth="1"/>
-    <col min="3850" max="4097" width="9" style="46"/>
-    <col min="4098" max="4098" width="11.375" style="46" customWidth="1"/>
-    <col min="4099" max="4099" width="9.75" style="46" customWidth="1"/>
-    <col min="4100" max="4100" width="8.125" style="46" customWidth="1"/>
-    <col min="4101" max="4101" width="12.5" style="46" customWidth="1"/>
-    <col min="4102" max="4102" width="16.25" style="46" customWidth="1"/>
-    <col min="4103" max="4103" width="6.125" style="46" customWidth="1"/>
-    <col min="4104" max="4104" width="9.375" style="46" customWidth="1"/>
-    <col min="4105" max="4105" width="13.125" style="46" customWidth="1"/>
-    <col min="4106" max="4353" width="9" style="46"/>
-    <col min="4354" max="4354" width="11.375" style="46" customWidth="1"/>
-    <col min="4355" max="4355" width="9.75" style="46" customWidth="1"/>
-    <col min="4356" max="4356" width="8.125" style="46" customWidth="1"/>
-    <col min="4357" max="4357" width="12.5" style="46" customWidth="1"/>
-    <col min="4358" max="4358" width="16.25" style="46" customWidth="1"/>
-    <col min="4359" max="4359" width="6.125" style="46" customWidth="1"/>
-    <col min="4360" max="4360" width="9.375" style="46" customWidth="1"/>
-    <col min="4361" max="4361" width="13.125" style="46" customWidth="1"/>
-    <col min="4362" max="4609" width="9" style="46"/>
-    <col min="4610" max="4610" width="11.375" style="46" customWidth="1"/>
-    <col min="4611" max="4611" width="9.75" style="46" customWidth="1"/>
-    <col min="4612" max="4612" width="8.125" style="46" customWidth="1"/>
-    <col min="4613" max="4613" width="12.5" style="46" customWidth="1"/>
-    <col min="4614" max="4614" width="16.25" style="46" customWidth="1"/>
-    <col min="4615" max="4615" width="6.125" style="46" customWidth="1"/>
-    <col min="4616" max="4616" width="9.375" style="46" customWidth="1"/>
-    <col min="4617" max="4617" width="13.125" style="46" customWidth="1"/>
-    <col min="4618" max="4865" width="9" style="46"/>
-    <col min="4866" max="4866" width="11.375" style="46" customWidth="1"/>
-    <col min="4867" max="4867" width="9.75" style="46" customWidth="1"/>
-    <col min="4868" max="4868" width="8.125" style="46" customWidth="1"/>
-    <col min="4869" max="4869" width="12.5" style="46" customWidth="1"/>
-    <col min="4870" max="4870" width="16.25" style="46" customWidth="1"/>
-    <col min="4871" max="4871" width="6.125" style="46" customWidth="1"/>
-    <col min="4872" max="4872" width="9.375" style="46" customWidth="1"/>
-    <col min="4873" max="4873" width="13.125" style="46" customWidth="1"/>
-    <col min="4874" max="5121" width="9" style="46"/>
-    <col min="5122" max="5122" width="11.375" style="46" customWidth="1"/>
-    <col min="5123" max="5123" width="9.75" style="46" customWidth="1"/>
-    <col min="5124" max="5124" width="8.125" style="46" customWidth="1"/>
-    <col min="5125" max="5125" width="12.5" style="46" customWidth="1"/>
-    <col min="5126" max="5126" width="16.25" style="46" customWidth="1"/>
-    <col min="5127" max="5127" width="6.125" style="46" customWidth="1"/>
-    <col min="5128" max="5128" width="9.375" style="46" customWidth="1"/>
-    <col min="5129" max="5129" width="13.125" style="46" customWidth="1"/>
-    <col min="5130" max="5377" width="9" style="46"/>
-    <col min="5378" max="5378" width="11.375" style="46" customWidth="1"/>
-    <col min="5379" max="5379" width="9.75" style="46" customWidth="1"/>
-    <col min="5380" max="5380" width="8.125" style="46" customWidth="1"/>
-    <col min="5381" max="5381" width="12.5" style="46" customWidth="1"/>
-    <col min="5382" max="5382" width="16.25" style="46" customWidth="1"/>
-    <col min="5383" max="5383" width="6.125" style="46" customWidth="1"/>
-    <col min="5384" max="5384" width="9.375" style="46" customWidth="1"/>
-    <col min="5385" max="5385" width="13.125" style="46" customWidth="1"/>
-    <col min="5386" max="5633" width="9" style="46"/>
-    <col min="5634" max="5634" width="11.375" style="46" customWidth="1"/>
-    <col min="5635" max="5635" width="9.75" style="46" customWidth="1"/>
-    <col min="5636" max="5636" width="8.125" style="46" customWidth="1"/>
-    <col min="5637" max="5637" width="12.5" style="46" customWidth="1"/>
-    <col min="5638" max="5638" width="16.25" style="46" customWidth="1"/>
-    <col min="5639" max="5639" width="6.125" style="46" customWidth="1"/>
-    <col min="5640" max="5640" width="9.375" style="46" customWidth="1"/>
-    <col min="5641" max="5641" width="13.125" style="46" customWidth="1"/>
-    <col min="5642" max="5889" width="9" style="46"/>
-    <col min="5890" max="5890" width="11.375" style="46" customWidth="1"/>
-    <col min="5891" max="5891" width="9.75" style="46" customWidth="1"/>
-    <col min="5892" max="5892" width="8.125" style="46" customWidth="1"/>
-    <col min="5893" max="5893" width="12.5" style="46" customWidth="1"/>
-    <col min="5894" max="5894" width="16.25" style="46" customWidth="1"/>
-    <col min="5895" max="5895" width="6.125" style="46" customWidth="1"/>
-    <col min="5896" max="5896" width="9.375" style="46" customWidth="1"/>
-    <col min="5897" max="5897" width="13.125" style="46" customWidth="1"/>
-    <col min="5898" max="6145" width="9" style="46"/>
-    <col min="6146" max="6146" width="11.375" style="46" customWidth="1"/>
-    <col min="6147" max="6147" width="9.75" style="46" customWidth="1"/>
-    <col min="6148" max="6148" width="8.125" style="46" customWidth="1"/>
-    <col min="6149" max="6149" width="12.5" style="46" customWidth="1"/>
-    <col min="6150" max="6150" width="16.25" style="46" customWidth="1"/>
-    <col min="6151" max="6151" width="6.125" style="46" customWidth="1"/>
-    <col min="6152" max="6152" width="9.375" style="46" customWidth="1"/>
-    <col min="6153" max="6153" width="13.125" style="46" customWidth="1"/>
-    <col min="6154" max="6401" width="9" style="46"/>
-    <col min="6402" max="6402" width="11.375" style="46" customWidth="1"/>
-    <col min="6403" max="6403" width="9.75" style="46" customWidth="1"/>
-    <col min="6404" max="6404" width="8.125" style="46" customWidth="1"/>
-    <col min="6405" max="6405" width="12.5" style="46" customWidth="1"/>
-    <col min="6406" max="6406" width="16.25" style="46" customWidth="1"/>
-    <col min="6407" max="6407" width="6.125" style="46" customWidth="1"/>
-    <col min="6408" max="6408" width="9.375" style="46" customWidth="1"/>
-    <col min="6409" max="6409" width="13.125" style="46" customWidth="1"/>
-    <col min="6410" max="6657" width="9" style="46"/>
-    <col min="6658" max="6658" width="11.375" style="46" customWidth="1"/>
-    <col min="6659" max="6659" width="9.75" style="46" customWidth="1"/>
-    <col min="6660" max="6660" width="8.125" style="46" customWidth="1"/>
-    <col min="6661" max="6661" width="12.5" style="46" customWidth="1"/>
-    <col min="6662" max="6662" width="16.25" style="46" customWidth="1"/>
-    <col min="6663" max="6663" width="6.125" style="46" customWidth="1"/>
-    <col min="6664" max="6664" width="9.375" style="46" customWidth="1"/>
-    <col min="6665" max="6665" width="13.125" style="46" customWidth="1"/>
-    <col min="6666" max="6913" width="9" style="46"/>
-    <col min="6914" max="6914" width="11.375" style="46" customWidth="1"/>
-    <col min="6915" max="6915" width="9.75" style="46" customWidth="1"/>
-    <col min="6916" max="6916" width="8.125" style="46" customWidth="1"/>
-    <col min="6917" max="6917" width="12.5" style="46" customWidth="1"/>
-    <col min="6918" max="6918" width="16.25" style="46" customWidth="1"/>
-    <col min="6919" max="6919" width="6.125" style="46" customWidth="1"/>
-    <col min="6920" max="6920" width="9.375" style="46" customWidth="1"/>
-    <col min="6921" max="6921" width="13.125" style="46" customWidth="1"/>
-    <col min="6922" max="7169" width="9" style="46"/>
-    <col min="7170" max="7170" width="11.375" style="46" customWidth="1"/>
-    <col min="7171" max="7171" width="9.75" style="46" customWidth="1"/>
-    <col min="7172" max="7172" width="8.125" style="46" customWidth="1"/>
-    <col min="7173" max="7173" width="12.5" style="46" customWidth="1"/>
-    <col min="7174" max="7174" width="16.25" style="46" customWidth="1"/>
-    <col min="7175" max="7175" width="6.125" style="46" customWidth="1"/>
-    <col min="7176" max="7176" width="9.375" style="46" customWidth="1"/>
-    <col min="7177" max="7177" width="13.125" style="46" customWidth="1"/>
-    <col min="7178" max="7425" width="9" style="46"/>
-    <col min="7426" max="7426" width="11.375" style="46" customWidth="1"/>
-    <col min="7427" max="7427" width="9.75" style="46" customWidth="1"/>
-    <col min="7428" max="7428" width="8.125" style="46" customWidth="1"/>
-    <col min="7429" max="7429" width="12.5" style="46" customWidth="1"/>
-    <col min="7430" max="7430" width="16.25" style="46" customWidth="1"/>
-    <col min="7431" max="7431" width="6.125" style="46" customWidth="1"/>
-    <col min="7432" max="7432" width="9.375" style="46" customWidth="1"/>
-    <col min="7433" max="7433" width="13.125" style="46" customWidth="1"/>
-    <col min="7434" max="7681" width="9" style="46"/>
-    <col min="7682" max="7682" width="11.375" style="46" customWidth="1"/>
-    <col min="7683" max="7683" width="9.75" style="46" customWidth="1"/>
-    <col min="7684" max="7684" width="8.125" style="46" customWidth="1"/>
-    <col min="7685" max="7685" width="12.5" style="46" customWidth="1"/>
-    <col min="7686" max="7686" width="16.25" style="46" customWidth="1"/>
-    <col min="7687" max="7687" width="6.125" style="46" customWidth="1"/>
-    <col min="7688" max="7688" width="9.375" style="46" customWidth="1"/>
-    <col min="7689" max="7689" width="13.125" style="46" customWidth="1"/>
-    <col min="7690" max="7937" width="9" style="46"/>
-    <col min="7938" max="7938" width="11.375" style="46" customWidth="1"/>
-    <col min="7939" max="7939" width="9.75" style="46" customWidth="1"/>
-    <col min="7940" max="7940" width="8.125" style="46" customWidth="1"/>
-    <col min="7941" max="7941" width="12.5" style="46" customWidth="1"/>
-    <col min="7942" max="7942" width="16.25" style="46" customWidth="1"/>
-    <col min="7943" max="7943" width="6.125" style="46" customWidth="1"/>
-    <col min="7944" max="7944" width="9.375" style="46" customWidth="1"/>
-    <col min="7945" max="7945" width="13.125" style="46" customWidth="1"/>
-    <col min="7946" max="8193" width="9" style="46"/>
-    <col min="8194" max="8194" width="11.375" style="46" customWidth="1"/>
-    <col min="8195" max="8195" width="9.75" style="46" customWidth="1"/>
-    <col min="8196" max="8196" width="8.125" style="46" customWidth="1"/>
-    <col min="8197" max="8197" width="12.5" style="46" customWidth="1"/>
-    <col min="8198" max="8198" width="16.25" style="46" customWidth="1"/>
-    <col min="8199" max="8199" width="6.125" style="46" customWidth="1"/>
-    <col min="8200" max="8200" width="9.375" style="46" customWidth="1"/>
-    <col min="8201" max="8201" width="13.125" style="46" customWidth="1"/>
-    <col min="8202" max="8449" width="9" style="46"/>
-    <col min="8450" max="8450" width="11.375" style="46" customWidth="1"/>
-    <col min="8451" max="8451" width="9.75" style="46" customWidth="1"/>
-    <col min="8452" max="8452" width="8.125" style="46" customWidth="1"/>
-    <col min="8453" max="8453" width="12.5" style="46" customWidth="1"/>
-    <col min="8454" max="8454" width="16.25" style="46" customWidth="1"/>
-    <col min="8455" max="8455" width="6.125" style="46" customWidth="1"/>
-    <col min="8456" max="8456" width="9.375" style="46" customWidth="1"/>
-    <col min="8457" max="8457" width="13.125" style="46" customWidth="1"/>
-    <col min="8458" max="8705" width="9" style="46"/>
-    <col min="8706" max="8706" width="11.375" style="46" customWidth="1"/>
-    <col min="8707" max="8707" width="9.75" style="46" customWidth="1"/>
-    <col min="8708" max="8708" width="8.125" style="46" customWidth="1"/>
-    <col min="8709" max="8709" width="12.5" style="46" customWidth="1"/>
-    <col min="8710" max="8710" width="16.25" style="46" customWidth="1"/>
-    <col min="8711" max="8711" width="6.125" style="46" customWidth="1"/>
-    <col min="8712" max="8712" width="9.375" style="46" customWidth="1"/>
-    <col min="8713" max="8713" width="13.125" style="46" customWidth="1"/>
-    <col min="8714" max="8961" width="9" style="46"/>
-    <col min="8962" max="8962" width="11.375" style="46" customWidth="1"/>
-    <col min="8963" max="8963" width="9.75" style="46" customWidth="1"/>
-    <col min="8964" max="8964" width="8.125" style="46" customWidth="1"/>
-    <col min="8965" max="8965" width="12.5" style="46" customWidth="1"/>
-    <col min="8966" max="8966" width="16.25" style="46" customWidth="1"/>
-    <col min="8967" max="8967" width="6.125" style="46" customWidth="1"/>
-    <col min="8968" max="8968" width="9.375" style="46" customWidth="1"/>
-    <col min="8969" max="8969" width="13.125" style="46" customWidth="1"/>
-    <col min="8970" max="9217" width="9" style="46"/>
-    <col min="9218" max="9218" width="11.375" style="46" customWidth="1"/>
-    <col min="9219" max="9219" width="9.75" style="46" customWidth="1"/>
-    <col min="9220" max="9220" width="8.125" style="46" customWidth="1"/>
-    <col min="9221" max="9221" width="12.5" style="46" customWidth="1"/>
-    <col min="9222" max="9222" width="16.25" style="46" customWidth="1"/>
-    <col min="9223" max="9223" width="6.125" style="46" customWidth="1"/>
-    <col min="9224" max="9224" width="9.375" style="46" customWidth="1"/>
-    <col min="9225" max="9225" width="13.125" style="46" customWidth="1"/>
-    <col min="9226" max="9473" width="9" style="46"/>
-    <col min="9474" max="9474" width="11.375" style="46" customWidth="1"/>
-    <col min="9475" max="9475" width="9.75" style="46" customWidth="1"/>
-    <col min="9476" max="9476" width="8.125" style="46" customWidth="1"/>
-    <col min="9477" max="9477" width="12.5" style="46" customWidth="1"/>
-    <col min="9478" max="9478" width="16.25" style="46" customWidth="1"/>
-    <col min="9479" max="9479" width="6.125" style="46" customWidth="1"/>
-    <col min="9480" max="9480" width="9.375" style="46" customWidth="1"/>
-    <col min="9481" max="9481" width="13.125" style="46" customWidth="1"/>
-    <col min="9482" max="9729" width="9" style="46"/>
-    <col min="9730" max="9730" width="11.375" style="46" customWidth="1"/>
-    <col min="9731" max="9731" width="9.75" style="46" customWidth="1"/>
-    <col min="9732" max="9732" width="8.125" style="46" customWidth="1"/>
-    <col min="9733" max="9733" width="12.5" style="46" customWidth="1"/>
-    <col min="9734" max="9734" width="16.25" style="46" customWidth="1"/>
-    <col min="9735" max="9735" width="6.125" style="46" customWidth="1"/>
-    <col min="9736" max="9736" width="9.375" style="46" customWidth="1"/>
-    <col min="9737" max="9737" width="13.125" style="46" customWidth="1"/>
-    <col min="9738" max="9985" width="9" style="46"/>
-    <col min="9986" max="9986" width="11.375" style="46" customWidth="1"/>
-    <col min="9987" max="9987" width="9.75" style="46" customWidth="1"/>
-    <col min="9988" max="9988" width="8.125" style="46" customWidth="1"/>
-    <col min="9989" max="9989" width="12.5" style="46" customWidth="1"/>
-    <col min="9990" max="9990" width="16.25" style="46" customWidth="1"/>
-    <col min="9991" max="9991" width="6.125" style="46" customWidth="1"/>
-    <col min="9992" max="9992" width="9.375" style="46" customWidth="1"/>
-    <col min="9993" max="9993" width="13.125" style="46" customWidth="1"/>
-    <col min="9994" max="10241" width="9" style="46"/>
-    <col min="10242" max="10242" width="11.375" style="46" customWidth="1"/>
-    <col min="10243" max="10243" width="9.75" style="46" customWidth="1"/>
-    <col min="10244" max="10244" width="8.125" style="46" customWidth="1"/>
-    <col min="10245" max="10245" width="12.5" style="46" customWidth="1"/>
-    <col min="10246" max="10246" width="16.25" style="46" customWidth="1"/>
-    <col min="10247" max="10247" width="6.125" style="46" customWidth="1"/>
-    <col min="10248" max="10248" width="9.375" style="46" customWidth="1"/>
-    <col min="10249" max="10249" width="13.125" style="46" customWidth="1"/>
-    <col min="10250" max="10497" width="9" style="46"/>
-    <col min="10498" max="10498" width="11.375" style="46" customWidth="1"/>
-    <col min="10499" max="10499" width="9.75" style="46" customWidth="1"/>
-    <col min="10500" max="10500" width="8.125" style="46" customWidth="1"/>
-    <col min="10501" max="10501" width="12.5" style="46" customWidth="1"/>
-    <col min="10502" max="10502" width="16.25" style="46" customWidth="1"/>
-    <col min="10503" max="10503" width="6.125" style="46" customWidth="1"/>
-    <col min="10504" max="10504" width="9.375" style="46" customWidth="1"/>
-    <col min="10505" max="10505" width="13.125" style="46" customWidth="1"/>
-    <col min="10506" max="10753" width="9" style="46"/>
-    <col min="10754" max="10754" width="11.375" style="46" customWidth="1"/>
-    <col min="10755" max="10755" width="9.75" style="46" customWidth="1"/>
-    <col min="10756" max="10756" width="8.125" style="46" customWidth="1"/>
-    <col min="10757" max="10757" width="12.5" style="46" customWidth="1"/>
-    <col min="10758" max="10758" width="16.25" style="46" customWidth="1"/>
-    <col min="10759" max="10759" width="6.125" style="46" customWidth="1"/>
-    <col min="10760" max="10760" width="9.375" style="46" customWidth="1"/>
-    <col min="10761" max="10761" width="13.125" style="46" customWidth="1"/>
-    <col min="10762" max="11009" width="9" style="46"/>
-    <col min="11010" max="11010" width="11.375" style="46" customWidth="1"/>
-    <col min="11011" max="11011" width="9.75" style="46" customWidth="1"/>
-    <col min="11012" max="11012" width="8.125" style="46" customWidth="1"/>
-    <col min="11013" max="11013" width="12.5" style="46" customWidth="1"/>
-    <col min="11014" max="11014" width="16.25" style="46" customWidth="1"/>
-    <col min="11015" max="11015" width="6.125" style="46" customWidth="1"/>
-    <col min="11016" max="11016" width="9.375" style="46" customWidth="1"/>
-    <col min="11017" max="11017" width="13.125" style="46" customWidth="1"/>
-    <col min="11018" max="11265" width="9" style="46"/>
-    <col min="11266" max="11266" width="11.375" style="46" customWidth="1"/>
-    <col min="11267" max="11267" width="9.75" style="46" customWidth="1"/>
-    <col min="11268" max="11268" width="8.125" style="46" customWidth="1"/>
-    <col min="11269" max="11269" width="12.5" style="46" customWidth="1"/>
-    <col min="11270" max="11270" width="16.25" style="46" customWidth="1"/>
-    <col min="11271" max="11271" width="6.125" style="46" customWidth="1"/>
-    <col min="11272" max="11272" width="9.375" style="46" customWidth="1"/>
-    <col min="11273" max="11273" width="13.125" style="46" customWidth="1"/>
-    <col min="11274" max="11521" width="9" style="46"/>
-    <col min="11522" max="11522" width="11.375" style="46" customWidth="1"/>
-    <col min="11523" max="11523" width="9.75" style="46" customWidth="1"/>
-    <col min="11524" max="11524" width="8.125" style="46" customWidth="1"/>
-    <col min="11525" max="11525" width="12.5" style="46" customWidth="1"/>
-    <col min="11526" max="11526" width="16.25" style="46" customWidth="1"/>
-    <col min="11527" max="11527" width="6.125" style="46" customWidth="1"/>
-    <col min="11528" max="11528" width="9.375" style="46" customWidth="1"/>
-    <col min="11529" max="11529" width="13.125" style="46" customWidth="1"/>
-    <col min="11530" max="11777" width="9" style="46"/>
-    <col min="11778" max="11778" width="11.375" style="46" customWidth="1"/>
-    <col min="11779" max="11779" width="9.75" style="46" customWidth="1"/>
-    <col min="11780" max="11780" width="8.125" style="46" customWidth="1"/>
-    <col min="11781" max="11781" width="12.5" style="46" customWidth="1"/>
-    <col min="11782" max="11782" width="16.25" style="46" customWidth="1"/>
-    <col min="11783" max="11783" width="6.125" style="46" customWidth="1"/>
-    <col min="11784" max="11784" width="9.375" style="46" customWidth="1"/>
-    <col min="11785" max="11785" width="13.125" style="46" customWidth="1"/>
-    <col min="11786" max="12033" width="9" style="46"/>
-    <col min="12034" max="12034" width="11.375" style="46" customWidth="1"/>
-    <col min="12035" max="12035" width="9.75" style="46" customWidth="1"/>
-    <col min="12036" max="12036" width="8.125" style="46" customWidth="1"/>
-    <col min="12037" max="12037" width="12.5" style="46" customWidth="1"/>
-    <col min="12038" max="12038" width="16.25" style="46" customWidth="1"/>
-    <col min="12039" max="12039" width="6.125" style="46" customWidth="1"/>
-    <col min="12040" max="12040" width="9.375" style="46" customWidth="1"/>
-    <col min="12041" max="12041" width="13.125" style="46" customWidth="1"/>
-    <col min="12042" max="12289" width="9" style="46"/>
-    <col min="12290" max="12290" width="11.375" style="46" customWidth="1"/>
-    <col min="12291" max="12291" width="9.75" style="46" customWidth="1"/>
-    <col min="12292" max="12292" width="8.125" style="46" customWidth="1"/>
-    <col min="12293" max="12293" width="12.5" style="46" customWidth="1"/>
-    <col min="12294" max="12294" width="16.25" style="46" customWidth="1"/>
-    <col min="12295" max="12295" width="6.125" style="46" customWidth="1"/>
-    <col min="12296" max="12296" width="9.375" style="46" customWidth="1"/>
-    <col min="12297" max="12297" width="13.125" style="46" customWidth="1"/>
-    <col min="12298" max="12545" width="9" style="46"/>
-    <col min="12546" max="12546" width="11.375" style="46" customWidth="1"/>
-    <col min="12547" max="12547" width="9.75" style="46" customWidth="1"/>
-    <col min="12548" max="12548" width="8.125" style="46" customWidth="1"/>
-    <col min="12549" max="12549" width="12.5" style="46" customWidth="1"/>
-    <col min="12550" max="12550" width="16.25" style="46" customWidth="1"/>
-    <col min="12551" max="12551" width="6.125" style="46" customWidth="1"/>
-    <col min="12552" max="12552" width="9.375" style="46" customWidth="1"/>
-    <col min="12553" max="12553" width="13.125" style="46" customWidth="1"/>
-    <col min="12554" max="12801" width="9" style="46"/>
-    <col min="12802" max="12802" width="11.375" style="46" customWidth="1"/>
-    <col min="12803" max="12803" width="9.75" style="46" customWidth="1"/>
-    <col min="12804" max="12804" width="8.125" style="46" customWidth="1"/>
-    <col min="12805" max="12805" width="12.5" style="46" customWidth="1"/>
-    <col min="12806" max="12806" width="16.25" style="46" customWidth="1"/>
-    <col min="12807" max="12807" width="6.125" style="46" customWidth="1"/>
-    <col min="12808" max="12808" width="9.375" style="46" customWidth="1"/>
-    <col min="12809" max="12809" width="13.125" style="46" customWidth="1"/>
-    <col min="12810" max="13057" width="9" style="46"/>
-    <col min="13058" max="13058" width="11.375" style="46" customWidth="1"/>
-    <col min="13059" max="13059" width="9.75" style="46" customWidth="1"/>
-    <col min="13060" max="13060" width="8.125" style="46" customWidth="1"/>
-    <col min="13061" max="13061" width="12.5" style="46" customWidth="1"/>
-    <col min="13062" max="13062" width="16.25" style="46" customWidth="1"/>
-    <col min="13063" max="13063" width="6.125" style="46" customWidth="1"/>
-    <col min="13064" max="13064" width="9.375" style="46" customWidth="1"/>
-    <col min="13065" max="13065" width="13.125" style="46" customWidth="1"/>
-    <col min="13066" max="13313" width="9" style="46"/>
-    <col min="13314" max="13314" width="11.375" style="46" customWidth="1"/>
-    <col min="13315" max="13315" width="9.75" style="46" customWidth="1"/>
-    <col min="13316" max="13316" width="8.125" style="46" customWidth="1"/>
-    <col min="13317" max="13317" width="12.5" style="46" customWidth="1"/>
-    <col min="13318" max="13318" width="16.25" style="46" customWidth="1"/>
-    <col min="13319" max="13319" width="6.125" style="46" customWidth="1"/>
-    <col min="13320" max="13320" width="9.375" style="46" customWidth="1"/>
-    <col min="13321" max="13321" width="13.125" style="46" customWidth="1"/>
-    <col min="13322" max="13569" width="9" style="46"/>
-    <col min="13570" max="13570" width="11.375" style="46" customWidth="1"/>
-    <col min="13571" max="13571" width="9.75" style="46" customWidth="1"/>
-    <col min="13572" max="13572" width="8.125" style="46" customWidth="1"/>
-    <col min="13573" max="13573" width="12.5" style="46" customWidth="1"/>
-    <col min="13574" max="13574" width="16.25" style="46" customWidth="1"/>
-    <col min="13575" max="13575" width="6.125" style="46" customWidth="1"/>
-    <col min="13576" max="13576" width="9.375" style="46" customWidth="1"/>
-    <col min="13577" max="13577" width="13.125" style="46" customWidth="1"/>
-    <col min="13578" max="13825" width="9" style="46"/>
-    <col min="13826" max="13826" width="11.375" style="46" customWidth="1"/>
-    <col min="13827" max="13827" width="9.75" style="46" customWidth="1"/>
-    <col min="13828" max="13828" width="8.125" style="46" customWidth="1"/>
-    <col min="13829" max="13829" width="12.5" style="46" customWidth="1"/>
-    <col min="13830" max="13830" width="16.25" style="46" customWidth="1"/>
-    <col min="13831" max="13831" width="6.125" style="46" customWidth="1"/>
-    <col min="13832" max="13832" width="9.375" style="46" customWidth="1"/>
-    <col min="13833" max="13833" width="13.125" style="46" customWidth="1"/>
-    <col min="13834" max="14081" width="9" style="46"/>
-    <col min="14082" max="14082" width="11.375" style="46" customWidth="1"/>
-    <col min="14083" max="14083" width="9.75" style="46" customWidth="1"/>
-    <col min="14084" max="14084" width="8.125" style="46" customWidth="1"/>
-    <col min="14085" max="14085" width="12.5" style="46" customWidth="1"/>
-    <col min="14086" max="14086" width="16.25" style="46" customWidth="1"/>
-    <col min="14087" max="14087" width="6.125" style="46" customWidth="1"/>
-    <col min="14088" max="14088" width="9.375" style="46" customWidth="1"/>
-    <col min="14089" max="14089" width="13.125" style="46" customWidth="1"/>
-    <col min="14090" max="14337" width="9" style="46"/>
-    <col min="14338" max="14338" width="11.375" style="46" customWidth="1"/>
-    <col min="14339" max="14339" width="9.75" style="46" customWidth="1"/>
-    <col min="14340" max="14340" width="8.125" style="46" customWidth="1"/>
-    <col min="14341" max="14341" width="12.5" style="46" customWidth="1"/>
-    <col min="14342" max="14342" width="16.25" style="46" customWidth="1"/>
-    <col min="14343" max="14343" width="6.125" style="46" customWidth="1"/>
-    <col min="14344" max="14344" width="9.375" style="46" customWidth="1"/>
-    <col min="14345" max="14345" width="13.125" style="46" customWidth="1"/>
-    <col min="14346" max="14593" width="9" style="46"/>
-    <col min="14594" max="14594" width="11.375" style="46" customWidth="1"/>
-    <col min="14595" max="14595" width="9.75" style="46" customWidth="1"/>
-    <col min="14596" max="14596" width="8.125" style="46" customWidth="1"/>
-    <col min="14597" max="14597" width="12.5" style="46" customWidth="1"/>
-    <col min="14598" max="14598" width="16.25" style="46" customWidth="1"/>
-    <col min="14599" max="14599" width="6.125" style="46" customWidth="1"/>
-    <col min="14600" max="14600" width="9.375" style="46" customWidth="1"/>
-    <col min="14601" max="14601" width="13.125" style="46" customWidth="1"/>
-    <col min="14602" max="14849" width="9" style="46"/>
-    <col min="14850" max="14850" width="11.375" style="46" customWidth="1"/>
-    <col min="14851" max="14851" width="9.75" style="46" customWidth="1"/>
-    <col min="14852" max="14852" width="8.125" style="46" customWidth="1"/>
-    <col min="14853" max="14853" width="12.5" style="46" customWidth="1"/>
-    <col min="14854" max="14854" width="16.25" style="46" customWidth="1"/>
-    <col min="14855" max="14855" width="6.125" style="46" customWidth="1"/>
-    <col min="14856" max="14856" width="9.375" style="46" customWidth="1"/>
-    <col min="14857" max="14857" width="13.125" style="46" customWidth="1"/>
-    <col min="14858" max="15105" width="9" style="46"/>
-    <col min="15106" max="15106" width="11.375" style="46" customWidth="1"/>
-    <col min="15107" max="15107" width="9.75" style="46" customWidth="1"/>
-    <col min="15108" max="15108" width="8.125" style="46" customWidth="1"/>
-    <col min="15109" max="15109" width="12.5" style="46" customWidth="1"/>
-    <col min="15110" max="15110" width="16.25" style="46" customWidth="1"/>
-    <col min="15111" max="15111" width="6.125" style="46" customWidth="1"/>
-    <col min="15112" max="15112" width="9.375" style="46" customWidth="1"/>
-    <col min="15113" max="15113" width="13.125" style="46" customWidth="1"/>
-    <col min="15114" max="15361" width="9" style="46"/>
-    <col min="15362" max="15362" width="11.375" style="46" customWidth="1"/>
-    <col min="15363" max="15363" width="9.75" style="46" customWidth="1"/>
-    <col min="15364" max="15364" width="8.125" style="46" customWidth="1"/>
-    <col min="15365" max="15365" width="12.5" style="46" customWidth="1"/>
-    <col min="15366" max="15366" width="16.25" style="46" customWidth="1"/>
-    <col min="15367" max="15367" width="6.125" style="46" customWidth="1"/>
-    <col min="15368" max="15368" width="9.375" style="46" customWidth="1"/>
-    <col min="15369" max="15369" width="13.125" style="46" customWidth="1"/>
-    <col min="15370" max="15617" width="9" style="46"/>
-    <col min="15618" max="15618" width="11.375" style="46" customWidth="1"/>
-    <col min="15619" max="15619" width="9.75" style="46" customWidth="1"/>
-    <col min="15620" max="15620" width="8.125" style="46" customWidth="1"/>
-    <col min="15621" max="15621" width="12.5" style="46" customWidth="1"/>
-    <col min="15622" max="15622" width="16.25" style="46" customWidth="1"/>
-    <col min="15623" max="15623" width="6.125" style="46" customWidth="1"/>
-    <col min="15624" max="15624" width="9.375" style="46" customWidth="1"/>
-    <col min="15625" max="15625" width="13.125" style="46" customWidth="1"/>
-    <col min="15626" max="15873" width="9" style="46"/>
-    <col min="15874" max="15874" width="11.375" style="46" customWidth="1"/>
-    <col min="15875" max="15875" width="9.75" style="46" customWidth="1"/>
-    <col min="15876" max="15876" width="8.125" style="46" customWidth="1"/>
-    <col min="15877" max="15877" width="12.5" style="46" customWidth="1"/>
-    <col min="15878" max="15878" width="16.25" style="46" customWidth="1"/>
-    <col min="15879" max="15879" width="6.125" style="46" customWidth="1"/>
-    <col min="15880" max="15880" width="9.375" style="46" customWidth="1"/>
-    <col min="15881" max="15881" width="13.125" style="46" customWidth="1"/>
-    <col min="15882" max="16129" width="9" style="46"/>
-    <col min="16130" max="16130" width="11.375" style="46" customWidth="1"/>
-    <col min="16131" max="16131" width="9.75" style="46" customWidth="1"/>
-    <col min="16132" max="16132" width="8.125" style="46" customWidth="1"/>
-    <col min="16133" max="16133" width="12.5" style="46" customWidth="1"/>
-    <col min="16134" max="16134" width="16.25" style="46" customWidth="1"/>
-    <col min="16135" max="16135" width="6.125" style="46" customWidth="1"/>
-    <col min="16136" max="16136" width="9.375" style="46" customWidth="1"/>
-    <col min="16137" max="16137" width="13.125" style="46" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="46"/>
+    <col min="1" max="1" width="2.625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="45" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="45" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="45" customWidth="1"/>
+    <col min="7" max="7" width="6.125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="45" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="2.125" style="45" customWidth="1"/>
+    <col min="11" max="257" width="9" style="45"/>
+    <col min="258" max="258" width="11.375" style="45" customWidth="1"/>
+    <col min="259" max="259" width="9.75" style="45" customWidth="1"/>
+    <col min="260" max="260" width="8.125" style="45" customWidth="1"/>
+    <col min="261" max="261" width="12.5" style="45" customWidth="1"/>
+    <col min="262" max="262" width="16.25" style="45" customWidth="1"/>
+    <col min="263" max="263" width="6.125" style="45" customWidth="1"/>
+    <col min="264" max="264" width="9.375" style="45" customWidth="1"/>
+    <col min="265" max="265" width="13.125" style="45" customWidth="1"/>
+    <col min="266" max="513" width="9" style="45"/>
+    <col min="514" max="514" width="11.375" style="45" customWidth="1"/>
+    <col min="515" max="515" width="9.75" style="45" customWidth="1"/>
+    <col min="516" max="516" width="8.125" style="45" customWidth="1"/>
+    <col min="517" max="517" width="12.5" style="45" customWidth="1"/>
+    <col min="518" max="518" width="16.25" style="45" customWidth="1"/>
+    <col min="519" max="519" width="6.125" style="45" customWidth="1"/>
+    <col min="520" max="520" width="9.375" style="45" customWidth="1"/>
+    <col min="521" max="521" width="13.125" style="45" customWidth="1"/>
+    <col min="522" max="769" width="9" style="45"/>
+    <col min="770" max="770" width="11.375" style="45" customWidth="1"/>
+    <col min="771" max="771" width="9.75" style="45" customWidth="1"/>
+    <col min="772" max="772" width="8.125" style="45" customWidth="1"/>
+    <col min="773" max="773" width="12.5" style="45" customWidth="1"/>
+    <col min="774" max="774" width="16.25" style="45" customWidth="1"/>
+    <col min="775" max="775" width="6.125" style="45" customWidth="1"/>
+    <col min="776" max="776" width="9.375" style="45" customWidth="1"/>
+    <col min="777" max="777" width="13.125" style="45" customWidth="1"/>
+    <col min="778" max="1025" width="9" style="45"/>
+    <col min="1026" max="1026" width="11.375" style="45" customWidth="1"/>
+    <col min="1027" max="1027" width="9.75" style="45" customWidth="1"/>
+    <col min="1028" max="1028" width="8.125" style="45" customWidth="1"/>
+    <col min="1029" max="1029" width="12.5" style="45" customWidth="1"/>
+    <col min="1030" max="1030" width="16.25" style="45" customWidth="1"/>
+    <col min="1031" max="1031" width="6.125" style="45" customWidth="1"/>
+    <col min="1032" max="1032" width="9.375" style="45" customWidth="1"/>
+    <col min="1033" max="1033" width="13.125" style="45" customWidth="1"/>
+    <col min="1034" max="1281" width="9" style="45"/>
+    <col min="1282" max="1282" width="11.375" style="45" customWidth="1"/>
+    <col min="1283" max="1283" width="9.75" style="45" customWidth="1"/>
+    <col min="1284" max="1284" width="8.125" style="45" customWidth="1"/>
+    <col min="1285" max="1285" width="12.5" style="45" customWidth="1"/>
+    <col min="1286" max="1286" width="16.25" style="45" customWidth="1"/>
+    <col min="1287" max="1287" width="6.125" style="45" customWidth="1"/>
+    <col min="1288" max="1288" width="9.375" style="45" customWidth="1"/>
+    <col min="1289" max="1289" width="13.125" style="45" customWidth="1"/>
+    <col min="1290" max="1537" width="9" style="45"/>
+    <col min="1538" max="1538" width="11.375" style="45" customWidth="1"/>
+    <col min="1539" max="1539" width="9.75" style="45" customWidth="1"/>
+    <col min="1540" max="1540" width="8.125" style="45" customWidth="1"/>
+    <col min="1541" max="1541" width="12.5" style="45" customWidth="1"/>
+    <col min="1542" max="1542" width="16.25" style="45" customWidth="1"/>
+    <col min="1543" max="1543" width="6.125" style="45" customWidth="1"/>
+    <col min="1544" max="1544" width="9.375" style="45" customWidth="1"/>
+    <col min="1545" max="1545" width="13.125" style="45" customWidth="1"/>
+    <col min="1546" max="1793" width="9" style="45"/>
+    <col min="1794" max="1794" width="11.375" style="45" customWidth="1"/>
+    <col min="1795" max="1795" width="9.75" style="45" customWidth="1"/>
+    <col min="1796" max="1796" width="8.125" style="45" customWidth="1"/>
+    <col min="1797" max="1797" width="12.5" style="45" customWidth="1"/>
+    <col min="1798" max="1798" width="16.25" style="45" customWidth="1"/>
+    <col min="1799" max="1799" width="6.125" style="45" customWidth="1"/>
+    <col min="1800" max="1800" width="9.375" style="45" customWidth="1"/>
+    <col min="1801" max="1801" width="13.125" style="45" customWidth="1"/>
+    <col min="1802" max="2049" width="9" style="45"/>
+    <col min="2050" max="2050" width="11.375" style="45" customWidth="1"/>
+    <col min="2051" max="2051" width="9.75" style="45" customWidth="1"/>
+    <col min="2052" max="2052" width="8.125" style="45" customWidth="1"/>
+    <col min="2053" max="2053" width="12.5" style="45" customWidth="1"/>
+    <col min="2054" max="2054" width="16.25" style="45" customWidth="1"/>
+    <col min="2055" max="2055" width="6.125" style="45" customWidth="1"/>
+    <col min="2056" max="2056" width="9.375" style="45" customWidth="1"/>
+    <col min="2057" max="2057" width="13.125" style="45" customWidth="1"/>
+    <col min="2058" max="2305" width="9" style="45"/>
+    <col min="2306" max="2306" width="11.375" style="45" customWidth="1"/>
+    <col min="2307" max="2307" width="9.75" style="45" customWidth="1"/>
+    <col min="2308" max="2308" width="8.125" style="45" customWidth="1"/>
+    <col min="2309" max="2309" width="12.5" style="45" customWidth="1"/>
+    <col min="2310" max="2310" width="16.25" style="45" customWidth="1"/>
+    <col min="2311" max="2311" width="6.125" style="45" customWidth="1"/>
+    <col min="2312" max="2312" width="9.375" style="45" customWidth="1"/>
+    <col min="2313" max="2313" width="13.125" style="45" customWidth="1"/>
+    <col min="2314" max="2561" width="9" style="45"/>
+    <col min="2562" max="2562" width="11.375" style="45" customWidth="1"/>
+    <col min="2563" max="2563" width="9.75" style="45" customWidth="1"/>
+    <col min="2564" max="2564" width="8.125" style="45" customWidth="1"/>
+    <col min="2565" max="2565" width="12.5" style="45" customWidth="1"/>
+    <col min="2566" max="2566" width="16.25" style="45" customWidth="1"/>
+    <col min="2567" max="2567" width="6.125" style="45" customWidth="1"/>
+    <col min="2568" max="2568" width="9.375" style="45" customWidth="1"/>
+    <col min="2569" max="2569" width="13.125" style="45" customWidth="1"/>
+    <col min="2570" max="2817" width="9" style="45"/>
+    <col min="2818" max="2818" width="11.375" style="45" customWidth="1"/>
+    <col min="2819" max="2819" width="9.75" style="45" customWidth="1"/>
+    <col min="2820" max="2820" width="8.125" style="45" customWidth="1"/>
+    <col min="2821" max="2821" width="12.5" style="45" customWidth="1"/>
+    <col min="2822" max="2822" width="16.25" style="45" customWidth="1"/>
+    <col min="2823" max="2823" width="6.125" style="45" customWidth="1"/>
+    <col min="2824" max="2824" width="9.375" style="45" customWidth="1"/>
+    <col min="2825" max="2825" width="13.125" style="45" customWidth="1"/>
+    <col min="2826" max="3073" width="9" style="45"/>
+    <col min="3074" max="3074" width="11.375" style="45" customWidth="1"/>
+    <col min="3075" max="3075" width="9.75" style="45" customWidth="1"/>
+    <col min="3076" max="3076" width="8.125" style="45" customWidth="1"/>
+    <col min="3077" max="3077" width="12.5" style="45" customWidth="1"/>
+    <col min="3078" max="3078" width="16.25" style="45" customWidth="1"/>
+    <col min="3079" max="3079" width="6.125" style="45" customWidth="1"/>
+    <col min="3080" max="3080" width="9.375" style="45" customWidth="1"/>
+    <col min="3081" max="3081" width="13.125" style="45" customWidth="1"/>
+    <col min="3082" max="3329" width="9" style="45"/>
+    <col min="3330" max="3330" width="11.375" style="45" customWidth="1"/>
+    <col min="3331" max="3331" width="9.75" style="45" customWidth="1"/>
+    <col min="3332" max="3332" width="8.125" style="45" customWidth="1"/>
+    <col min="3333" max="3333" width="12.5" style="45" customWidth="1"/>
+    <col min="3334" max="3334" width="16.25" style="45" customWidth="1"/>
+    <col min="3335" max="3335" width="6.125" style="45" customWidth="1"/>
+    <col min="3336" max="3336" width="9.375" style="45" customWidth="1"/>
+    <col min="3337" max="3337" width="13.125" style="45" customWidth="1"/>
+    <col min="3338" max="3585" width="9" style="45"/>
+    <col min="3586" max="3586" width="11.375" style="45" customWidth="1"/>
+    <col min="3587" max="3587" width="9.75" style="45" customWidth="1"/>
+    <col min="3588" max="3588" width="8.125" style="45" customWidth="1"/>
+    <col min="3589" max="3589" width="12.5" style="45" customWidth="1"/>
+    <col min="3590" max="3590" width="16.25" style="45" customWidth="1"/>
+    <col min="3591" max="3591" width="6.125" style="45" customWidth="1"/>
+    <col min="3592" max="3592" width="9.375" style="45" customWidth="1"/>
+    <col min="3593" max="3593" width="13.125" style="45" customWidth="1"/>
+    <col min="3594" max="3841" width="9" style="45"/>
+    <col min="3842" max="3842" width="11.375" style="45" customWidth="1"/>
+    <col min="3843" max="3843" width="9.75" style="45" customWidth="1"/>
+    <col min="3844" max="3844" width="8.125" style="45" customWidth="1"/>
+    <col min="3845" max="3845" width="12.5" style="45" customWidth="1"/>
+    <col min="3846" max="3846" width="16.25" style="45" customWidth="1"/>
+    <col min="3847" max="3847" width="6.125" style="45" customWidth="1"/>
+    <col min="3848" max="3848" width="9.375" style="45" customWidth="1"/>
+    <col min="3849" max="3849" width="13.125" style="45" customWidth="1"/>
+    <col min="3850" max="4097" width="9" style="45"/>
+    <col min="4098" max="4098" width="11.375" style="45" customWidth="1"/>
+    <col min="4099" max="4099" width="9.75" style="45" customWidth="1"/>
+    <col min="4100" max="4100" width="8.125" style="45" customWidth="1"/>
+    <col min="4101" max="4101" width="12.5" style="45" customWidth="1"/>
+    <col min="4102" max="4102" width="16.25" style="45" customWidth="1"/>
+    <col min="4103" max="4103" width="6.125" style="45" customWidth="1"/>
+    <col min="4104" max="4104" width="9.375" style="45" customWidth="1"/>
+    <col min="4105" max="4105" width="13.125" style="45" customWidth="1"/>
+    <col min="4106" max="4353" width="9" style="45"/>
+    <col min="4354" max="4354" width="11.375" style="45" customWidth="1"/>
+    <col min="4355" max="4355" width="9.75" style="45" customWidth="1"/>
+    <col min="4356" max="4356" width="8.125" style="45" customWidth="1"/>
+    <col min="4357" max="4357" width="12.5" style="45" customWidth="1"/>
+    <col min="4358" max="4358" width="16.25" style="45" customWidth="1"/>
+    <col min="4359" max="4359" width="6.125" style="45" customWidth="1"/>
+    <col min="4360" max="4360" width="9.375" style="45" customWidth="1"/>
+    <col min="4361" max="4361" width="13.125" style="45" customWidth="1"/>
+    <col min="4362" max="4609" width="9" style="45"/>
+    <col min="4610" max="4610" width="11.375" style="45" customWidth="1"/>
+    <col min="4611" max="4611" width="9.75" style="45" customWidth="1"/>
+    <col min="4612" max="4612" width="8.125" style="45" customWidth="1"/>
+    <col min="4613" max="4613" width="12.5" style="45" customWidth="1"/>
+    <col min="4614" max="4614" width="16.25" style="45" customWidth="1"/>
+    <col min="4615" max="4615" width="6.125" style="45" customWidth="1"/>
+    <col min="4616" max="4616" width="9.375" style="45" customWidth="1"/>
+    <col min="4617" max="4617" width="13.125" style="45" customWidth="1"/>
+    <col min="4618" max="4865" width="9" style="45"/>
+    <col min="4866" max="4866" width="11.375" style="45" customWidth="1"/>
+    <col min="4867" max="4867" width="9.75" style="45" customWidth="1"/>
+    <col min="4868" max="4868" width="8.125" style="45" customWidth="1"/>
+    <col min="4869" max="4869" width="12.5" style="45" customWidth="1"/>
+    <col min="4870" max="4870" width="16.25" style="45" customWidth="1"/>
+    <col min="4871" max="4871" width="6.125" style="45" customWidth="1"/>
+    <col min="4872" max="4872" width="9.375" style="45" customWidth="1"/>
+    <col min="4873" max="4873" width="13.125" style="45" customWidth="1"/>
+    <col min="4874" max="5121" width="9" style="45"/>
+    <col min="5122" max="5122" width="11.375" style="45" customWidth="1"/>
+    <col min="5123" max="5123" width="9.75" style="45" customWidth="1"/>
+    <col min="5124" max="5124" width="8.125" style="45" customWidth="1"/>
+    <col min="5125" max="5125" width="12.5" style="45" customWidth="1"/>
+    <col min="5126" max="5126" width="16.25" style="45" customWidth="1"/>
+    <col min="5127" max="5127" width="6.125" style="45" customWidth="1"/>
+    <col min="5128" max="5128" width="9.375" style="45" customWidth="1"/>
+    <col min="5129" max="5129" width="13.125" style="45" customWidth="1"/>
+    <col min="5130" max="5377" width="9" style="45"/>
+    <col min="5378" max="5378" width="11.375" style="45" customWidth="1"/>
+    <col min="5379" max="5379" width="9.75" style="45" customWidth="1"/>
+    <col min="5380" max="5380" width="8.125" style="45" customWidth="1"/>
+    <col min="5381" max="5381" width="12.5" style="45" customWidth="1"/>
+    <col min="5382" max="5382" width="16.25" style="45" customWidth="1"/>
+    <col min="5383" max="5383" width="6.125" style="45" customWidth="1"/>
+    <col min="5384" max="5384" width="9.375" style="45" customWidth="1"/>
+    <col min="5385" max="5385" width="13.125" style="45" customWidth="1"/>
+    <col min="5386" max="5633" width="9" style="45"/>
+    <col min="5634" max="5634" width="11.375" style="45" customWidth="1"/>
+    <col min="5635" max="5635" width="9.75" style="45" customWidth="1"/>
+    <col min="5636" max="5636" width="8.125" style="45" customWidth="1"/>
+    <col min="5637" max="5637" width="12.5" style="45" customWidth="1"/>
+    <col min="5638" max="5638" width="16.25" style="45" customWidth="1"/>
+    <col min="5639" max="5639" width="6.125" style="45" customWidth="1"/>
+    <col min="5640" max="5640" width="9.375" style="45" customWidth="1"/>
+    <col min="5641" max="5641" width="13.125" style="45" customWidth="1"/>
+    <col min="5642" max="5889" width="9" style="45"/>
+    <col min="5890" max="5890" width="11.375" style="45" customWidth="1"/>
+    <col min="5891" max="5891" width="9.75" style="45" customWidth="1"/>
+    <col min="5892" max="5892" width="8.125" style="45" customWidth="1"/>
+    <col min="5893" max="5893" width="12.5" style="45" customWidth="1"/>
+    <col min="5894" max="5894" width="16.25" style="45" customWidth="1"/>
+    <col min="5895" max="5895" width="6.125" style="45" customWidth="1"/>
+    <col min="5896" max="5896" width="9.375" style="45" customWidth="1"/>
+    <col min="5897" max="5897" width="13.125" style="45" customWidth="1"/>
+    <col min="5898" max="6145" width="9" style="45"/>
+    <col min="6146" max="6146" width="11.375" style="45" customWidth="1"/>
+    <col min="6147" max="6147" width="9.75" style="45" customWidth="1"/>
+    <col min="6148" max="6148" width="8.125" style="45" customWidth="1"/>
+    <col min="6149" max="6149" width="12.5" style="45" customWidth="1"/>
+    <col min="6150" max="6150" width="16.25" style="45" customWidth="1"/>
+    <col min="6151" max="6151" width="6.125" style="45" customWidth="1"/>
+    <col min="6152" max="6152" width="9.375" style="45" customWidth="1"/>
+    <col min="6153" max="6153" width="13.125" style="45" customWidth="1"/>
+    <col min="6154" max="6401" width="9" style="45"/>
+    <col min="6402" max="6402" width="11.375" style="45" customWidth="1"/>
+    <col min="6403" max="6403" width="9.75" style="45" customWidth="1"/>
+    <col min="6404" max="6404" width="8.125" style="45" customWidth="1"/>
+    <col min="6405" max="6405" width="12.5" style="45" customWidth="1"/>
+    <col min="6406" max="6406" width="16.25" style="45" customWidth="1"/>
+    <col min="6407" max="6407" width="6.125" style="45" customWidth="1"/>
+    <col min="6408" max="6408" width="9.375" style="45" customWidth="1"/>
+    <col min="6409" max="6409" width="13.125" style="45" customWidth="1"/>
+    <col min="6410" max="6657" width="9" style="45"/>
+    <col min="6658" max="6658" width="11.375" style="45" customWidth="1"/>
+    <col min="6659" max="6659" width="9.75" style="45" customWidth="1"/>
+    <col min="6660" max="6660" width="8.125" style="45" customWidth="1"/>
+    <col min="6661" max="6661" width="12.5" style="45" customWidth="1"/>
+    <col min="6662" max="6662" width="16.25" style="45" customWidth="1"/>
+    <col min="6663" max="6663" width="6.125" style="45" customWidth="1"/>
+    <col min="6664" max="6664" width="9.375" style="45" customWidth="1"/>
+    <col min="6665" max="6665" width="13.125" style="45" customWidth="1"/>
+    <col min="6666" max="6913" width="9" style="45"/>
+    <col min="6914" max="6914" width="11.375" style="45" customWidth="1"/>
+    <col min="6915" max="6915" width="9.75" style="45" customWidth="1"/>
+    <col min="6916" max="6916" width="8.125" style="45" customWidth="1"/>
+    <col min="6917" max="6917" width="12.5" style="45" customWidth="1"/>
+    <col min="6918" max="6918" width="16.25" style="45" customWidth="1"/>
+    <col min="6919" max="6919" width="6.125" style="45" customWidth="1"/>
+    <col min="6920" max="6920" width="9.375" style="45" customWidth="1"/>
+    <col min="6921" max="6921" width="13.125" style="45" customWidth="1"/>
+    <col min="6922" max="7169" width="9" style="45"/>
+    <col min="7170" max="7170" width="11.375" style="45" customWidth="1"/>
+    <col min="7171" max="7171" width="9.75" style="45" customWidth="1"/>
+    <col min="7172" max="7172" width="8.125" style="45" customWidth="1"/>
+    <col min="7173" max="7173" width="12.5" style="45" customWidth="1"/>
+    <col min="7174" max="7174" width="16.25" style="45" customWidth="1"/>
+    <col min="7175" max="7175" width="6.125" style="45" customWidth="1"/>
+    <col min="7176" max="7176" width="9.375" style="45" customWidth="1"/>
+    <col min="7177" max="7177" width="13.125" style="45" customWidth="1"/>
+    <col min="7178" max="7425" width="9" style="45"/>
+    <col min="7426" max="7426" width="11.375" style="45" customWidth="1"/>
+    <col min="7427" max="7427" width="9.75" style="45" customWidth="1"/>
+    <col min="7428" max="7428" width="8.125" style="45" customWidth="1"/>
+    <col min="7429" max="7429" width="12.5" style="45" customWidth="1"/>
+    <col min="7430" max="7430" width="16.25" style="45" customWidth="1"/>
+    <col min="7431" max="7431" width="6.125" style="45" customWidth="1"/>
+    <col min="7432" max="7432" width="9.375" style="45" customWidth="1"/>
+    <col min="7433" max="7433" width="13.125" style="45" customWidth="1"/>
+    <col min="7434" max="7681" width="9" style="45"/>
+    <col min="7682" max="7682" width="11.375" style="45" customWidth="1"/>
+    <col min="7683" max="7683" width="9.75" style="45" customWidth="1"/>
+    <col min="7684" max="7684" width="8.125" style="45" customWidth="1"/>
+    <col min="7685" max="7685" width="12.5" style="45" customWidth="1"/>
+    <col min="7686" max="7686" width="16.25" style="45" customWidth="1"/>
+    <col min="7687" max="7687" width="6.125" style="45" customWidth="1"/>
+    <col min="7688" max="7688" width="9.375" style="45" customWidth="1"/>
+    <col min="7689" max="7689" width="13.125" style="45" customWidth="1"/>
+    <col min="7690" max="7937" width="9" style="45"/>
+    <col min="7938" max="7938" width="11.375" style="45" customWidth="1"/>
+    <col min="7939" max="7939" width="9.75" style="45" customWidth="1"/>
+    <col min="7940" max="7940" width="8.125" style="45" customWidth="1"/>
+    <col min="7941" max="7941" width="12.5" style="45" customWidth="1"/>
+    <col min="7942" max="7942" width="16.25" style="45" customWidth="1"/>
+    <col min="7943" max="7943" width="6.125" style="45" customWidth="1"/>
+    <col min="7944" max="7944" width="9.375" style="45" customWidth="1"/>
+    <col min="7945" max="7945" width="13.125" style="45" customWidth="1"/>
+    <col min="7946" max="8193" width="9" style="45"/>
+    <col min="8194" max="8194" width="11.375" style="45" customWidth="1"/>
+    <col min="8195" max="8195" width="9.75" style="45" customWidth="1"/>
+    <col min="8196" max="8196" width="8.125" style="45" customWidth="1"/>
+    <col min="8197" max="8197" width="12.5" style="45" customWidth="1"/>
+    <col min="8198" max="8198" width="16.25" style="45" customWidth="1"/>
+    <col min="8199" max="8199" width="6.125" style="45" customWidth="1"/>
+    <col min="8200" max="8200" width="9.375" style="45" customWidth="1"/>
+    <col min="8201" max="8201" width="13.125" style="45" customWidth="1"/>
+    <col min="8202" max="8449" width="9" style="45"/>
+    <col min="8450" max="8450" width="11.375" style="45" customWidth="1"/>
+    <col min="8451" max="8451" width="9.75" style="45" customWidth="1"/>
+    <col min="8452" max="8452" width="8.125" style="45" customWidth="1"/>
+    <col min="8453" max="8453" width="12.5" style="45" customWidth="1"/>
+    <col min="8454" max="8454" width="16.25" style="45" customWidth="1"/>
+    <col min="8455" max="8455" width="6.125" style="45" customWidth="1"/>
+    <col min="8456" max="8456" width="9.375" style="45" customWidth="1"/>
+    <col min="8457" max="8457" width="13.125" style="45" customWidth="1"/>
+    <col min="8458" max="8705" width="9" style="45"/>
+    <col min="8706" max="8706" width="11.375" style="45" customWidth="1"/>
+    <col min="8707" max="8707" width="9.75" style="45" customWidth="1"/>
+    <col min="8708" max="8708" width="8.125" style="45" customWidth="1"/>
+    <col min="8709" max="8709" width="12.5" style="45" customWidth="1"/>
+    <col min="8710" max="8710" width="16.25" style="45" customWidth="1"/>
+    <col min="8711" max="8711" width="6.125" style="45" customWidth="1"/>
+    <col min="8712" max="8712" width="9.375" style="45" customWidth="1"/>
+    <col min="8713" max="8713" width="13.125" style="45" customWidth="1"/>
+    <col min="8714" max="8961" width="9" style="45"/>
+    <col min="8962" max="8962" width="11.375" style="45" customWidth="1"/>
+    <col min="8963" max="8963" width="9.75" style="45" customWidth="1"/>
+    <col min="8964" max="8964" width="8.125" style="45" customWidth="1"/>
+    <col min="8965" max="8965" width="12.5" style="45" customWidth="1"/>
+    <col min="8966" max="8966" width="16.25" style="45" customWidth="1"/>
+    <col min="8967" max="8967" width="6.125" style="45" customWidth="1"/>
+    <col min="8968" max="8968" width="9.375" style="45" customWidth="1"/>
+    <col min="8969" max="8969" width="13.125" style="45" customWidth="1"/>
+    <col min="8970" max="9217" width="9" style="45"/>
+    <col min="9218" max="9218" width="11.375" style="45" customWidth="1"/>
+    <col min="9219" max="9219" width="9.75" style="45" customWidth="1"/>
+    <col min="9220" max="9220" width="8.125" style="45" customWidth="1"/>
+    <col min="9221" max="9221" width="12.5" style="45" customWidth="1"/>
+    <col min="9222" max="9222" width="16.25" style="45" customWidth="1"/>
+    <col min="9223" max="9223" width="6.125" style="45" customWidth="1"/>
+    <col min="9224" max="9224" width="9.375" style="45" customWidth="1"/>
+    <col min="9225" max="9225" width="13.125" style="45" customWidth="1"/>
+    <col min="9226" max="9473" width="9" style="45"/>
+    <col min="9474" max="9474" width="11.375" style="45" customWidth="1"/>
+    <col min="9475" max="9475" width="9.75" style="45" customWidth="1"/>
+    <col min="9476" max="9476" width="8.125" style="45" customWidth="1"/>
+    <col min="9477" max="9477" width="12.5" style="45" customWidth="1"/>
+    <col min="9478" max="9478" width="16.25" style="45" customWidth="1"/>
+    <col min="9479" max="9479" width="6.125" style="45" customWidth="1"/>
+    <col min="9480" max="9480" width="9.375" style="45" customWidth="1"/>
+    <col min="9481" max="9481" width="13.125" style="45" customWidth="1"/>
+    <col min="9482" max="9729" width="9" style="45"/>
+    <col min="9730" max="9730" width="11.375" style="45" customWidth="1"/>
+    <col min="9731" max="9731" width="9.75" style="45" customWidth="1"/>
+    <col min="9732" max="9732" width="8.125" style="45" customWidth="1"/>
+    <col min="9733" max="9733" width="12.5" style="45" customWidth="1"/>
+    <col min="9734" max="9734" width="16.25" style="45" customWidth="1"/>
+    <col min="9735" max="9735" width="6.125" style="45" customWidth="1"/>
+    <col min="9736" max="9736" width="9.375" style="45" customWidth="1"/>
+    <col min="9737" max="9737" width="13.125" style="45" customWidth="1"/>
+    <col min="9738" max="9985" width="9" style="45"/>
+    <col min="9986" max="9986" width="11.375" style="45" customWidth="1"/>
+    <col min="9987" max="9987" width="9.75" style="45" customWidth="1"/>
+    <col min="9988" max="9988" width="8.125" style="45" customWidth="1"/>
+    <col min="9989" max="9989" width="12.5" style="45" customWidth="1"/>
+    <col min="9990" max="9990" width="16.25" style="45" customWidth="1"/>
+    <col min="9991" max="9991" width="6.125" style="45" customWidth="1"/>
+    <col min="9992" max="9992" width="9.375" style="45" customWidth="1"/>
+    <col min="9993" max="9993" width="13.125" style="45" customWidth="1"/>
+    <col min="9994" max="10241" width="9" style="45"/>
+    <col min="10242" max="10242" width="11.375" style="45" customWidth="1"/>
+    <col min="10243" max="10243" width="9.75" style="45" customWidth="1"/>
+    <col min="10244" max="10244" width="8.125" style="45" customWidth="1"/>
+    <col min="10245" max="10245" width="12.5" style="45" customWidth="1"/>
+    <col min="10246" max="10246" width="16.25" style="45" customWidth="1"/>
+    <col min="10247" max="10247" width="6.125" style="45" customWidth="1"/>
+    <col min="10248" max="10248" width="9.375" style="45" customWidth="1"/>
+    <col min="10249" max="10249" width="13.125" style="45" customWidth="1"/>
+    <col min="10250" max="10497" width="9" style="45"/>
+    <col min="10498" max="10498" width="11.375" style="45" customWidth="1"/>
+    <col min="10499" max="10499" width="9.75" style="45" customWidth="1"/>
+    <col min="10500" max="10500" width="8.125" style="45" customWidth="1"/>
+    <col min="10501" max="10501" width="12.5" style="45" customWidth="1"/>
+    <col min="10502" max="10502" width="16.25" style="45" customWidth="1"/>
+    <col min="10503" max="10503" width="6.125" style="45" customWidth="1"/>
+    <col min="10504" max="10504" width="9.375" style="45" customWidth="1"/>
+    <col min="10505" max="10505" width="13.125" style="45" customWidth="1"/>
+    <col min="10506" max="10753" width="9" style="45"/>
+    <col min="10754" max="10754" width="11.375" style="45" customWidth="1"/>
+    <col min="10755" max="10755" width="9.75" style="45" customWidth="1"/>
+    <col min="10756" max="10756" width="8.125" style="45" customWidth="1"/>
+    <col min="10757" max="10757" width="12.5" style="45" customWidth="1"/>
+    <col min="10758" max="10758" width="16.25" style="45" customWidth="1"/>
+    <col min="10759" max="10759" width="6.125" style="45" customWidth="1"/>
+    <col min="10760" max="10760" width="9.375" style="45" customWidth="1"/>
+    <col min="10761" max="10761" width="13.125" style="45" customWidth="1"/>
+    <col min="10762" max="11009" width="9" style="45"/>
+    <col min="11010" max="11010" width="11.375" style="45" customWidth="1"/>
+    <col min="11011" max="11011" width="9.75" style="45" customWidth="1"/>
+    <col min="11012" max="11012" width="8.125" style="45" customWidth="1"/>
+    <col min="11013" max="11013" width="12.5" style="45" customWidth="1"/>
+    <col min="11014" max="11014" width="16.25" style="45" customWidth="1"/>
+    <col min="11015" max="11015" width="6.125" style="45" customWidth="1"/>
+    <col min="11016" max="11016" width="9.375" style="45" customWidth="1"/>
+    <col min="11017" max="11017" width="13.125" style="45" customWidth="1"/>
+    <col min="11018" max="11265" width="9" style="45"/>
+    <col min="11266" max="11266" width="11.375" style="45" customWidth="1"/>
+    <col min="11267" max="11267" width="9.75" style="45" customWidth="1"/>
+    <col min="11268" max="11268" width="8.125" style="45" customWidth="1"/>
+    <col min="11269" max="11269" width="12.5" style="45" customWidth="1"/>
+    <col min="11270" max="11270" width="16.25" style="45" customWidth="1"/>
+    <col min="11271" max="11271" width="6.125" style="45" customWidth="1"/>
+    <col min="11272" max="11272" width="9.375" style="45" customWidth="1"/>
+    <col min="11273" max="11273" width="13.125" style="45" customWidth="1"/>
+    <col min="11274" max="11521" width="9" style="45"/>
+    <col min="11522" max="11522" width="11.375" style="45" customWidth="1"/>
+    <col min="11523" max="11523" width="9.75" style="45" customWidth="1"/>
+    <col min="11524" max="11524" width="8.125" style="45" customWidth="1"/>
+    <col min="11525" max="11525" width="12.5" style="45" customWidth="1"/>
+    <col min="11526" max="11526" width="16.25" style="45" customWidth="1"/>
+    <col min="11527" max="11527" width="6.125" style="45" customWidth="1"/>
+    <col min="11528" max="11528" width="9.375" style="45" customWidth="1"/>
+    <col min="11529" max="11529" width="13.125" style="45" customWidth="1"/>
+    <col min="11530" max="11777" width="9" style="45"/>
+    <col min="11778" max="11778" width="11.375" style="45" customWidth="1"/>
+    <col min="11779" max="11779" width="9.75" style="45" customWidth="1"/>
+    <col min="11780" max="11780" width="8.125" style="45" customWidth="1"/>
+    <col min="11781" max="11781" width="12.5" style="45" customWidth="1"/>
+    <col min="11782" max="11782" width="16.25" style="45" customWidth="1"/>
+    <col min="11783" max="11783" width="6.125" style="45" customWidth="1"/>
+    <col min="11784" max="11784" width="9.375" style="45" customWidth="1"/>
+    <col min="11785" max="11785" width="13.125" style="45" customWidth="1"/>
+    <col min="11786" max="12033" width="9" style="45"/>
+    <col min="12034" max="12034" width="11.375" style="45" customWidth="1"/>
+    <col min="12035" max="12035" width="9.75" style="45" customWidth="1"/>
+    <col min="12036" max="12036" width="8.125" style="45" customWidth="1"/>
+    <col min="12037" max="12037" width="12.5" style="45" customWidth="1"/>
+    <col min="12038" max="12038" width="16.25" style="45" customWidth="1"/>
+    <col min="12039" max="12039" width="6.125" style="45" customWidth="1"/>
+    <col min="12040" max="12040" width="9.375" style="45" customWidth="1"/>
+    <col min="12041" max="12041" width="13.125" style="45" customWidth="1"/>
+    <col min="12042" max="12289" width="9" style="45"/>
+    <col min="12290" max="12290" width="11.375" style="45" customWidth="1"/>
+    <col min="12291" max="12291" width="9.75" style="45" customWidth="1"/>
+    <col min="12292" max="12292" width="8.125" style="45" customWidth="1"/>
+    <col min="12293" max="12293" width="12.5" style="45" customWidth="1"/>
+    <col min="12294" max="12294" width="16.25" style="45" customWidth="1"/>
+    <col min="12295" max="12295" width="6.125" style="45" customWidth="1"/>
+    <col min="12296" max="12296" width="9.375" style="45" customWidth="1"/>
+    <col min="12297" max="12297" width="13.125" style="45" customWidth="1"/>
+    <col min="12298" max="12545" width="9" style="45"/>
+    <col min="12546" max="12546" width="11.375" style="45" customWidth="1"/>
+    <col min="12547" max="12547" width="9.75" style="45" customWidth="1"/>
+    <col min="12548" max="12548" width="8.125" style="45" customWidth="1"/>
+    <col min="12549" max="12549" width="12.5" style="45" customWidth="1"/>
+    <col min="12550" max="12550" width="16.25" style="45" customWidth="1"/>
+    <col min="12551" max="12551" width="6.125" style="45" customWidth="1"/>
+    <col min="12552" max="12552" width="9.375" style="45" customWidth="1"/>
+    <col min="12553" max="12553" width="13.125" style="45" customWidth="1"/>
+    <col min="12554" max="12801" width="9" style="45"/>
+    <col min="12802" max="12802" width="11.375" style="45" customWidth="1"/>
+    <col min="12803" max="12803" width="9.75" style="45" customWidth="1"/>
+    <col min="12804" max="12804" width="8.125" style="45" customWidth="1"/>
+    <col min="12805" max="12805" width="12.5" style="45" customWidth="1"/>
+    <col min="12806" max="12806" width="16.25" style="45" customWidth="1"/>
+    <col min="12807" max="12807" width="6.125" style="45" customWidth="1"/>
+    <col min="12808" max="12808" width="9.375" style="45" customWidth="1"/>
+    <col min="12809" max="12809" width="13.125" style="45" customWidth="1"/>
+    <col min="12810" max="13057" width="9" style="45"/>
+    <col min="13058" max="13058" width="11.375" style="45" customWidth="1"/>
+    <col min="13059" max="13059" width="9.75" style="45" customWidth="1"/>
+    <col min="13060" max="13060" width="8.125" style="45" customWidth="1"/>
+    <col min="13061" max="13061" width="12.5" style="45" customWidth="1"/>
+    <col min="13062" max="13062" width="16.25" style="45" customWidth="1"/>
+    <col min="13063" max="13063" width="6.125" style="45" customWidth="1"/>
+    <col min="13064" max="13064" width="9.375" style="45" customWidth="1"/>
+    <col min="13065" max="13065" width="13.125" style="45" customWidth="1"/>
+    <col min="13066" max="13313" width="9" style="45"/>
+    <col min="13314" max="13314" width="11.375" style="45" customWidth="1"/>
+    <col min="13315" max="13315" width="9.75" style="45" customWidth="1"/>
+    <col min="13316" max="13316" width="8.125" style="45" customWidth="1"/>
+    <col min="13317" max="13317" width="12.5" style="45" customWidth="1"/>
+    <col min="13318" max="13318" width="16.25" style="45" customWidth="1"/>
+    <col min="13319" max="13319" width="6.125" style="45" customWidth="1"/>
+    <col min="13320" max="13320" width="9.375" style="45" customWidth="1"/>
+    <col min="13321" max="13321" width="13.125" style="45" customWidth="1"/>
+    <col min="13322" max="13569" width="9" style="45"/>
+    <col min="13570" max="13570" width="11.375" style="45" customWidth="1"/>
+    <col min="13571" max="13571" width="9.75" style="45" customWidth="1"/>
+    <col min="13572" max="13572" width="8.125" style="45" customWidth="1"/>
+    <col min="13573" max="13573" width="12.5" style="45" customWidth="1"/>
+    <col min="13574" max="13574" width="16.25" style="45" customWidth="1"/>
+    <col min="13575" max="13575" width="6.125" style="45" customWidth="1"/>
+    <col min="13576" max="13576" width="9.375" style="45" customWidth="1"/>
+    <col min="13577" max="13577" width="13.125" style="45" customWidth="1"/>
+    <col min="13578" max="13825" width="9" style="45"/>
+    <col min="13826" max="13826" width="11.375" style="45" customWidth="1"/>
+    <col min="13827" max="13827" width="9.75" style="45" customWidth="1"/>
+    <col min="13828" max="13828" width="8.125" style="45" customWidth="1"/>
+    <col min="13829" max="13829" width="12.5" style="45" customWidth="1"/>
+    <col min="13830" max="13830" width="16.25" style="45" customWidth="1"/>
+    <col min="13831" max="13831" width="6.125" style="45" customWidth="1"/>
+    <col min="13832" max="13832" width="9.375" style="45" customWidth="1"/>
+    <col min="13833" max="13833" width="13.125" style="45" customWidth="1"/>
+    <col min="13834" max="14081" width="9" style="45"/>
+    <col min="14082" max="14082" width="11.375" style="45" customWidth="1"/>
+    <col min="14083" max="14083" width="9.75" style="45" customWidth="1"/>
+    <col min="14084" max="14084" width="8.125" style="45" customWidth="1"/>
+    <col min="14085" max="14085" width="12.5" style="45" customWidth="1"/>
+    <col min="14086" max="14086" width="16.25" style="45" customWidth="1"/>
+    <col min="14087" max="14087" width="6.125" style="45" customWidth="1"/>
+    <col min="14088" max="14088" width="9.375" style="45" customWidth="1"/>
+    <col min="14089" max="14089" width="13.125" style="45" customWidth="1"/>
+    <col min="14090" max="14337" width="9" style="45"/>
+    <col min="14338" max="14338" width="11.375" style="45" customWidth="1"/>
+    <col min="14339" max="14339" width="9.75" style="45" customWidth="1"/>
+    <col min="14340" max="14340" width="8.125" style="45" customWidth="1"/>
+    <col min="14341" max="14341" width="12.5" style="45" customWidth="1"/>
+    <col min="14342" max="14342" width="16.25" style="45" customWidth="1"/>
+    <col min="14343" max="14343" width="6.125" style="45" customWidth="1"/>
+    <col min="14344" max="14344" width="9.375" style="45" customWidth="1"/>
+    <col min="14345" max="14345" width="13.125" style="45" customWidth="1"/>
+    <col min="14346" max="14593" width="9" style="45"/>
+    <col min="14594" max="14594" width="11.375" style="45" customWidth="1"/>
+    <col min="14595" max="14595" width="9.75" style="45" customWidth="1"/>
+    <col min="14596" max="14596" width="8.125" style="45" customWidth="1"/>
+    <col min="14597" max="14597" width="12.5" style="45" customWidth="1"/>
+    <col min="14598" max="14598" width="16.25" style="45" customWidth="1"/>
+    <col min="14599" max="14599" width="6.125" style="45" customWidth="1"/>
+    <col min="14600" max="14600" width="9.375" style="45" customWidth="1"/>
+    <col min="14601" max="14601" width="13.125" style="45" customWidth="1"/>
+    <col min="14602" max="14849" width="9" style="45"/>
+    <col min="14850" max="14850" width="11.375" style="45" customWidth="1"/>
+    <col min="14851" max="14851" width="9.75" style="45" customWidth="1"/>
+    <col min="14852" max="14852" width="8.125" style="45" customWidth="1"/>
+    <col min="14853" max="14853" width="12.5" style="45" customWidth="1"/>
+    <col min="14854" max="14854" width="16.25" style="45" customWidth="1"/>
+    <col min="14855" max="14855" width="6.125" style="45" customWidth="1"/>
+    <col min="14856" max="14856" width="9.375" style="45" customWidth="1"/>
+    <col min="14857" max="14857" width="13.125" style="45" customWidth="1"/>
+    <col min="14858" max="15105" width="9" style="45"/>
+    <col min="15106" max="15106" width="11.375" style="45" customWidth="1"/>
+    <col min="15107" max="15107" width="9.75" style="45" customWidth="1"/>
+    <col min="15108" max="15108" width="8.125" style="45" customWidth="1"/>
+    <col min="15109" max="15109" width="12.5" style="45" customWidth="1"/>
+    <col min="15110" max="15110" width="16.25" style="45" customWidth="1"/>
+    <col min="15111" max="15111" width="6.125" style="45" customWidth="1"/>
+    <col min="15112" max="15112" width="9.375" style="45" customWidth="1"/>
+    <col min="15113" max="15113" width="13.125" style="45" customWidth="1"/>
+    <col min="15114" max="15361" width="9" style="45"/>
+    <col min="15362" max="15362" width="11.375" style="45" customWidth="1"/>
+    <col min="15363" max="15363" width="9.75" style="45" customWidth="1"/>
+    <col min="15364" max="15364" width="8.125" style="45" customWidth="1"/>
+    <col min="15365" max="15365" width="12.5" style="45" customWidth="1"/>
+    <col min="15366" max="15366" width="16.25" style="45" customWidth="1"/>
+    <col min="15367" max="15367" width="6.125" style="45" customWidth="1"/>
+    <col min="15368" max="15368" width="9.375" style="45" customWidth="1"/>
+    <col min="15369" max="15369" width="13.125" style="45" customWidth="1"/>
+    <col min="15370" max="15617" width="9" style="45"/>
+    <col min="15618" max="15618" width="11.375" style="45" customWidth="1"/>
+    <col min="15619" max="15619" width="9.75" style="45" customWidth="1"/>
+    <col min="15620" max="15620" width="8.125" style="45" customWidth="1"/>
+    <col min="15621" max="15621" width="12.5" style="45" customWidth="1"/>
+    <col min="15622" max="15622" width="16.25" style="45" customWidth="1"/>
+    <col min="15623" max="15623" width="6.125" style="45" customWidth="1"/>
+    <col min="15624" max="15624" width="9.375" style="45" customWidth="1"/>
+    <col min="15625" max="15625" width="13.125" style="45" customWidth="1"/>
+    <col min="15626" max="15873" width="9" style="45"/>
+    <col min="15874" max="15874" width="11.375" style="45" customWidth="1"/>
+    <col min="15875" max="15875" width="9.75" style="45" customWidth="1"/>
+    <col min="15876" max="15876" width="8.125" style="45" customWidth="1"/>
+    <col min="15877" max="15877" width="12.5" style="45" customWidth="1"/>
+    <col min="15878" max="15878" width="16.25" style="45" customWidth="1"/>
+    <col min="15879" max="15879" width="6.125" style="45" customWidth="1"/>
+    <col min="15880" max="15880" width="9.375" style="45" customWidth="1"/>
+    <col min="15881" max="15881" width="13.125" style="45" customWidth="1"/>
+    <col min="15882" max="16129" width="9" style="45"/>
+    <col min="16130" max="16130" width="11.375" style="45" customWidth="1"/>
+    <col min="16131" max="16131" width="9.75" style="45" customWidth="1"/>
+    <col min="16132" max="16132" width="8.125" style="45" customWidth="1"/>
+    <col min="16133" max="16133" width="12.5" style="45" customWidth="1"/>
+    <col min="16134" max="16134" width="16.25" style="45" customWidth="1"/>
+    <col min="16135" max="16135" width="6.125" style="45" customWidth="1"/>
+    <col min="16136" max="16136" width="9.375" style="45" customWidth="1"/>
+    <col min="16137" max="16137" width="13.125" style="45" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="A1" s="67"/>
-      <c r="B1" s="99" t="s">
+      <c r="A1" s="66"/>
+      <c r="B1" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-    </row>
-    <row r="3" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B3" s="47" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+    </row>
+    <row r="3" spans="1:12" s="47" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B3" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="125" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-    </row>
-    <row r="4" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B4" s="47" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+    </row>
+    <row r="4" spans="1:12" s="47" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B4" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-    </row>
-    <row r="5" spans="1:12" s="48" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B5" s="47" t="s">
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+    </row>
+    <row r="5" spans="1:12" s="47" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="101" t="s">
+      <c r="C5" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="47" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="101" t="s">
+      <c r="G5" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="49"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-    </row>
-    <row r="9" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="107" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+    </row>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="109" t="str">
+      <c r="C9" s="116" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="107" t="s">
+      <c r="D9" s="117"/>
+      <c r="E9" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="108" t="str">
+      <c r="F9" s="107" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="113" t="s">
+      <c r="G9" s="107"/>
+      <c r="H9" s="120" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="115" t="str">
+      <c r="I9" s="122" t="str">
         <f>記入!B16</f>
         <v>${pd.deliveryfinshdate}</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="48" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="108"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="108"/>
-    </row>
-    <row r="11" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="116" t="s">
+    <row r="10" spans="1:12" s="47" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B10" s="107"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="107"/>
+    </row>
+    <row r="11" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
+      <c r="B11" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="108" t="str">
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="107" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="L11" s="51"/>
-    </row>
-    <row r="12" spans="1:12" s="48" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="116" t="s">
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="L11" s="50"/>
+    </row>
+    <row r="12" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
+      <c r="B12" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="108" t="str">
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="107" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-    </row>
-    <row r="13" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
-      <c r="B13" s="52" t="s">
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+    </row>
+    <row r="13" spans="1:12" s="52" customFormat="1" ht="45" customHeight="1">
+      <c r="B13" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="104" t="str">
+      <c r="C13" s="112" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-    </row>
-    <row r="14" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
-      <c r="B14" s="63" t="s">
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+    </row>
+    <row r="14" spans="1:12" s="52" customFormat="1" ht="45" customHeight="1">
+      <c r="B14" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="104" t="str">
+      <c r="C14" s="112" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-    </row>
-    <row r="15" spans="1:12" s="53" customFormat="1" ht="45" customHeight="1">
-      <c r="B15" s="64" t="s">
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+    </row>
+    <row r="15" spans="1:12" s="52" customFormat="1" ht="45" customHeight="1">
+      <c r="B15" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="119" t="str">
+      <c r="C15" s="106" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="65" t="s">
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-    </row>
-    <row r="17" spans="2:9" s="57" customFormat="1" ht="15">
-      <c r="B17" s="54" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+    </row>
+    <row r="17" spans="2:9" s="56" customFormat="1" ht="15">
+      <c r="B17" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-    </row>
-    <row r="18" spans="2:9" s="57" customFormat="1" ht="15">
-      <c r="B18" s="58" t="s">
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="2:9" s="56" customFormat="1" ht="15">
+      <c r="B18" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-    </row>
-    <row r="19" spans="2:9" s="57" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B19" s="59" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="2:9" s="56" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B19" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="59" t="s">
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="120" t="s">
+      <c r="G19" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="120"/>
-      <c r="I19" s="59" t="s">
+      <c r="H19" s="108"/>
+      <c r="I19" s="58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="121" t="s">
+    <row r="20" spans="2:9" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="122" t="str">
+      <c r="C20" s="110" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="123">
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111">
         <v>1</v>
       </c>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117" t="str">
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="57" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-    </row>
-    <row r="22" spans="2:9" s="57" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="121"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-    </row>
-    <row r="23" spans="2:9" s="57" customFormat="1">
-      <c r="B23" s="125" t="s">
+    <row r="21" spans="2:9" s="56" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+    </row>
+    <row r="22" spans="2:9" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+    </row>
+    <row r="23" spans="2:9" s="56" customFormat="1">
+      <c r="B23" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="117">
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="104">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="117">
+      <c r="G23" s="104">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117" t="str">
+      <c r="H23" s="104"/>
+      <c r="I23" s="104" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="57" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-    </row>
-    <row r="25" spans="2:9" s="57" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="118" t="s">
+    <row r="24" spans="2:9" s="56" customFormat="1" ht="15" thickBot="1">
+      <c r="B24" s="101"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+    </row>
+    <row r="25" spans="2:9" s="56" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="B25" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-    </row>
-    <row r="26" spans="2:9" s="57" customFormat="1">
-      <c r="B26" s="56" t="s">
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+    </row>
+    <row r="26" spans="2:9" s="56" customFormat="1">
+      <c r="B26" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-    </row>
-    <row r="27" spans="2:9" s="57" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-    </row>
-    <row r="28" spans="2:9" s="57" customFormat="1">
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="124" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+    </row>
+    <row r="27" spans="2:9" s="56" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+    </row>
+    <row r="28" spans="2:9" s="56" customFormat="1">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="56"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="55"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="124" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="49"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="48"/>
     </row>
     <row r="31" spans="2:9">
       <c r="F31" s="14"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
     </row>
     <row r="32" spans="2:9">
       <c r="F32" s="9"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -3799,12 +3794,23 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11760" yWindow="4470" windowWidth="15900" windowHeight="12435" tabRatio="570" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="11760" yWindow="4470" windowWidth="15900" windowHeight="12435" tabRatio="570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" state="hidden" r:id="rId1"/>
@@ -479,10 +479,6 @@
     <phoneticPr fontId="21"/>
   </si>
   <si>
-    <t>大连市软件园东路23号15号楼4楼</t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
     <t>TEL/电话</t>
     <phoneticPr fontId="21"/>
   </si>
@@ -690,6 +686,10 @@
   <si>
     <t>${statime[1]}</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国辽宁省大连市高新技术产业园区黄浦路900号30号楼</t>
+    <phoneticPr fontId="21"/>
   </si>
 </sst>
 </file>
@@ -1412,9 +1412,57 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1433,53 +1481,80 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1492,81 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1917,7 +1917,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>45</v>
@@ -1930,7 +1930,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>44</v>
@@ -1954,7 +1954,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>45</v>
@@ -1967,7 +1967,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>45</v>
@@ -1980,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>45</v>
@@ -2004,7 +2004,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>45</v>
@@ -2017,7 +2017,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>44</v>
@@ -2030,7 +2030,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>45</v>
@@ -2043,7 +2043,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>45</v>
@@ -2056,7 +2056,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>45</v>
@@ -2069,7 +2069,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>45</v>
@@ -2082,7 +2082,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>45</v>
@@ -2117,7 +2117,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>44</v>
@@ -2130,7 +2130,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>45</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="25" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>45</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="26" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>45</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="28" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>44</v>
@@ -2308,8 +2308,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2354,14 +2354,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="95"/>
+      <c r="D3" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="99"/>
       <c r="F3" s="30"/>
       <c r="G3" s="27" t="s">
         <v>2</v>
@@ -2377,19 +2377,19 @@
       <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="78" t="str">
+      <c r="G4" s="94" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="80"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2397,107 +2397,107 @@
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="81" t="str">
+      <c r="G5" s="97" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="98"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="78" t="str">
+      <c r="G6" s="94" t="str">
         <f>記入!B7</f>
         <v>${pd.responerglish}</v>
       </c>
-      <c r="H6" s="78"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" spans="1:11" ht="31.5" customHeight="1">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="97" t="str">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="88" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2506,15 +2506,15 @@
       <c r="B13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="95" t="str">
+      <c r="C13" s="86" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="98"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="89"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="33" t="s">
@@ -2533,31 +2533,31 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="98"/>
+      <c r="H14" s="89"/>
     </row>
     <row r="15" spans="1:11" ht="71.25" customHeight="1">
       <c r="B15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="92" t="str">
+      <c r="C15" s="83" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="99"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="90"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="26">
         <f>SUM(H12:H15)</f>
         <v>0</v>
@@ -2582,58 +2582,58 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8">
@@ -2732,6 +2732,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
@@ -2744,20 +2758,6 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H12:H15"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2771,8 +2771,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3359,74 +3359,74 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
       <c r="A1" s="66"/>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:12" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
     </row>
     <row r="4" spans="1:12" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="125" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
+      <c r="C4" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:12" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="126" t="s">
+      <c r="D5" s="103"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="46" t="s">
+      <c r="G5" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="128"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="104"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="48"/>
@@ -3439,141 +3439,141 @@
       <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="106" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="B8" s="107" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-    </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="114" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="107"/>
+    </row>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-    </row>
-    <row r="9" spans="1:12" s="47" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="115" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="116" t="str">
+      <c r="C9" s="110" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="107" t="str">
+      <c r="D9" s="111"/>
+      <c r="E9" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="109" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="120" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="122" t="str">
+      <c r="G9" s="109"/>
+      <c r="H9" s="114" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="116" t="str">
         <f>記入!B16</f>
         <v>${pd.deliveryfinshdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="47" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="107"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="107"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="109"/>
     </row>
     <row r="11" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="123" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="107" t="str">
+      <c r="B11" s="117" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="109" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
       <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="123" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="107" t="str">
+      <c r="B12" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="109" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
     </row>
     <row r="13" spans="1:12" s="52" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="112" t="str">
+        <v>78</v>
+      </c>
+      <c r="C13" s="105" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" spans="1:12" s="52" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="112" t="str">
+        <v>79</v>
+      </c>
+      <c r="C14" s="105" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" spans="1:12" s="52" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="106" t="str">
+        <v>80</v>
+      </c>
+      <c r="C15" s="120" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="64" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
+        <v>69</v>
+      </c>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="48"/>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="17" spans="2:9" s="56" customFormat="1" ht="15">
       <c r="B17" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>82</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>83</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="18" spans="2:9" s="56" customFormat="1" ht="15">
       <c r="B18" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>84</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>85</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
@@ -3615,110 +3615,110 @@
     </row>
     <row r="19" spans="2:9" s="56" customFormat="1" ht="45.75" customHeight="1">
       <c r="B19" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="121" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="58" t="s">
+      <c r="G19" s="121" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="108" t="s">
+      <c r="H19" s="121"/>
+      <c r="I19" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="108"/>
-      <c r="I19" s="58" t="s">
+    </row>
+    <row r="20" spans="2:9" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="122" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="110" t="str">
+      <c r="C20" s="123" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="111">
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="124">
         <v>1</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104" t="str">
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
     </row>
     <row r="22" spans="2:9" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="109"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
     </row>
     <row r="23" spans="2:9" s="56" customFormat="1">
-      <c r="B23" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="104">
+      <c r="B23" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="118">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="104">
+      <c r="G23" s="118">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104" t="str">
+      <c r="H23" s="118"/>
+      <c r="I23" s="118" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="56" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="101"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="118"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
     </row>
     <row r="25" spans="2:9" s="56" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="105" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="105"/>
+      <c r="B25" s="119" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
       <c r="G25" s="55"/>
       <c r="H25" s="55"/>
       <c r="I25" s="55"/>
     </row>
     <row r="26" spans="2:9" s="56" customFormat="1">
       <c r="B26" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -3743,11 +3743,11 @@
       <c r="C28" s="59"/>
       <c r="D28" s="55"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="100" t="s">
-        <v>95</v>
-      </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
+      <c r="F28" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="G28" s="125"/>
+      <c r="H28" s="125"/>
       <c r="I28" s="55"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3755,11 +3755,11 @@
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
-      <c r="F29" s="100" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
+      <c r="F29" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
       <c r="I29" s="48"/>
     </row>
     <row r="31" spans="2:9">
@@ -3774,12 +3774,23 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -3794,23 +3805,12 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -471,10 +471,6 @@
     <phoneticPr fontId="21"/>
   </si>
   <si>
-    <t xml:space="preserve">Room 401，15#，No.23 Soft Park East Road  ,Dalian,116023,P.R.China </t>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
     <t>地址</t>
     <phoneticPr fontId="21"/>
   </si>
@@ -689,6 +685,10 @@
   </si>
   <si>
     <t>中国辽宁省大连市高新技术产业园区黄浦路900号30号楼</t>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30# No.900 Huangpu Road, High-tech Industrial Zone，Dalian，P.R.CHINA&lt;116085&gt;</t>
     <phoneticPr fontId="21"/>
   </si>
 </sst>
@@ -1412,6 +1412,33 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1454,32 +1481,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1495,78 +1567,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1917,7 +1917,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>45</v>
@@ -1930,7 +1930,7 @@
         <v>49</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>44</v>
@@ -1954,7 +1954,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="41" t="s">
         <v>45</v>
@@ -1967,7 +1967,7 @@
         <v>58</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>45</v>
@@ -1980,7 +1980,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="41" t="s">
         <v>45</v>
@@ -2004,7 +2004,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="41" t="s">
         <v>45</v>
@@ -2017,7 +2017,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>44</v>
@@ -2030,7 +2030,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>45</v>
@@ -2043,7 +2043,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="41" t="s">
         <v>45</v>
@@ -2056,7 +2056,7 @@
         <v>28</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>45</v>
@@ -2069,7 +2069,7 @@
         <v>29</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>45</v>
@@ -2082,7 +2082,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>45</v>
@@ -2117,7 +2117,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>44</v>
@@ -2130,7 +2130,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="41" t="s">
         <v>45</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="25" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="41" t="s">
         <v>45</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="26" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="41" t="s">
         <v>45</v>
@@ -2224,10 +2224,10 @@
     </row>
     <row r="28" spans="1:5" s="20" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>44</v>
@@ -2354,14 +2354,14 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="99" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="99"/>
+      <c r="E3" s="83"/>
       <c r="F3" s="30"/>
       <c r="G3" s="27" t="s">
         <v>2</v>
@@ -2377,19 +2377,19 @@
       <c r="B4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="94" t="str">
+      <c r="G4" s="78" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="96"/>
+      <c r="H4" s="80"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2397,107 +2397,107 @@
       <c r="B5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="30"/>
-      <c r="G5" s="97" t="str">
+      <c r="G5" s="81" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="98"/>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="94" t="str">
+      <c r="G6" s="78" t="str">
         <f>記入!B7</f>
         <v>${pd.responerglish}</v>
       </c>
-      <c r="H6" s="94"/>
+      <c r="H6" s="78"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="30"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="30"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="F9" s="30"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="1:11" ht="31.5" customHeight="1">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="88" t="str">
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="97" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2506,15 +2506,15 @@
       <c r="B13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="86" t="str">
+      <c r="C13" s="95" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="89"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="98"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="33" t="s">
@@ -2533,31 +2533,31 @@
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="37"/>
-      <c r="H14" s="89"/>
+      <c r="H14" s="98"/>
     </row>
     <row r="15" spans="1:11" ht="71.25" customHeight="1">
       <c r="B15" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="83" t="str">
+      <c r="C15" s="92" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="90"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="99"/>
     </row>
     <row r="16" spans="1:11" ht="22.5" customHeight="1">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
       <c r="H16" s="26">
         <f>SUM(H12:H15)</f>
         <v>0</v>
@@ -2582,58 +2582,58 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="24" customHeight="1">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="16"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="16"/>
     </row>
     <row r="22" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="16"/>
     </row>
     <row r="23" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="2:8">
@@ -2732,20 +2732,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:G11"/>
@@ -2758,6 +2744,20 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="H12:H15"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2771,8 +2771,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:H28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2785,7 +2785,7 @@
     <col min="6" max="6" width="16.25" style="45" customWidth="1"/>
     <col min="7" max="7" width="6.125" style="45" customWidth="1"/>
     <col min="8" max="8" width="9.375" style="45" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="45" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="45" customWidth="1"/>
     <col min="10" max="10" width="2.125" style="45" customWidth="1"/>
     <col min="11" max="257" width="9" style="45"/>
     <col min="258" max="258" width="11.375" style="45" customWidth="1"/>
@@ -3359,74 +3359,74 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
       <c r="A1" s="66"/>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
     </row>
     <row r="3" spans="1:12" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
+      <c r="C3" s="125" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
     </row>
     <row r="4" spans="1:12" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
+        <v>65</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
     </row>
     <row r="5" spans="1:12" s="47" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="D5" s="127"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="46" t="s">
+      <c r="G5" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="104"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="128"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="48"/>
@@ -3439,141 +3439,141 @@
       <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="B8" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-    </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="107" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
+    </row>
+    <row r="9" spans="1:12" s="47" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="115" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-    </row>
-    <row r="9" spans="1:12" s="47" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="110" t="str">
+      <c r="C9" s="116" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="108" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="109" t="str">
+      <c r="D9" s="117"/>
+      <c r="E9" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="107" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="114" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="116" t="str">
+      <c r="G9" s="107"/>
+      <c r="H9" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="122" t="str">
         <f>記入!B16</f>
         <v>${pd.deliveryfinshdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="47" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="109"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="109"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="109" t="str">
+      <c r="B11" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="107" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
       <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12" s="47" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="109" t="str">
+      <c r="B12" s="123" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="107" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
     </row>
     <row r="13" spans="1:12" s="52" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="105" t="str">
+        <v>77</v>
+      </c>
+      <c r="C13" s="112" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" spans="1:12" s="52" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="105" t="str">
+        <v>78</v>
+      </c>
+      <c r="C14" s="112" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
     </row>
     <row r="15" spans="1:12" s="52" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="120" t="str">
+        <v>79</v>
+      </c>
+      <c r="C15" s="106" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
+        <v>68</v>
+      </c>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="48"/>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="17" spans="2:9" s="56" customFormat="1" ht="15">
       <c r="B17" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="54" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="54" t="s">
-        <v>82</v>
       </c>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="18" spans="2:9" s="56" customFormat="1" ht="15">
       <c r="B18" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>83</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>84</v>
       </c>
       <c r="D18" s="54"/>
       <c r="E18" s="54"/>
@@ -3615,110 +3615,110 @@
     </row>
     <row r="19" spans="2:9" s="56" customFormat="1" ht="45.75" customHeight="1">
       <c r="B19" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="58" t="s">
+      <c r="G19" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="121" t="s">
+      <c r="H19" s="108"/>
+      <c r="I19" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="H19" s="121"/>
-      <c r="I19" s="58" t="s">
+    </row>
+    <row r="20" spans="2:9" s="56" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="109" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="122" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="123" t="str">
+      <c r="C20" s="110" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="124">
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111">
         <v>1</v>
       </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118" t="str">
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="56" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
     </row>
     <row r="22" spans="2:9" s="56" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
     </row>
     <row r="23" spans="2:9" s="56" customFormat="1">
-      <c r="B23" s="126" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="118">
+      <c r="B23" s="101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="104">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="118">
+      <c r="G23" s="104">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118" t="str">
+      <c r="H23" s="104"/>
+      <c r="I23" s="104" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="56" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="126"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="118"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
     </row>
     <row r="25" spans="2:9" s="56" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="119" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
+      <c r="B25" s="105" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="105"/>
       <c r="G25" s="55"/>
       <c r="H25" s="55"/>
       <c r="I25" s="55"/>
     </row>
     <row r="26" spans="2:9" s="56" customFormat="1">
       <c r="B26" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -3743,11 +3743,11 @@
       <c r="C28" s="59"/>
       <c r="D28" s="55"/>
       <c r="E28" s="59"/>
-      <c r="F28" s="125" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
+      <c r="F28" s="100" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
       <c r="I28" s="55"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3755,11 +3755,11 @@
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
       <c r="E29" s="48"/>
-      <c r="F29" s="125" t="s">
-        <v>95</v>
-      </c>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
+      <c r="F29" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
       <c r="I29" s="48"/>
     </row>
     <row r="31" spans="2:9">
@@ -3774,23 +3774,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -3805,12 +3794,23 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newtouch\Desktop\合同书\99_帳票\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -32,6 +32,81 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>newtouch</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="E30")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>newtouch</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="I33")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>newtouch</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>jx:area(lastCell="I33")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
@@ -576,59 +651,57 @@
   </si>
   <si>
     <t>${pd.custoenglish}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.custochinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.placeenglish}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${pd.businesscode}</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.pjnamejapanese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.contractnumber}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.claimnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.openingdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.enddate}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.claimamount}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.placechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${pd.businesscode}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.responphone}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>${pd.remarks}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>${statime[0]}</t>
+  </si>
+  <si>
+    <t>${statime[1]}</t>
   </si>
 </sst>
 </file>
@@ -640,7 +713,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,6 +929,14 @@
       <name val="MS Gothic"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1147,7 +1228,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1308,6 +1389,12 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1518,23 +1605,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1959,12 +2032,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1978,14 +2051,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="D1" s="63" t="s">
+      <c r="B1" s="64"/>
+      <c r="D1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="64"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -1995,34 +2068,34 @@
       <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="63" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="63" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="31" t="s">
@@ -2032,45 +2105,45 @@
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="63" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
+      <c r="C7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="136" t="s">
-        <v>115</v>
+      <c r="B8" s="63" t="s">
+        <v>107</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="32" t="s">
@@ -2080,86 +2153,86 @@
       <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="134" t="s">
-        <v>107</v>
+      <c r="B10" s="63" t="s">
+        <v>108</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="134" t="s">
-        <v>108</v>
+      <c r="B11" s="63" t="s">
+        <v>109</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="134" t="s">
-        <v>109</v>
+      <c r="B12" s="63" t="s">
+        <v>110</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="134" t="s">
-        <v>110</v>
+      <c r="B13" s="63" t="s">
+        <v>111</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="132" t="s">
-        <v>111</v>
+      <c r="B14" s="134" t="s">
+        <v>116</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="132" t="s">
-        <v>112</v>
+      <c r="B15" s="134" t="s">
+        <v>117</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="31" t="s">
@@ -2169,8 +2242,8 @@
       <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="68"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="31" t="s">
@@ -2180,8 +2253,8 @@
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="31" t="s">
@@ -2191,8 +2264,8 @@
       <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="31" t="s">
@@ -2202,32 +2275,32 @@
       <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="68"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="137" t="s">
-        <v>113</v>
+      <c r="B20" s="63" t="s">
+        <v>112</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="132"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="31" t="s">
@@ -2237,8 +2310,8 @@
       <c r="C22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="68"/>
     </row>
     <row r="23" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="32" t="s">
@@ -2248,8 +2321,8 @@
       <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
     </row>
     <row r="24" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="32" t="s">
@@ -2259,47 +2332,47 @@
       <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
     </row>
     <row r="25" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="136" t="s">
-        <v>114</v>
+      <c r="B25" s="63" t="s">
+        <v>113</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="68"/>
     </row>
     <row r="26" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="136" t="s">
-        <v>116</v>
+      <c r="B26" s="63" t="s">
+        <v>114</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="68"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="136" t="s">
-        <v>117</v>
+      <c r="B27" s="63" t="s">
+        <v>115</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
     </row>
     <row r="28" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="32" t="s">
@@ -2309,8 +2382,8 @@
       <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="32" t="s">
@@ -2322,8 +2395,8 @@
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="68"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="32" t="s">
@@ -2335,8 +2408,8 @@
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="70"/>
     </row>
     <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="10"/>
@@ -2376,20 +2449,21 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E30"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:K37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2405,7 +2479,7 @@
     <col min="9" max="9" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="29.25" customHeight="1">
+    <row r="1" spans="1:11" ht="29.25" customHeight="1">
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2414,10 +2488,10 @@
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-    </row>
-    <row r="2" spans="2:11" ht="24" customHeight="1">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2426,228 +2500,228 @@
       <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="72" t="str">
+      <c r="H2" s="74" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="72"/>
-    </row>
-    <row r="3" spans="2:11" ht="27" customHeight="1">
-      <c r="B3" s="69" t="s">
+      <c r="I2" s="74"/>
+    </row>
+    <row r="3" spans="1:11" ht="27" customHeight="1">
+      <c r="B3" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="74"/>
       <c r="F3" s="21"/>
       <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="72" t="str">
+      <c r="H3" s="74" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="74"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="58.9" customHeight="1">
+    <row r="4" spans="1:11" ht="58.9" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="69" t="str">
+      <c r="G4" s="71" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="2:11" ht="53.25" customHeight="1">
+    <row r="5" spans="1:11" ht="53.25" customHeight="1">
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="69" t="str">
+      <c r="G5" s="71" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="69"/>
-    </row>
-    <row r="6" spans="2:11" ht="36" customHeight="1">
+      <c r="H5" s="71"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-    </row>
-    <row r="7" spans="2:11" ht="27" customHeight="1">
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-    </row>
-    <row r="8" spans="2:11" ht="39" customHeight="1">
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-    </row>
-    <row r="9" spans="2:11" ht="24" customHeight="1">
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+    </row>
+    <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-    </row>
-    <row r="10" spans="2:11" ht="49.15" customHeight="1">
-      <c r="B10" s="76" t="s">
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+    </row>
+    <row r="10" spans="1:11" ht="49.15" customHeight="1">
+      <c r="B10" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-    </row>
-    <row r="11" spans="2:11" ht="24" customHeight="1">
-      <c r="B11" s="77" t="s">
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+    </row>
+    <row r="11" spans="1:11" ht="24" customHeight="1">
+      <c r="B11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="21" customHeight="1">
-      <c r="B12" s="78" t="s">
+    <row r="12" spans="1:11" ht="21" customHeight="1">
+      <c r="B12" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
       <c r="H12" s="57" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="25.5" customHeight="1">
+    <row r="13" spans="1:11" ht="25.5" customHeight="1">
       <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="84" t="str">
+      <c r="C13" s="86" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="85"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="58"/>
     </row>
-    <row r="14" spans="2:11" ht="27" customHeight="1">
+    <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="24" t="str">
         <f>記入!B14</f>
-        <v>${pd.openingdate}</v>
+        <v>${statime[0]}</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="24" t="str">
         <f>記入!B15</f>
-        <v>${pd.enddate}</v>
+        <v>${statime[1]}</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" spans="2:11" ht="53.45" customHeight="1">
+    <row r="15" spans="1:11" ht="53.45" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="81" t="str">
+      <c r="C15" s="83" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="58"/>
     </row>
-    <row r="16" spans="2:11" ht="43.9" customHeight="1">
+    <row r="16" spans="1:11" ht="43.9" customHeight="1">
       <c r="B16" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="86" t="str">
+      <c r="C16" s="88" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="56"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
       <c r="H17" s="59">
         <f>SUM(H12:H15)</f>
         <v>0</v>
@@ -2672,58 +2746,58 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" ht="13.15" customHeight="1">
@@ -2737,25 +2811,25 @@
     </row>
     <row r="26" spans="2:8" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74" t="s">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="74"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3"/>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="60"/>
       <c r="H27" s="61"/>
     </row>
@@ -2877,16 +2951,17 @@
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:L32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:I24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3471,77 +3546,77 @@
     <col min="16138" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="32.25" customHeight="1">
-      <c r="B1" s="89" t="s">
+    <row r="1" spans="1:12" ht="32.25" customHeight="1">
+      <c r="B1" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-    </row>
-    <row r="2" spans="2:12" ht="21.75" customHeight="1">
-      <c r="B2" s="89" t="s">
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+    </row>
+    <row r="2" spans="1:12" ht="21.75" customHeight="1">
+      <c r="B2" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-    </row>
-    <row r="3" spans="2:12" s="36" customFormat="1" ht="24.95" customHeight="1">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+    </row>
+    <row r="3" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-    </row>
-    <row r="4" spans="2:12" s="36" customFormat="1" ht="24.95" customHeight="1">
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+    </row>
+    <row r="4" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-    </row>
-    <row r="5" spans="2:12" s="36" customFormat="1" ht="24.95" customHeight="1">
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+    </row>
+    <row r="5" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
       <c r="F5" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="92" t="s">
+      <c r="G5" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94"/>
-    </row>
-    <row r="6" spans="2:12">
+      <c r="H5" s="95"/>
+      <c r="I5" s="96"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -3551,144 +3626,144 @@
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="2:12" ht="21" customHeight="1">
-      <c r="B7" s="98" t="s">
+    <row r="7" spans="1:12" ht="21" customHeight="1">
+      <c r="B7" s="100" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-    </row>
-    <row r="8" spans="2:12" ht="21" customHeight="1">
-      <c r="B8" s="99" t="s">
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="B8" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-    </row>
-    <row r="9" spans="2:12" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="100" t="s">
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+    </row>
+    <row r="9" spans="1:12" s="36" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="102" t="str">
+      <c r="C9" s="104" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="103"/>
-      <c r="E9" s="100" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="101" t="str">
+      <c r="F9" s="103" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="106" t="s">
+      <c r="G9" s="103"/>
+      <c r="H9" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="108">
+      <c r="I9" s="110">
         <f>記入!B21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:12" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="101"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="108"/>
-    </row>
-    <row r="11" spans="2:12" s="36" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="109" t="s">
+    <row r="10" spans="1:12" s="36" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B10" s="103"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
+    </row>
+    <row r="11" spans="1:12" s="36" customFormat="1" ht="45" customHeight="1">
+      <c r="B11" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110" t="str">
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
       <c r="L11" s="39"/>
     </row>
-    <row r="12" spans="2:12" s="36" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="109" t="s">
+    <row r="12" spans="1:12" s="36" customFormat="1" ht="45" customHeight="1">
+      <c r="B12" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110" t="str">
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="112"/>
-    </row>
-    <row r="13" spans="2:12" s="41" customFormat="1" ht="45" customHeight="1">
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
+    </row>
+    <row r="13" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="95" t="str">
+      <c r="C13" s="97" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
-    </row>
-    <row r="14" spans="2:12" s="41" customFormat="1" ht="45" customHeight="1">
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
+    </row>
+    <row r="14" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="95" t="str">
+      <c r="C14" s="97" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
-    </row>
-    <row r="15" spans="2:12" s="41" customFormat="1" ht="45" customHeight="1">
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+    </row>
+    <row r="15" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="115" t="str">
+      <c r="C15" s="117" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-    </row>
-    <row r="16" spans="2:12">
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -3730,101 +3805,101 @@
       <c r="B19" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="116" t="s">
+      <c r="G19" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="116"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="B20" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="118" t="str">
+      <c r="C20" s="120" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="119"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="127">
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="129">
         <v>1</v>
       </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113" t="str">
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="117"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
     </row>
     <row r="22" spans="2:9" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="117"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
     </row>
     <row r="23" spans="2:9" s="45" customFormat="1">
-      <c r="B23" s="129" t="s">
+      <c r="B23" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="113">
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="115">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G23" s="115">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113" t="str">
+      <c r="H23" s="115"/>
+      <c r="I23" s="115" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="45" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="129"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
     </row>
     <row r="25" spans="2:9" s="45" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
@@ -3856,11 +3931,11 @@
       <c r="C28" s="48"/>
       <c r="D28" s="44"/>
       <c r="E28" s="48"/>
-      <c r="F28" s="128" t="s">
+      <c r="F28" s="130" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="130"/>
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3868,11 +3943,11 @@
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="128" t="s">
+      <c r="F29" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
       <c r="I29" s="37"/>
     </row>
     <row r="31" spans="2:9">
@@ -3928,5 +4003,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1395,219 +1395,219 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1651,7 +1651,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1706,7 +1706,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,8 +2036,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2051,14 +2051,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="D1" s="65" t="s">
+      <c r="B1" s="65"/>
+      <c r="D1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="66"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -2068,8 +2068,8 @@
       <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="32" t="s">
@@ -2081,8 +2081,8 @@
       <c r="C3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="31" t="s">
@@ -2094,8 +2094,8 @@
       <c r="C4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="31" t="s">
@@ -2105,8 +2105,8 @@
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="33" t="s">
@@ -2118,8 +2118,8 @@
       <c r="C6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -2129,8 +2129,8 @@
       <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
@@ -2142,8 +2142,8 @@
       <c r="C8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="32" t="s">
@@ -2153,8 +2153,8 @@
       <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="31" t="s">
@@ -2166,8 +2166,8 @@
       <c r="C10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -2179,8 +2179,8 @@
       <c r="C11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="31" t="s">
@@ -2192,8 +2192,8 @@
       <c r="C12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="31" t="s">
@@ -2205,34 +2205,34 @@
       <c r="C13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="64" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="64" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="31" t="s">
@@ -2242,8 +2242,8 @@
       <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="31" t="s">
@@ -2253,8 +2253,8 @@
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="31" t="s">
@@ -2264,8 +2264,8 @@
       <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="31" t="s">
@@ -2275,8 +2275,8 @@
       <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="31" t="s">
@@ -2288,8 +2288,8 @@
       <c r="C20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="31" t="s">
@@ -2299,8 +2299,8 @@
       <c r="C21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="31" t="s">
@@ -2310,8 +2310,8 @@
       <c r="C22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="23" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="32" t="s">
@@ -2321,8 +2321,8 @@
       <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="32" t="s">
@@ -2332,8 +2332,8 @@
       <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="32" t="s">
@@ -2345,8 +2345,8 @@
       <c r="C25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="32" t="s">
@@ -2358,8 +2358,8 @@
       <c r="C26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="32" t="s">
@@ -2371,8 +2371,8 @@
       <c r="C27" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="32" t="s">
@@ -2382,8 +2382,8 @@
       <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="32" t="s">
@@ -2395,8 +2395,8 @@
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="32" t="s">
@@ -2408,8 +2408,8 @@
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="10"/>
@@ -2462,8 +2462,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2488,8 +2488,8 @@
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="B2" s="12"/>
@@ -2500,49 +2500,49 @@
       <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="74" t="str">
+      <c r="H2" s="87" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="74"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="89"/>
+      <c r="D3" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="74"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="21"/>
       <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="74" t="str">
+      <c r="H3" s="87" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="74"/>
+      <c r="I3" s="87"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="58.9" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="71" t="str">
+      <c r="G4" s="89" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="71"/>
+      <c r="H4" s="89"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2550,103 +2550,103 @@
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="71" t="str">
+      <c r="G5" s="89" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="71"/>
+      <c r="H5" s="89"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
     </row>
     <row r="10" spans="1:11" ht="49.15" customHeight="1">
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="57" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
@@ -2656,14 +2656,14 @@
       <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="86" t="str">
+      <c r="C13" s="82" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
@@ -2689,42 +2689,42 @@
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="83" t="str">
+      <c r="C15" s="79" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="84"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:11" ht="43.9" customHeight="1">
       <c r="B16" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="88" t="str">
+      <c r="C16" s="84" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="90"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
       <c r="H16" s="56"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="59">
-        <f>SUM(H12:H15)</f>
-        <v>0</v>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="59" t="str">
+        <f>記入!B20</f>
+        <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="22.5" customHeight="1">
@@ -2746,58 +2746,58 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="77" t="s">
+      <c r="B20" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="77" t="s">
+      <c r="B22" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" ht="13.15" customHeight="1">
@@ -2811,25 +2811,25 @@
     </row>
     <row r="26" spans="2:8" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="76"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3"/>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="60"/>
       <c r="H27" s="61"/>
     </row>
@@ -2913,6 +2913,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B24:G24"/>
@@ -2929,23 +2946,6 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3547,74 +3547,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="129" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
     </row>
     <row r="3" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
     </row>
     <row r="5" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="134"/>
       <c r="F5" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="94" t="s">
+      <c r="G5" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="95"/>
-      <c r="I5" s="96"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="134"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="37"/>
@@ -3627,141 +3627,141 @@
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="116" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
     </row>
     <row r="9" spans="1:12" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="104" t="str">
+      <c r="C9" s="118" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="102" t="s">
+      <c r="D9" s="119"/>
+      <c r="E9" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="103" t="str">
+      <c r="F9" s="99" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="108" t="s">
+      <c r="G9" s="99"/>
+      <c r="H9" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="110">
+      <c r="I9" s="124">
         <f>記入!B21</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="103"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="110"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
     </row>
     <row r="11" spans="1:12" s="36" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112" t="str">
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="126" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" s="36" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112" t="str">
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="126" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
     </row>
     <row r="13" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="97" t="str">
+      <c r="C13" s="112" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="99"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="114"/>
     </row>
     <row r="14" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="97" t="str">
+      <c r="C14" s="112" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="99"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="117" t="str">
+      <c r="C15" s="98" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="37"/>
@@ -3805,101 +3805,101 @@
       <c r="B19" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="118"/>
+      <c r="H19" s="100"/>
       <c r="I19" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="120" t="str">
+      <c r="C20" s="102" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="129">
+      <c r="D20" s="103"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="111">
         <v>1</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115" t="str">
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="119"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
     </row>
     <row r="22" spans="2:9" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="119"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
     </row>
     <row r="23" spans="2:9" s="45" customFormat="1">
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="132"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="115">
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="96">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="115">
+      <c r="G23" s="96">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115" t="str">
+      <c r="H23" s="96"/>
+      <c r="I23" s="96" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="45" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="131"/>
-      <c r="C24" s="133"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="133"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
+      <c r="B24" s="93"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
     </row>
     <row r="25" spans="2:9" s="45" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
@@ -3931,11 +3931,11 @@
       <c r="C28" s="48"/>
       <c r="D28" s="44"/>
       <c r="E28" s="48"/>
-      <c r="F28" s="130" t="s">
+      <c r="F28" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="130"/>
-      <c r="H28" s="130"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3943,11 +3943,11 @@
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="130" t="s">
+      <c r="F29" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="130"/>
-      <c r="H29" s="130"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
       <c r="I29" s="37"/>
     </row>
     <row r="31" spans="2:9">
@@ -3962,23 +3962,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -3993,12 +3982,23 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>Issued Date：</t>
   </si>
@@ -702,6 +702,14 @@
   </si>
   <si>
     <t>${statime[1]}</t>
+  </si>
+  <si>
+    <t>${pd.claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RMB</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1228,7 +1236,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1389,9 +1397,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1399,6 +1404,10 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1608,6 +1617,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2037,7 +2049,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2075,7 +2087,7 @@
       <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="30" t="s">
@@ -2088,7 +2100,7 @@
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -2112,7 +2124,7 @@
       <c r="A6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -2136,7 +2148,7 @@
       <c r="A8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="30" t="s">
@@ -2160,7 +2172,7 @@
       <c r="A10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -2173,7 +2185,7 @@
       <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="62" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="30" t="s">
@@ -2186,7 +2198,7 @@
       <c r="A12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="62" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -2199,7 +2211,7 @@
       <c r="A13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="62" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="30" t="s">
@@ -2212,7 +2224,7 @@
       <c r="A14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="30" t="s">
@@ -2225,7 +2237,7 @@
       <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="63" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -2271,7 +2283,9 @@
       <c r="A19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
@@ -2282,7 +2296,7 @@
       <c r="A20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="62" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -2295,7 +2309,9 @@
       <c r="A21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="62"/>
+      <c r="B21" s="64" t="s">
+        <v>118</v>
+      </c>
       <c r="C21" s="30" t="s">
         <v>37</v>
       </c>
@@ -2339,7 +2355,7 @@
       <c r="A25" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -2352,7 +2368,7 @@
       <c r="A26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="62" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -2365,7 +2381,7 @@
       <c r="A27" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="62" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -2462,8 +2478,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2488,7 +2504,10 @@
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="87"/>
+      <c r="H1" s="135" t="str">
+        <f>記入!B21</f>
+        <v>${pd.claimdate}</v>
+      </c>
       <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
@@ -3670,9 +3689,9 @@
       <c r="H9" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="124">
+      <c r="I9" s="124" t="str">
         <f>記入!B21</f>
-        <v>0</v>
+        <v>${pd.claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="36" customFormat="1" ht="20.25" customHeight="1">

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -716,7 +716,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
@@ -1236,7 +1237,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1382,14 +1383,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1474,6 +1469,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1618,8 +1616,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="7" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2049,7 +2056,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2063,14 +2070,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="63"/>
+      <c r="D1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="67"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -2080,34 +2087,34 @@
       <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="67"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="60" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="31" t="s">
@@ -2117,21 +2124,21 @@
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="60" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="33" t="s">
@@ -2141,21 +2148,21 @@
       <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="60" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="32" t="s">
@@ -2165,86 +2172,86 @@
       <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="60" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="60" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="61" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="61" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="31" t="s">
@@ -2254,8 +2261,8 @@
       <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="31" t="s">
@@ -2265,8 +2272,8 @@
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="31" t="s">
@@ -2276,8 +2283,8 @@
       <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="31" t="s">
@@ -2289,34 +2296,34 @@
       <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="134" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="62" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="31" t="s">
@@ -2326,8 +2333,8 @@
       <c r="C22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
     </row>
     <row r="23" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="32" t="s">
@@ -2337,8 +2344,8 @@
       <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
     </row>
     <row r="24" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="32" t="s">
@@ -2348,47 +2355,47 @@
       <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
     </row>
     <row r="25" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="60" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
     </row>
     <row r="26" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="60" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
     </row>
     <row r="28" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="32" t="s">
@@ -2398,8 +2405,8 @@
       <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="32" t="s">
@@ -2411,8 +2418,8 @@
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="32" t="s">
@@ -2424,8 +2431,8 @@
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="69"/>
     </row>
     <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="10"/>
@@ -2478,8 +2485,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2504,11 +2511,11 @@
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="135" t="str">
+      <c r="H1" s="85" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
-      <c r="I1" s="87"/>
+      <c r="I1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="B2" s="12"/>
@@ -2519,49 +2526,49 @@
       <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="87" t="str">
+      <c r="H2" s="86" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="87" t="s">
+      <c r="C3" s="88"/>
+      <c r="D3" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="87"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="21"/>
       <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="87" t="str">
+      <c r="H3" s="86" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="58.9" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="89" t="str">
+      <c r="G4" s="88" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="89"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2569,104 +2576,104 @@
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="89" t="str">
+      <c r="G5" s="88" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="89"/>
+      <c r="H5" s="88"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="89" t="s">
+      <c r="C8" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
     </row>
     <row r="10" spans="1:11" ht="49.15" customHeight="1">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="57" t="str">
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="135" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2675,15 +2682,15 @@
       <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="82" t="str">
+      <c r="C13" s="80" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="58"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="23" t="s">
@@ -2702,46 +2709,46 @@
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
-      <c r="H14" s="58"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:11" ht="53.45" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="79" t="str">
+      <c r="C15" s="77" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="58"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="57"/>
     </row>
     <row r="16" spans="1:11" ht="43.9" customHeight="1">
       <c r="B16" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="84" t="str">
+      <c r="C16" s="82" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="56"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="59" t="str">
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="136" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2765,58 +2772,58 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" ht="13.15" customHeight="1">
@@ -2830,27 +2837,27 @@
     </row>
     <row r="26" spans="2:8" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72" t="s">
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="72"/>
+      <c r="H26" s="70"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3"/>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="3"/>
@@ -2979,8 +2986,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3566,74 +3573,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="128" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
     </row>
     <row r="3" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
     </row>
     <row r="4" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="131" t="s">
+      <c r="C4" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
     </row>
     <row r="5" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="132" t="s">
+      <c r="C5" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="134"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="133"/>
       <c r="F5" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="133"/>
-      <c r="I5" s="134"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="133"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="37"/>
@@ -3646,141 +3653,141 @@
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
     </row>
     <row r="9" spans="1:12" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="117" t="s">
+      <c r="B9" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="118" t="str">
+      <c r="C9" s="117" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="117" t="s">
+      <c r="D9" s="118"/>
+      <c r="E9" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="99" t="str">
+      <c r="F9" s="98" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="122" t="s">
+      <c r="G9" s="98"/>
+      <c r="H9" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="124" t="str">
+      <c r="I9" s="123" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="99"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="124"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
     </row>
     <row r="11" spans="1:12" s="36" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="125" t="s">
+      <c r="B11" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="126" t="str">
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="125" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="127"/>
-      <c r="H11" s="127"/>
-      <c r="I11" s="128"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="127"/>
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" s="36" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="126" t="str">
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="125" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="128"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="127"/>
     </row>
     <row r="13" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="112" t="str">
+      <c r="C13" s="111" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="114"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="112" t="str">
+      <c r="C14" s="111" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="114"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="98" t="str">
+      <c r="C15" s="97" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="37"/>
@@ -3824,101 +3831,101 @@
       <c r="B19" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="100"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="47" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="102" t="str">
+      <c r="C20" s="101" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="111">
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="110">
         <v>1</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96" t="str">
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="137" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="101"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="137"/>
     </row>
     <row r="22" spans="2:9" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="101"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="137"/>
     </row>
     <row r="23" spans="2:9" s="45" customFormat="1">
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="96">
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="95">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="96">
+      <c r="G23" s="95">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96" t="str">
+      <c r="H23" s="95"/>
+      <c r="I23" s="137" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="45" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="93"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="96"/>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="137"/>
     </row>
     <row r="25" spans="2:9" s="45" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="44"/>
@@ -3950,11 +3957,11 @@
       <c r="C28" s="48"/>
       <c r="D28" s="44"/>
       <c r="E28" s="48"/>
-      <c r="F28" s="92" t="s">
+      <c r="F28" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3962,11 +3969,11 @@
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
-      <c r="F29" s="92" t="s">
+      <c r="F29" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
       <c r="I29" s="37"/>
     </row>
     <row r="31" spans="2:9">

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -716,11 +716,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1237,7 +1238,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1303,9 +1304,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1395,14 +1393,26 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="7" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1469,7 +1479,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1502,6 +1512,9 @@
     <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1583,7 +1596,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1616,17 +1629,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="7" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2055,8 +2062,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2070,224 +2077,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="D1" s="64" t="s">
+      <c r="B1" s="66"/>
+      <c r="D1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="65"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1">
+      <c r="A6" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="31" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B19" s="15" t="s">
@@ -2296,133 +2303,133 @@
       <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="134" t="s">
+      <c r="B20" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="30" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
     </row>
     <row r="23" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A24" s="32" t="s">
+      <c r="A24" s="31" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-    </row>
-    <row r="25" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A25" s="32" t="s">
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
+    </row>
+    <row r="25" spans="1:5" s="17" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A25" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="31" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>93</v>
       </c>
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="32" t="s">
+      <c r="A30" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -2431,8 +2438,8 @@
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="69"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
     </row>
     <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="10"/>
@@ -2486,7 +2493,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2511,11 +2518,11 @@
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="85" t="str">
+      <c r="H1" s="88" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
-      <c r="I1" s="86"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="B2" s="12"/>
@@ -2526,49 +2533,49 @@
       <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="86" t="str">
+      <c r="H2" s="89" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="86"/>
+      <c r="I2" s="89"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="86" t="s">
+      <c r="C3" s="91"/>
+      <c r="D3" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="86"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="21"/>
       <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="86" t="str">
+      <c r="H3" s="89" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="86"/>
+      <c r="I3" s="89"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="58.9" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="88" t="str">
+      <c r="G4" s="91" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="88"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2576,104 +2583,104 @@
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="88" t="str">
+      <c r="G5" s="91" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="88"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
     </row>
     <row r="10" spans="1:11" ht="49.15" customHeight="1">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="135" t="str">
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="61" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2682,73 +2689,73 @@
       <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="80" t="str">
+      <c r="C13" s="83" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="57"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="24" t="str">
+      <c r="C14" s="65" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="24" t="str">
+      <c r="E14" s="65" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="57"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="1:11" ht="53.45" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="77" t="str">
+      <c r="C15" s="80" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="57"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:11" ht="43.9" customHeight="1">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="82" t="str">
+      <c r="C16" s="85" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="56"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="55"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="136" t="str">
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="62" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2772,115 +2779,115 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" ht="13.15" customHeight="1">
       <c r="B25" s="7"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
     </row>
     <row r="26" spans="2:8" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="70"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3"/>
-      <c r="C27" s="70" t="s">
+      <c r="C27" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="3"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="3"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="3"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:8">
@@ -2986,1005 +2993,1005 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:I24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="34" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="34" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="34" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17" style="34" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="34" customWidth="1"/>
-    <col min="7" max="7" width="7" style="34" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="34" customWidth="1"/>
-    <col min="10" max="10" width="0.625" style="34" hidden="1" customWidth="1"/>
-    <col min="11" max="257" width="9" style="34"/>
-    <col min="258" max="258" width="11.375" style="34" customWidth="1"/>
-    <col min="259" max="259" width="9.75" style="34" customWidth="1"/>
-    <col min="260" max="260" width="8.125" style="34" customWidth="1"/>
-    <col min="261" max="261" width="12.5" style="34" customWidth="1"/>
-    <col min="262" max="262" width="16.25" style="34" customWidth="1"/>
-    <col min="263" max="263" width="6.125" style="34" customWidth="1"/>
-    <col min="264" max="264" width="9.375" style="34" customWidth="1"/>
-    <col min="265" max="265" width="13.125" style="34" customWidth="1"/>
-    <col min="266" max="513" width="9" style="34"/>
-    <col min="514" max="514" width="11.375" style="34" customWidth="1"/>
-    <col min="515" max="515" width="9.75" style="34" customWidth="1"/>
-    <col min="516" max="516" width="8.125" style="34" customWidth="1"/>
-    <col min="517" max="517" width="12.5" style="34" customWidth="1"/>
-    <col min="518" max="518" width="16.25" style="34" customWidth="1"/>
-    <col min="519" max="519" width="6.125" style="34" customWidth="1"/>
-    <col min="520" max="520" width="9.375" style="34" customWidth="1"/>
-    <col min="521" max="521" width="13.125" style="34" customWidth="1"/>
-    <col min="522" max="769" width="9" style="34"/>
-    <col min="770" max="770" width="11.375" style="34" customWidth="1"/>
-    <col min="771" max="771" width="9.75" style="34" customWidth="1"/>
-    <col min="772" max="772" width="8.125" style="34" customWidth="1"/>
-    <col min="773" max="773" width="12.5" style="34" customWidth="1"/>
-    <col min="774" max="774" width="16.25" style="34" customWidth="1"/>
-    <col min="775" max="775" width="6.125" style="34" customWidth="1"/>
-    <col min="776" max="776" width="9.375" style="34" customWidth="1"/>
-    <col min="777" max="777" width="13.125" style="34" customWidth="1"/>
-    <col min="778" max="1025" width="9" style="34"/>
-    <col min="1026" max="1026" width="11.375" style="34" customWidth="1"/>
-    <col min="1027" max="1027" width="9.75" style="34" customWidth="1"/>
-    <col min="1028" max="1028" width="8.125" style="34" customWidth="1"/>
-    <col min="1029" max="1029" width="12.5" style="34" customWidth="1"/>
-    <col min="1030" max="1030" width="16.25" style="34" customWidth="1"/>
-    <col min="1031" max="1031" width="6.125" style="34" customWidth="1"/>
-    <col min="1032" max="1032" width="9.375" style="34" customWidth="1"/>
-    <col min="1033" max="1033" width="13.125" style="34" customWidth="1"/>
-    <col min="1034" max="1281" width="9" style="34"/>
-    <col min="1282" max="1282" width="11.375" style="34" customWidth="1"/>
-    <col min="1283" max="1283" width="9.75" style="34" customWidth="1"/>
-    <col min="1284" max="1284" width="8.125" style="34" customWidth="1"/>
-    <col min="1285" max="1285" width="12.5" style="34" customWidth="1"/>
-    <col min="1286" max="1286" width="16.25" style="34" customWidth="1"/>
-    <col min="1287" max="1287" width="6.125" style="34" customWidth="1"/>
-    <col min="1288" max="1288" width="9.375" style="34" customWidth="1"/>
-    <col min="1289" max="1289" width="13.125" style="34" customWidth="1"/>
-    <col min="1290" max="1537" width="9" style="34"/>
-    <col min="1538" max="1538" width="11.375" style="34" customWidth="1"/>
-    <col min="1539" max="1539" width="9.75" style="34" customWidth="1"/>
-    <col min="1540" max="1540" width="8.125" style="34" customWidth="1"/>
-    <col min="1541" max="1541" width="12.5" style="34" customWidth="1"/>
-    <col min="1542" max="1542" width="16.25" style="34" customWidth="1"/>
-    <col min="1543" max="1543" width="6.125" style="34" customWidth="1"/>
-    <col min="1544" max="1544" width="9.375" style="34" customWidth="1"/>
-    <col min="1545" max="1545" width="13.125" style="34" customWidth="1"/>
-    <col min="1546" max="1793" width="9" style="34"/>
-    <col min="1794" max="1794" width="11.375" style="34" customWidth="1"/>
-    <col min="1795" max="1795" width="9.75" style="34" customWidth="1"/>
-    <col min="1796" max="1796" width="8.125" style="34" customWidth="1"/>
-    <col min="1797" max="1797" width="12.5" style="34" customWidth="1"/>
-    <col min="1798" max="1798" width="16.25" style="34" customWidth="1"/>
-    <col min="1799" max="1799" width="6.125" style="34" customWidth="1"/>
-    <col min="1800" max="1800" width="9.375" style="34" customWidth="1"/>
-    <col min="1801" max="1801" width="13.125" style="34" customWidth="1"/>
-    <col min="1802" max="2049" width="9" style="34"/>
-    <col min="2050" max="2050" width="11.375" style="34" customWidth="1"/>
-    <col min="2051" max="2051" width="9.75" style="34" customWidth="1"/>
-    <col min="2052" max="2052" width="8.125" style="34" customWidth="1"/>
-    <col min="2053" max="2053" width="12.5" style="34" customWidth="1"/>
-    <col min="2054" max="2054" width="16.25" style="34" customWidth="1"/>
-    <col min="2055" max="2055" width="6.125" style="34" customWidth="1"/>
-    <col min="2056" max="2056" width="9.375" style="34" customWidth="1"/>
-    <col min="2057" max="2057" width="13.125" style="34" customWidth="1"/>
-    <col min="2058" max="2305" width="9" style="34"/>
-    <col min="2306" max="2306" width="11.375" style="34" customWidth="1"/>
-    <col min="2307" max="2307" width="9.75" style="34" customWidth="1"/>
-    <col min="2308" max="2308" width="8.125" style="34" customWidth="1"/>
-    <col min="2309" max="2309" width="12.5" style="34" customWidth="1"/>
-    <col min="2310" max="2310" width="16.25" style="34" customWidth="1"/>
-    <col min="2311" max="2311" width="6.125" style="34" customWidth="1"/>
-    <col min="2312" max="2312" width="9.375" style="34" customWidth="1"/>
-    <col min="2313" max="2313" width="13.125" style="34" customWidth="1"/>
-    <col min="2314" max="2561" width="9" style="34"/>
-    <col min="2562" max="2562" width="11.375" style="34" customWidth="1"/>
-    <col min="2563" max="2563" width="9.75" style="34" customWidth="1"/>
-    <col min="2564" max="2564" width="8.125" style="34" customWidth="1"/>
-    <col min="2565" max="2565" width="12.5" style="34" customWidth="1"/>
-    <col min="2566" max="2566" width="16.25" style="34" customWidth="1"/>
-    <col min="2567" max="2567" width="6.125" style="34" customWidth="1"/>
-    <col min="2568" max="2568" width="9.375" style="34" customWidth="1"/>
-    <col min="2569" max="2569" width="13.125" style="34" customWidth="1"/>
-    <col min="2570" max="2817" width="9" style="34"/>
-    <col min="2818" max="2818" width="11.375" style="34" customWidth="1"/>
-    <col min="2819" max="2819" width="9.75" style="34" customWidth="1"/>
-    <col min="2820" max="2820" width="8.125" style="34" customWidth="1"/>
-    <col min="2821" max="2821" width="12.5" style="34" customWidth="1"/>
-    <col min="2822" max="2822" width="16.25" style="34" customWidth="1"/>
-    <col min="2823" max="2823" width="6.125" style="34" customWidth="1"/>
-    <col min="2824" max="2824" width="9.375" style="34" customWidth="1"/>
-    <col min="2825" max="2825" width="13.125" style="34" customWidth="1"/>
-    <col min="2826" max="3073" width="9" style="34"/>
-    <col min="3074" max="3074" width="11.375" style="34" customWidth="1"/>
-    <col min="3075" max="3075" width="9.75" style="34" customWidth="1"/>
-    <col min="3076" max="3076" width="8.125" style="34" customWidth="1"/>
-    <col min="3077" max="3077" width="12.5" style="34" customWidth="1"/>
-    <col min="3078" max="3078" width="16.25" style="34" customWidth="1"/>
-    <col min="3079" max="3079" width="6.125" style="34" customWidth="1"/>
-    <col min="3080" max="3080" width="9.375" style="34" customWidth="1"/>
-    <col min="3081" max="3081" width="13.125" style="34" customWidth="1"/>
-    <col min="3082" max="3329" width="9" style="34"/>
-    <col min="3330" max="3330" width="11.375" style="34" customWidth="1"/>
-    <col min="3331" max="3331" width="9.75" style="34" customWidth="1"/>
-    <col min="3332" max="3332" width="8.125" style="34" customWidth="1"/>
-    <col min="3333" max="3333" width="12.5" style="34" customWidth="1"/>
-    <col min="3334" max="3334" width="16.25" style="34" customWidth="1"/>
-    <col min="3335" max="3335" width="6.125" style="34" customWidth="1"/>
-    <col min="3336" max="3336" width="9.375" style="34" customWidth="1"/>
-    <col min="3337" max="3337" width="13.125" style="34" customWidth="1"/>
-    <col min="3338" max="3585" width="9" style="34"/>
-    <col min="3586" max="3586" width="11.375" style="34" customWidth="1"/>
-    <col min="3587" max="3587" width="9.75" style="34" customWidth="1"/>
-    <col min="3588" max="3588" width="8.125" style="34" customWidth="1"/>
-    <col min="3589" max="3589" width="12.5" style="34" customWidth="1"/>
-    <col min="3590" max="3590" width="16.25" style="34" customWidth="1"/>
-    <col min="3591" max="3591" width="6.125" style="34" customWidth="1"/>
-    <col min="3592" max="3592" width="9.375" style="34" customWidth="1"/>
-    <col min="3593" max="3593" width="13.125" style="34" customWidth="1"/>
-    <col min="3594" max="3841" width="9" style="34"/>
-    <col min="3842" max="3842" width="11.375" style="34" customWidth="1"/>
-    <col min="3843" max="3843" width="9.75" style="34" customWidth="1"/>
-    <col min="3844" max="3844" width="8.125" style="34" customWidth="1"/>
-    <col min="3845" max="3845" width="12.5" style="34" customWidth="1"/>
-    <col min="3846" max="3846" width="16.25" style="34" customWidth="1"/>
-    <col min="3847" max="3847" width="6.125" style="34" customWidth="1"/>
-    <col min="3848" max="3848" width="9.375" style="34" customWidth="1"/>
-    <col min="3849" max="3849" width="13.125" style="34" customWidth="1"/>
-    <col min="3850" max="4097" width="9" style="34"/>
-    <col min="4098" max="4098" width="11.375" style="34" customWidth="1"/>
-    <col min="4099" max="4099" width="9.75" style="34" customWidth="1"/>
-    <col min="4100" max="4100" width="8.125" style="34" customWidth="1"/>
-    <col min="4101" max="4101" width="12.5" style="34" customWidth="1"/>
-    <col min="4102" max="4102" width="16.25" style="34" customWidth="1"/>
-    <col min="4103" max="4103" width="6.125" style="34" customWidth="1"/>
-    <col min="4104" max="4104" width="9.375" style="34" customWidth="1"/>
-    <col min="4105" max="4105" width="13.125" style="34" customWidth="1"/>
-    <col min="4106" max="4353" width="9" style="34"/>
-    <col min="4354" max="4354" width="11.375" style="34" customWidth="1"/>
-    <col min="4355" max="4355" width="9.75" style="34" customWidth="1"/>
-    <col min="4356" max="4356" width="8.125" style="34" customWidth="1"/>
-    <col min="4357" max="4357" width="12.5" style="34" customWidth="1"/>
-    <col min="4358" max="4358" width="16.25" style="34" customWidth="1"/>
-    <col min="4359" max="4359" width="6.125" style="34" customWidth="1"/>
-    <col min="4360" max="4360" width="9.375" style="34" customWidth="1"/>
-    <col min="4361" max="4361" width="13.125" style="34" customWidth="1"/>
-    <col min="4362" max="4609" width="9" style="34"/>
-    <col min="4610" max="4610" width="11.375" style="34" customWidth="1"/>
-    <col min="4611" max="4611" width="9.75" style="34" customWidth="1"/>
-    <col min="4612" max="4612" width="8.125" style="34" customWidth="1"/>
-    <col min="4613" max="4613" width="12.5" style="34" customWidth="1"/>
-    <col min="4614" max="4614" width="16.25" style="34" customWidth="1"/>
-    <col min="4615" max="4615" width="6.125" style="34" customWidth="1"/>
-    <col min="4616" max="4616" width="9.375" style="34" customWidth="1"/>
-    <col min="4617" max="4617" width="13.125" style="34" customWidth="1"/>
-    <col min="4618" max="4865" width="9" style="34"/>
-    <col min="4866" max="4866" width="11.375" style="34" customWidth="1"/>
-    <col min="4867" max="4867" width="9.75" style="34" customWidth="1"/>
-    <col min="4868" max="4868" width="8.125" style="34" customWidth="1"/>
-    <col min="4869" max="4869" width="12.5" style="34" customWidth="1"/>
-    <col min="4870" max="4870" width="16.25" style="34" customWidth="1"/>
-    <col min="4871" max="4871" width="6.125" style="34" customWidth="1"/>
-    <col min="4872" max="4872" width="9.375" style="34" customWidth="1"/>
-    <col min="4873" max="4873" width="13.125" style="34" customWidth="1"/>
-    <col min="4874" max="5121" width="9" style="34"/>
-    <col min="5122" max="5122" width="11.375" style="34" customWidth="1"/>
-    <col min="5123" max="5123" width="9.75" style="34" customWidth="1"/>
-    <col min="5124" max="5124" width="8.125" style="34" customWidth="1"/>
-    <col min="5125" max="5125" width="12.5" style="34" customWidth="1"/>
-    <col min="5126" max="5126" width="16.25" style="34" customWidth="1"/>
-    <col min="5127" max="5127" width="6.125" style="34" customWidth="1"/>
-    <col min="5128" max="5128" width="9.375" style="34" customWidth="1"/>
-    <col min="5129" max="5129" width="13.125" style="34" customWidth="1"/>
-    <col min="5130" max="5377" width="9" style="34"/>
-    <col min="5378" max="5378" width="11.375" style="34" customWidth="1"/>
-    <col min="5379" max="5379" width="9.75" style="34" customWidth="1"/>
-    <col min="5380" max="5380" width="8.125" style="34" customWidth="1"/>
-    <col min="5381" max="5381" width="12.5" style="34" customWidth="1"/>
-    <col min="5382" max="5382" width="16.25" style="34" customWidth="1"/>
-    <col min="5383" max="5383" width="6.125" style="34" customWidth="1"/>
-    <col min="5384" max="5384" width="9.375" style="34" customWidth="1"/>
-    <col min="5385" max="5385" width="13.125" style="34" customWidth="1"/>
-    <col min="5386" max="5633" width="9" style="34"/>
-    <col min="5634" max="5634" width="11.375" style="34" customWidth="1"/>
-    <col min="5635" max="5635" width="9.75" style="34" customWidth="1"/>
-    <col min="5636" max="5636" width="8.125" style="34" customWidth="1"/>
-    <col min="5637" max="5637" width="12.5" style="34" customWidth="1"/>
-    <col min="5638" max="5638" width="16.25" style="34" customWidth="1"/>
-    <col min="5639" max="5639" width="6.125" style="34" customWidth="1"/>
-    <col min="5640" max="5640" width="9.375" style="34" customWidth="1"/>
-    <col min="5641" max="5641" width="13.125" style="34" customWidth="1"/>
-    <col min="5642" max="5889" width="9" style="34"/>
-    <col min="5890" max="5890" width="11.375" style="34" customWidth="1"/>
-    <col min="5891" max="5891" width="9.75" style="34" customWidth="1"/>
-    <col min="5892" max="5892" width="8.125" style="34" customWidth="1"/>
-    <col min="5893" max="5893" width="12.5" style="34" customWidth="1"/>
-    <col min="5894" max="5894" width="16.25" style="34" customWidth="1"/>
-    <col min="5895" max="5895" width="6.125" style="34" customWidth="1"/>
-    <col min="5896" max="5896" width="9.375" style="34" customWidth="1"/>
-    <col min="5897" max="5897" width="13.125" style="34" customWidth="1"/>
-    <col min="5898" max="6145" width="9" style="34"/>
-    <col min="6146" max="6146" width="11.375" style="34" customWidth="1"/>
-    <col min="6147" max="6147" width="9.75" style="34" customWidth="1"/>
-    <col min="6148" max="6148" width="8.125" style="34" customWidth="1"/>
-    <col min="6149" max="6149" width="12.5" style="34" customWidth="1"/>
-    <col min="6150" max="6150" width="16.25" style="34" customWidth="1"/>
-    <col min="6151" max="6151" width="6.125" style="34" customWidth="1"/>
-    <col min="6152" max="6152" width="9.375" style="34" customWidth="1"/>
-    <col min="6153" max="6153" width="13.125" style="34" customWidth="1"/>
-    <col min="6154" max="6401" width="9" style="34"/>
-    <col min="6402" max="6402" width="11.375" style="34" customWidth="1"/>
-    <col min="6403" max="6403" width="9.75" style="34" customWidth="1"/>
-    <col min="6404" max="6404" width="8.125" style="34" customWidth="1"/>
-    <col min="6405" max="6405" width="12.5" style="34" customWidth="1"/>
-    <col min="6406" max="6406" width="16.25" style="34" customWidth="1"/>
-    <col min="6407" max="6407" width="6.125" style="34" customWidth="1"/>
-    <col min="6408" max="6408" width="9.375" style="34" customWidth="1"/>
-    <col min="6409" max="6409" width="13.125" style="34" customWidth="1"/>
-    <col min="6410" max="6657" width="9" style="34"/>
-    <col min="6658" max="6658" width="11.375" style="34" customWidth="1"/>
-    <col min="6659" max="6659" width="9.75" style="34" customWidth="1"/>
-    <col min="6660" max="6660" width="8.125" style="34" customWidth="1"/>
-    <col min="6661" max="6661" width="12.5" style="34" customWidth="1"/>
-    <col min="6662" max="6662" width="16.25" style="34" customWidth="1"/>
-    <col min="6663" max="6663" width="6.125" style="34" customWidth="1"/>
-    <col min="6664" max="6664" width="9.375" style="34" customWidth="1"/>
-    <col min="6665" max="6665" width="13.125" style="34" customWidth="1"/>
-    <col min="6666" max="6913" width="9" style="34"/>
-    <col min="6914" max="6914" width="11.375" style="34" customWidth="1"/>
-    <col min="6915" max="6915" width="9.75" style="34" customWidth="1"/>
-    <col min="6916" max="6916" width="8.125" style="34" customWidth="1"/>
-    <col min="6917" max="6917" width="12.5" style="34" customWidth="1"/>
-    <col min="6918" max="6918" width="16.25" style="34" customWidth="1"/>
-    <col min="6919" max="6919" width="6.125" style="34" customWidth="1"/>
-    <col min="6920" max="6920" width="9.375" style="34" customWidth="1"/>
-    <col min="6921" max="6921" width="13.125" style="34" customWidth="1"/>
-    <col min="6922" max="7169" width="9" style="34"/>
-    <col min="7170" max="7170" width="11.375" style="34" customWidth="1"/>
-    <col min="7171" max="7171" width="9.75" style="34" customWidth="1"/>
-    <col min="7172" max="7172" width="8.125" style="34" customWidth="1"/>
-    <col min="7173" max="7173" width="12.5" style="34" customWidth="1"/>
-    <col min="7174" max="7174" width="16.25" style="34" customWidth="1"/>
-    <col min="7175" max="7175" width="6.125" style="34" customWidth="1"/>
-    <col min="7176" max="7176" width="9.375" style="34" customWidth="1"/>
-    <col min="7177" max="7177" width="13.125" style="34" customWidth="1"/>
-    <col min="7178" max="7425" width="9" style="34"/>
-    <col min="7426" max="7426" width="11.375" style="34" customWidth="1"/>
-    <col min="7427" max="7427" width="9.75" style="34" customWidth="1"/>
-    <col min="7428" max="7428" width="8.125" style="34" customWidth="1"/>
-    <col min="7429" max="7429" width="12.5" style="34" customWidth="1"/>
-    <col min="7430" max="7430" width="16.25" style="34" customWidth="1"/>
-    <col min="7431" max="7431" width="6.125" style="34" customWidth="1"/>
-    <col min="7432" max="7432" width="9.375" style="34" customWidth="1"/>
-    <col min="7433" max="7433" width="13.125" style="34" customWidth="1"/>
-    <col min="7434" max="7681" width="9" style="34"/>
-    <col min="7682" max="7682" width="11.375" style="34" customWidth="1"/>
-    <col min="7683" max="7683" width="9.75" style="34" customWidth="1"/>
-    <col min="7684" max="7684" width="8.125" style="34" customWidth="1"/>
-    <col min="7685" max="7685" width="12.5" style="34" customWidth="1"/>
-    <col min="7686" max="7686" width="16.25" style="34" customWidth="1"/>
-    <col min="7687" max="7687" width="6.125" style="34" customWidth="1"/>
-    <col min="7688" max="7688" width="9.375" style="34" customWidth="1"/>
-    <col min="7689" max="7689" width="13.125" style="34" customWidth="1"/>
-    <col min="7690" max="7937" width="9" style="34"/>
-    <col min="7938" max="7938" width="11.375" style="34" customWidth="1"/>
-    <col min="7939" max="7939" width="9.75" style="34" customWidth="1"/>
-    <col min="7940" max="7940" width="8.125" style="34" customWidth="1"/>
-    <col min="7941" max="7941" width="12.5" style="34" customWidth="1"/>
-    <col min="7942" max="7942" width="16.25" style="34" customWidth="1"/>
-    <col min="7943" max="7943" width="6.125" style="34" customWidth="1"/>
-    <col min="7944" max="7944" width="9.375" style="34" customWidth="1"/>
-    <col min="7945" max="7945" width="13.125" style="34" customWidth="1"/>
-    <col min="7946" max="8193" width="9" style="34"/>
-    <col min="8194" max="8194" width="11.375" style="34" customWidth="1"/>
-    <col min="8195" max="8195" width="9.75" style="34" customWidth="1"/>
-    <col min="8196" max="8196" width="8.125" style="34" customWidth="1"/>
-    <col min="8197" max="8197" width="12.5" style="34" customWidth="1"/>
-    <col min="8198" max="8198" width="16.25" style="34" customWidth="1"/>
-    <col min="8199" max="8199" width="6.125" style="34" customWidth="1"/>
-    <col min="8200" max="8200" width="9.375" style="34" customWidth="1"/>
-    <col min="8201" max="8201" width="13.125" style="34" customWidth="1"/>
-    <col min="8202" max="8449" width="9" style="34"/>
-    <col min="8450" max="8450" width="11.375" style="34" customWidth="1"/>
-    <col min="8451" max="8451" width="9.75" style="34" customWidth="1"/>
-    <col min="8452" max="8452" width="8.125" style="34" customWidth="1"/>
-    <col min="8453" max="8453" width="12.5" style="34" customWidth="1"/>
-    <col min="8454" max="8454" width="16.25" style="34" customWidth="1"/>
-    <col min="8455" max="8455" width="6.125" style="34" customWidth="1"/>
-    <col min="8456" max="8456" width="9.375" style="34" customWidth="1"/>
-    <col min="8457" max="8457" width="13.125" style="34" customWidth="1"/>
-    <col min="8458" max="8705" width="9" style="34"/>
-    <col min="8706" max="8706" width="11.375" style="34" customWidth="1"/>
-    <col min="8707" max="8707" width="9.75" style="34" customWidth="1"/>
-    <col min="8708" max="8708" width="8.125" style="34" customWidth="1"/>
-    <col min="8709" max="8709" width="12.5" style="34" customWidth="1"/>
-    <col min="8710" max="8710" width="16.25" style="34" customWidth="1"/>
-    <col min="8711" max="8711" width="6.125" style="34" customWidth="1"/>
-    <col min="8712" max="8712" width="9.375" style="34" customWidth="1"/>
-    <col min="8713" max="8713" width="13.125" style="34" customWidth="1"/>
-    <col min="8714" max="8961" width="9" style="34"/>
-    <col min="8962" max="8962" width="11.375" style="34" customWidth="1"/>
-    <col min="8963" max="8963" width="9.75" style="34" customWidth="1"/>
-    <col min="8964" max="8964" width="8.125" style="34" customWidth="1"/>
-    <col min="8965" max="8965" width="12.5" style="34" customWidth="1"/>
-    <col min="8966" max="8966" width="16.25" style="34" customWidth="1"/>
-    <col min="8967" max="8967" width="6.125" style="34" customWidth="1"/>
-    <col min="8968" max="8968" width="9.375" style="34" customWidth="1"/>
-    <col min="8969" max="8969" width="13.125" style="34" customWidth="1"/>
-    <col min="8970" max="9217" width="9" style="34"/>
-    <col min="9218" max="9218" width="11.375" style="34" customWidth="1"/>
-    <col min="9219" max="9219" width="9.75" style="34" customWidth="1"/>
-    <col min="9220" max="9220" width="8.125" style="34" customWidth="1"/>
-    <col min="9221" max="9221" width="12.5" style="34" customWidth="1"/>
-    <col min="9222" max="9222" width="16.25" style="34" customWidth="1"/>
-    <col min="9223" max="9223" width="6.125" style="34" customWidth="1"/>
-    <col min="9224" max="9224" width="9.375" style="34" customWidth="1"/>
-    <col min="9225" max="9225" width="13.125" style="34" customWidth="1"/>
-    <col min="9226" max="9473" width="9" style="34"/>
-    <col min="9474" max="9474" width="11.375" style="34" customWidth="1"/>
-    <col min="9475" max="9475" width="9.75" style="34" customWidth="1"/>
-    <col min="9476" max="9476" width="8.125" style="34" customWidth="1"/>
-    <col min="9477" max="9477" width="12.5" style="34" customWidth="1"/>
-    <col min="9478" max="9478" width="16.25" style="34" customWidth="1"/>
-    <col min="9479" max="9479" width="6.125" style="34" customWidth="1"/>
-    <col min="9480" max="9480" width="9.375" style="34" customWidth="1"/>
-    <col min="9481" max="9481" width="13.125" style="34" customWidth="1"/>
-    <col min="9482" max="9729" width="9" style="34"/>
-    <col min="9730" max="9730" width="11.375" style="34" customWidth="1"/>
-    <col min="9731" max="9731" width="9.75" style="34" customWidth="1"/>
-    <col min="9732" max="9732" width="8.125" style="34" customWidth="1"/>
-    <col min="9733" max="9733" width="12.5" style="34" customWidth="1"/>
-    <col min="9734" max="9734" width="16.25" style="34" customWidth="1"/>
-    <col min="9735" max="9735" width="6.125" style="34" customWidth="1"/>
-    <col min="9736" max="9736" width="9.375" style="34" customWidth="1"/>
-    <col min="9737" max="9737" width="13.125" style="34" customWidth="1"/>
-    <col min="9738" max="9985" width="9" style="34"/>
-    <col min="9986" max="9986" width="11.375" style="34" customWidth="1"/>
-    <col min="9987" max="9987" width="9.75" style="34" customWidth="1"/>
-    <col min="9988" max="9988" width="8.125" style="34" customWidth="1"/>
-    <col min="9989" max="9989" width="12.5" style="34" customWidth="1"/>
-    <col min="9990" max="9990" width="16.25" style="34" customWidth="1"/>
-    <col min="9991" max="9991" width="6.125" style="34" customWidth="1"/>
-    <col min="9992" max="9992" width="9.375" style="34" customWidth="1"/>
-    <col min="9993" max="9993" width="13.125" style="34" customWidth="1"/>
-    <col min="9994" max="10241" width="9" style="34"/>
-    <col min="10242" max="10242" width="11.375" style="34" customWidth="1"/>
-    <col min="10243" max="10243" width="9.75" style="34" customWidth="1"/>
-    <col min="10244" max="10244" width="8.125" style="34" customWidth="1"/>
-    <col min="10245" max="10245" width="12.5" style="34" customWidth="1"/>
-    <col min="10246" max="10246" width="16.25" style="34" customWidth="1"/>
-    <col min="10247" max="10247" width="6.125" style="34" customWidth="1"/>
-    <col min="10248" max="10248" width="9.375" style="34" customWidth="1"/>
-    <col min="10249" max="10249" width="13.125" style="34" customWidth="1"/>
-    <col min="10250" max="10497" width="9" style="34"/>
-    <col min="10498" max="10498" width="11.375" style="34" customWidth="1"/>
-    <col min="10499" max="10499" width="9.75" style="34" customWidth="1"/>
-    <col min="10500" max="10500" width="8.125" style="34" customWidth="1"/>
-    <col min="10501" max="10501" width="12.5" style="34" customWidth="1"/>
-    <col min="10502" max="10502" width="16.25" style="34" customWidth="1"/>
-    <col min="10503" max="10503" width="6.125" style="34" customWidth="1"/>
-    <col min="10504" max="10504" width="9.375" style="34" customWidth="1"/>
-    <col min="10505" max="10505" width="13.125" style="34" customWidth="1"/>
-    <col min="10506" max="10753" width="9" style="34"/>
-    <col min="10754" max="10754" width="11.375" style="34" customWidth="1"/>
-    <col min="10755" max="10755" width="9.75" style="34" customWidth="1"/>
-    <col min="10756" max="10756" width="8.125" style="34" customWidth="1"/>
-    <col min="10757" max="10757" width="12.5" style="34" customWidth="1"/>
-    <col min="10758" max="10758" width="16.25" style="34" customWidth="1"/>
-    <col min="10759" max="10759" width="6.125" style="34" customWidth="1"/>
-    <col min="10760" max="10760" width="9.375" style="34" customWidth="1"/>
-    <col min="10761" max="10761" width="13.125" style="34" customWidth="1"/>
-    <col min="10762" max="11009" width="9" style="34"/>
-    <col min="11010" max="11010" width="11.375" style="34" customWidth="1"/>
-    <col min="11011" max="11011" width="9.75" style="34" customWidth="1"/>
-    <col min="11012" max="11012" width="8.125" style="34" customWidth="1"/>
-    <col min="11013" max="11013" width="12.5" style="34" customWidth="1"/>
-    <col min="11014" max="11014" width="16.25" style="34" customWidth="1"/>
-    <col min="11015" max="11015" width="6.125" style="34" customWidth="1"/>
-    <col min="11016" max="11016" width="9.375" style="34" customWidth="1"/>
-    <col min="11017" max="11017" width="13.125" style="34" customWidth="1"/>
-    <col min="11018" max="11265" width="9" style="34"/>
-    <col min="11266" max="11266" width="11.375" style="34" customWidth="1"/>
-    <col min="11267" max="11267" width="9.75" style="34" customWidth="1"/>
-    <col min="11268" max="11268" width="8.125" style="34" customWidth="1"/>
-    <col min="11269" max="11269" width="12.5" style="34" customWidth="1"/>
-    <col min="11270" max="11270" width="16.25" style="34" customWidth="1"/>
-    <col min="11271" max="11271" width="6.125" style="34" customWidth="1"/>
-    <col min="11272" max="11272" width="9.375" style="34" customWidth="1"/>
-    <col min="11273" max="11273" width="13.125" style="34" customWidth="1"/>
-    <col min="11274" max="11521" width="9" style="34"/>
-    <col min="11522" max="11522" width="11.375" style="34" customWidth="1"/>
-    <col min="11523" max="11523" width="9.75" style="34" customWidth="1"/>
-    <col min="11524" max="11524" width="8.125" style="34" customWidth="1"/>
-    <col min="11525" max="11525" width="12.5" style="34" customWidth="1"/>
-    <col min="11526" max="11526" width="16.25" style="34" customWidth="1"/>
-    <col min="11527" max="11527" width="6.125" style="34" customWidth="1"/>
-    <col min="11528" max="11528" width="9.375" style="34" customWidth="1"/>
-    <col min="11529" max="11529" width="13.125" style="34" customWidth="1"/>
-    <col min="11530" max="11777" width="9" style="34"/>
-    <col min="11778" max="11778" width="11.375" style="34" customWidth="1"/>
-    <col min="11779" max="11779" width="9.75" style="34" customWidth="1"/>
-    <col min="11780" max="11780" width="8.125" style="34" customWidth="1"/>
-    <col min="11781" max="11781" width="12.5" style="34" customWidth="1"/>
-    <col min="11782" max="11782" width="16.25" style="34" customWidth="1"/>
-    <col min="11783" max="11783" width="6.125" style="34" customWidth="1"/>
-    <col min="11784" max="11784" width="9.375" style="34" customWidth="1"/>
-    <col min="11785" max="11785" width="13.125" style="34" customWidth="1"/>
-    <col min="11786" max="12033" width="9" style="34"/>
-    <col min="12034" max="12034" width="11.375" style="34" customWidth="1"/>
-    <col min="12035" max="12035" width="9.75" style="34" customWidth="1"/>
-    <col min="12036" max="12036" width="8.125" style="34" customWidth="1"/>
-    <col min="12037" max="12037" width="12.5" style="34" customWidth="1"/>
-    <col min="12038" max="12038" width="16.25" style="34" customWidth="1"/>
-    <col min="12039" max="12039" width="6.125" style="34" customWidth="1"/>
-    <col min="12040" max="12040" width="9.375" style="34" customWidth="1"/>
-    <col min="12041" max="12041" width="13.125" style="34" customWidth="1"/>
-    <col min="12042" max="12289" width="9" style="34"/>
-    <col min="12290" max="12290" width="11.375" style="34" customWidth="1"/>
-    <col min="12291" max="12291" width="9.75" style="34" customWidth="1"/>
-    <col min="12292" max="12292" width="8.125" style="34" customWidth="1"/>
-    <col min="12293" max="12293" width="12.5" style="34" customWidth="1"/>
-    <col min="12294" max="12294" width="16.25" style="34" customWidth="1"/>
-    <col min="12295" max="12295" width="6.125" style="34" customWidth="1"/>
-    <col min="12296" max="12296" width="9.375" style="34" customWidth="1"/>
-    <col min="12297" max="12297" width="13.125" style="34" customWidth="1"/>
-    <col min="12298" max="12545" width="9" style="34"/>
-    <col min="12546" max="12546" width="11.375" style="34" customWidth="1"/>
-    <col min="12547" max="12547" width="9.75" style="34" customWidth="1"/>
-    <col min="12548" max="12548" width="8.125" style="34" customWidth="1"/>
-    <col min="12549" max="12549" width="12.5" style="34" customWidth="1"/>
-    <col min="12550" max="12550" width="16.25" style="34" customWidth="1"/>
-    <col min="12551" max="12551" width="6.125" style="34" customWidth="1"/>
-    <col min="12552" max="12552" width="9.375" style="34" customWidth="1"/>
-    <col min="12553" max="12553" width="13.125" style="34" customWidth="1"/>
-    <col min="12554" max="12801" width="9" style="34"/>
-    <col min="12802" max="12802" width="11.375" style="34" customWidth="1"/>
-    <col min="12803" max="12803" width="9.75" style="34" customWidth="1"/>
-    <col min="12804" max="12804" width="8.125" style="34" customWidth="1"/>
-    <col min="12805" max="12805" width="12.5" style="34" customWidth="1"/>
-    <col min="12806" max="12806" width="16.25" style="34" customWidth="1"/>
-    <col min="12807" max="12807" width="6.125" style="34" customWidth="1"/>
-    <col min="12808" max="12808" width="9.375" style="34" customWidth="1"/>
-    <col min="12809" max="12809" width="13.125" style="34" customWidth="1"/>
-    <col min="12810" max="13057" width="9" style="34"/>
-    <col min="13058" max="13058" width="11.375" style="34" customWidth="1"/>
-    <col min="13059" max="13059" width="9.75" style="34" customWidth="1"/>
-    <col min="13060" max="13060" width="8.125" style="34" customWidth="1"/>
-    <col min="13061" max="13061" width="12.5" style="34" customWidth="1"/>
-    <col min="13062" max="13062" width="16.25" style="34" customWidth="1"/>
-    <col min="13063" max="13063" width="6.125" style="34" customWidth="1"/>
-    <col min="13064" max="13064" width="9.375" style="34" customWidth="1"/>
-    <col min="13065" max="13065" width="13.125" style="34" customWidth="1"/>
-    <col min="13066" max="13313" width="9" style="34"/>
-    <col min="13314" max="13314" width="11.375" style="34" customWidth="1"/>
-    <col min="13315" max="13315" width="9.75" style="34" customWidth="1"/>
-    <col min="13316" max="13316" width="8.125" style="34" customWidth="1"/>
-    <col min="13317" max="13317" width="12.5" style="34" customWidth="1"/>
-    <col min="13318" max="13318" width="16.25" style="34" customWidth="1"/>
-    <col min="13319" max="13319" width="6.125" style="34" customWidth="1"/>
-    <col min="13320" max="13320" width="9.375" style="34" customWidth="1"/>
-    <col min="13321" max="13321" width="13.125" style="34" customWidth="1"/>
-    <col min="13322" max="13569" width="9" style="34"/>
-    <col min="13570" max="13570" width="11.375" style="34" customWidth="1"/>
-    <col min="13571" max="13571" width="9.75" style="34" customWidth="1"/>
-    <col min="13572" max="13572" width="8.125" style="34" customWidth="1"/>
-    <col min="13573" max="13573" width="12.5" style="34" customWidth="1"/>
-    <col min="13574" max="13574" width="16.25" style="34" customWidth="1"/>
-    <col min="13575" max="13575" width="6.125" style="34" customWidth="1"/>
-    <col min="13576" max="13576" width="9.375" style="34" customWidth="1"/>
-    <col min="13577" max="13577" width="13.125" style="34" customWidth="1"/>
-    <col min="13578" max="13825" width="9" style="34"/>
-    <col min="13826" max="13826" width="11.375" style="34" customWidth="1"/>
-    <col min="13827" max="13827" width="9.75" style="34" customWidth="1"/>
-    <col min="13828" max="13828" width="8.125" style="34" customWidth="1"/>
-    <col min="13829" max="13829" width="12.5" style="34" customWidth="1"/>
-    <col min="13830" max="13830" width="16.25" style="34" customWidth="1"/>
-    <col min="13831" max="13831" width="6.125" style="34" customWidth="1"/>
-    <col min="13832" max="13832" width="9.375" style="34" customWidth="1"/>
-    <col min="13833" max="13833" width="13.125" style="34" customWidth="1"/>
-    <col min="13834" max="14081" width="9" style="34"/>
-    <col min="14082" max="14082" width="11.375" style="34" customWidth="1"/>
-    <col min="14083" max="14083" width="9.75" style="34" customWidth="1"/>
-    <col min="14084" max="14084" width="8.125" style="34" customWidth="1"/>
-    <col min="14085" max="14085" width="12.5" style="34" customWidth="1"/>
-    <col min="14086" max="14086" width="16.25" style="34" customWidth="1"/>
-    <col min="14087" max="14087" width="6.125" style="34" customWidth="1"/>
-    <col min="14088" max="14088" width="9.375" style="34" customWidth="1"/>
-    <col min="14089" max="14089" width="13.125" style="34" customWidth="1"/>
-    <col min="14090" max="14337" width="9" style="34"/>
-    <col min="14338" max="14338" width="11.375" style="34" customWidth="1"/>
-    <col min="14339" max="14339" width="9.75" style="34" customWidth="1"/>
-    <col min="14340" max="14340" width="8.125" style="34" customWidth="1"/>
-    <col min="14341" max="14341" width="12.5" style="34" customWidth="1"/>
-    <col min="14342" max="14342" width="16.25" style="34" customWidth="1"/>
-    <col min="14343" max="14343" width="6.125" style="34" customWidth="1"/>
-    <col min="14344" max="14344" width="9.375" style="34" customWidth="1"/>
-    <col min="14345" max="14345" width="13.125" style="34" customWidth="1"/>
-    <col min="14346" max="14593" width="9" style="34"/>
-    <col min="14594" max="14594" width="11.375" style="34" customWidth="1"/>
-    <col min="14595" max="14595" width="9.75" style="34" customWidth="1"/>
-    <col min="14596" max="14596" width="8.125" style="34" customWidth="1"/>
-    <col min="14597" max="14597" width="12.5" style="34" customWidth="1"/>
-    <col min="14598" max="14598" width="16.25" style="34" customWidth="1"/>
-    <col min="14599" max="14599" width="6.125" style="34" customWidth="1"/>
-    <col min="14600" max="14600" width="9.375" style="34" customWidth="1"/>
-    <col min="14601" max="14601" width="13.125" style="34" customWidth="1"/>
-    <col min="14602" max="14849" width="9" style="34"/>
-    <col min="14850" max="14850" width="11.375" style="34" customWidth="1"/>
-    <col min="14851" max="14851" width="9.75" style="34" customWidth="1"/>
-    <col min="14852" max="14852" width="8.125" style="34" customWidth="1"/>
-    <col min="14853" max="14853" width="12.5" style="34" customWidth="1"/>
-    <col min="14854" max="14854" width="16.25" style="34" customWidth="1"/>
-    <col min="14855" max="14855" width="6.125" style="34" customWidth="1"/>
-    <col min="14856" max="14856" width="9.375" style="34" customWidth="1"/>
-    <col min="14857" max="14857" width="13.125" style="34" customWidth="1"/>
-    <col min="14858" max="15105" width="9" style="34"/>
-    <col min="15106" max="15106" width="11.375" style="34" customWidth="1"/>
-    <col min="15107" max="15107" width="9.75" style="34" customWidth="1"/>
-    <col min="15108" max="15108" width="8.125" style="34" customWidth="1"/>
-    <col min="15109" max="15109" width="12.5" style="34" customWidth="1"/>
-    <col min="15110" max="15110" width="16.25" style="34" customWidth="1"/>
-    <col min="15111" max="15111" width="6.125" style="34" customWidth="1"/>
-    <col min="15112" max="15112" width="9.375" style="34" customWidth="1"/>
-    <col min="15113" max="15113" width="13.125" style="34" customWidth="1"/>
-    <col min="15114" max="15361" width="9" style="34"/>
-    <col min="15362" max="15362" width="11.375" style="34" customWidth="1"/>
-    <col min="15363" max="15363" width="9.75" style="34" customWidth="1"/>
-    <col min="15364" max="15364" width="8.125" style="34" customWidth="1"/>
-    <col min="15365" max="15365" width="12.5" style="34" customWidth="1"/>
-    <col min="15366" max="15366" width="16.25" style="34" customWidth="1"/>
-    <col min="15367" max="15367" width="6.125" style="34" customWidth="1"/>
-    <col min="15368" max="15368" width="9.375" style="34" customWidth="1"/>
-    <col min="15369" max="15369" width="13.125" style="34" customWidth="1"/>
-    <col min="15370" max="15617" width="9" style="34"/>
-    <col min="15618" max="15618" width="11.375" style="34" customWidth="1"/>
-    <col min="15619" max="15619" width="9.75" style="34" customWidth="1"/>
-    <col min="15620" max="15620" width="8.125" style="34" customWidth="1"/>
-    <col min="15621" max="15621" width="12.5" style="34" customWidth="1"/>
-    <col min="15622" max="15622" width="16.25" style="34" customWidth="1"/>
-    <col min="15623" max="15623" width="6.125" style="34" customWidth="1"/>
-    <col min="15624" max="15624" width="9.375" style="34" customWidth="1"/>
-    <col min="15625" max="15625" width="13.125" style="34" customWidth="1"/>
-    <col min="15626" max="15873" width="9" style="34"/>
-    <col min="15874" max="15874" width="11.375" style="34" customWidth="1"/>
-    <col min="15875" max="15875" width="9.75" style="34" customWidth="1"/>
-    <col min="15876" max="15876" width="8.125" style="34" customWidth="1"/>
-    <col min="15877" max="15877" width="12.5" style="34" customWidth="1"/>
-    <col min="15878" max="15878" width="16.25" style="34" customWidth="1"/>
-    <col min="15879" max="15879" width="6.125" style="34" customWidth="1"/>
-    <col min="15880" max="15880" width="9.375" style="34" customWidth="1"/>
-    <col min="15881" max="15881" width="13.125" style="34" customWidth="1"/>
-    <col min="15882" max="16129" width="9" style="34"/>
-    <col min="16130" max="16130" width="11.375" style="34" customWidth="1"/>
-    <col min="16131" max="16131" width="9.75" style="34" customWidth="1"/>
-    <col min="16132" max="16132" width="8.125" style="34" customWidth="1"/>
-    <col min="16133" max="16133" width="12.5" style="34" customWidth="1"/>
-    <col min="16134" max="16134" width="16.25" style="34" customWidth="1"/>
-    <col min="16135" max="16135" width="6.125" style="34" customWidth="1"/>
-    <col min="16136" max="16136" width="9.375" style="34" customWidth="1"/>
-    <col min="16137" max="16137" width="13.125" style="34" customWidth="1"/>
-    <col min="16138" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="2" style="33" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="33" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="33" customWidth="1"/>
+    <col min="5" max="5" width="17" style="33" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="33" customWidth="1"/>
+    <col min="7" max="7" width="7" style="33" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="0.625" style="33" hidden="1" customWidth="1"/>
+    <col min="11" max="257" width="9" style="33"/>
+    <col min="258" max="258" width="11.375" style="33" customWidth="1"/>
+    <col min="259" max="259" width="9.75" style="33" customWidth="1"/>
+    <col min="260" max="260" width="8.125" style="33" customWidth="1"/>
+    <col min="261" max="261" width="12.5" style="33" customWidth="1"/>
+    <col min="262" max="262" width="16.25" style="33" customWidth="1"/>
+    <col min="263" max="263" width="6.125" style="33" customWidth="1"/>
+    <col min="264" max="264" width="9.375" style="33" customWidth="1"/>
+    <col min="265" max="265" width="13.125" style="33" customWidth="1"/>
+    <col min="266" max="513" width="9" style="33"/>
+    <col min="514" max="514" width="11.375" style="33" customWidth="1"/>
+    <col min="515" max="515" width="9.75" style="33" customWidth="1"/>
+    <col min="516" max="516" width="8.125" style="33" customWidth="1"/>
+    <col min="517" max="517" width="12.5" style="33" customWidth="1"/>
+    <col min="518" max="518" width="16.25" style="33" customWidth="1"/>
+    <col min="519" max="519" width="6.125" style="33" customWidth="1"/>
+    <col min="520" max="520" width="9.375" style="33" customWidth="1"/>
+    <col min="521" max="521" width="13.125" style="33" customWidth="1"/>
+    <col min="522" max="769" width="9" style="33"/>
+    <col min="770" max="770" width="11.375" style="33" customWidth="1"/>
+    <col min="771" max="771" width="9.75" style="33" customWidth="1"/>
+    <col min="772" max="772" width="8.125" style="33" customWidth="1"/>
+    <col min="773" max="773" width="12.5" style="33" customWidth="1"/>
+    <col min="774" max="774" width="16.25" style="33" customWidth="1"/>
+    <col min="775" max="775" width="6.125" style="33" customWidth="1"/>
+    <col min="776" max="776" width="9.375" style="33" customWidth="1"/>
+    <col min="777" max="777" width="13.125" style="33" customWidth="1"/>
+    <col min="778" max="1025" width="9" style="33"/>
+    <col min="1026" max="1026" width="11.375" style="33" customWidth="1"/>
+    <col min="1027" max="1027" width="9.75" style="33" customWidth="1"/>
+    <col min="1028" max="1028" width="8.125" style="33" customWidth="1"/>
+    <col min="1029" max="1029" width="12.5" style="33" customWidth="1"/>
+    <col min="1030" max="1030" width="16.25" style="33" customWidth="1"/>
+    <col min="1031" max="1031" width="6.125" style="33" customWidth="1"/>
+    <col min="1032" max="1032" width="9.375" style="33" customWidth="1"/>
+    <col min="1033" max="1033" width="13.125" style="33" customWidth="1"/>
+    <col min="1034" max="1281" width="9" style="33"/>
+    <col min="1282" max="1282" width="11.375" style="33" customWidth="1"/>
+    <col min="1283" max="1283" width="9.75" style="33" customWidth="1"/>
+    <col min="1284" max="1284" width="8.125" style="33" customWidth="1"/>
+    <col min="1285" max="1285" width="12.5" style="33" customWidth="1"/>
+    <col min="1286" max="1286" width="16.25" style="33" customWidth="1"/>
+    <col min="1287" max="1287" width="6.125" style="33" customWidth="1"/>
+    <col min="1288" max="1288" width="9.375" style="33" customWidth="1"/>
+    <col min="1289" max="1289" width="13.125" style="33" customWidth="1"/>
+    <col min="1290" max="1537" width="9" style="33"/>
+    <col min="1538" max="1538" width="11.375" style="33" customWidth="1"/>
+    <col min="1539" max="1539" width="9.75" style="33" customWidth="1"/>
+    <col min="1540" max="1540" width="8.125" style="33" customWidth="1"/>
+    <col min="1541" max="1541" width="12.5" style="33" customWidth="1"/>
+    <col min="1542" max="1542" width="16.25" style="33" customWidth="1"/>
+    <col min="1543" max="1543" width="6.125" style="33" customWidth="1"/>
+    <col min="1544" max="1544" width="9.375" style="33" customWidth="1"/>
+    <col min="1545" max="1545" width="13.125" style="33" customWidth="1"/>
+    <col min="1546" max="1793" width="9" style="33"/>
+    <col min="1794" max="1794" width="11.375" style="33" customWidth="1"/>
+    <col min="1795" max="1795" width="9.75" style="33" customWidth="1"/>
+    <col min="1796" max="1796" width="8.125" style="33" customWidth="1"/>
+    <col min="1797" max="1797" width="12.5" style="33" customWidth="1"/>
+    <col min="1798" max="1798" width="16.25" style="33" customWidth="1"/>
+    <col min="1799" max="1799" width="6.125" style="33" customWidth="1"/>
+    <col min="1800" max="1800" width="9.375" style="33" customWidth="1"/>
+    <col min="1801" max="1801" width="13.125" style="33" customWidth="1"/>
+    <col min="1802" max="2049" width="9" style="33"/>
+    <col min="2050" max="2050" width="11.375" style="33" customWidth="1"/>
+    <col min="2051" max="2051" width="9.75" style="33" customWidth="1"/>
+    <col min="2052" max="2052" width="8.125" style="33" customWidth="1"/>
+    <col min="2053" max="2053" width="12.5" style="33" customWidth="1"/>
+    <col min="2054" max="2054" width="16.25" style="33" customWidth="1"/>
+    <col min="2055" max="2055" width="6.125" style="33" customWidth="1"/>
+    <col min="2056" max="2056" width="9.375" style="33" customWidth="1"/>
+    <col min="2057" max="2057" width="13.125" style="33" customWidth="1"/>
+    <col min="2058" max="2305" width="9" style="33"/>
+    <col min="2306" max="2306" width="11.375" style="33" customWidth="1"/>
+    <col min="2307" max="2307" width="9.75" style="33" customWidth="1"/>
+    <col min="2308" max="2308" width="8.125" style="33" customWidth="1"/>
+    <col min="2309" max="2309" width="12.5" style="33" customWidth="1"/>
+    <col min="2310" max="2310" width="16.25" style="33" customWidth="1"/>
+    <col min="2311" max="2311" width="6.125" style="33" customWidth="1"/>
+    <col min="2312" max="2312" width="9.375" style="33" customWidth="1"/>
+    <col min="2313" max="2313" width="13.125" style="33" customWidth="1"/>
+    <col min="2314" max="2561" width="9" style="33"/>
+    <col min="2562" max="2562" width="11.375" style="33" customWidth="1"/>
+    <col min="2563" max="2563" width="9.75" style="33" customWidth="1"/>
+    <col min="2564" max="2564" width="8.125" style="33" customWidth="1"/>
+    <col min="2565" max="2565" width="12.5" style="33" customWidth="1"/>
+    <col min="2566" max="2566" width="16.25" style="33" customWidth="1"/>
+    <col min="2567" max="2567" width="6.125" style="33" customWidth="1"/>
+    <col min="2568" max="2568" width="9.375" style="33" customWidth="1"/>
+    <col min="2569" max="2569" width="13.125" style="33" customWidth="1"/>
+    <col min="2570" max="2817" width="9" style="33"/>
+    <col min="2818" max="2818" width="11.375" style="33" customWidth="1"/>
+    <col min="2819" max="2819" width="9.75" style="33" customWidth="1"/>
+    <col min="2820" max="2820" width="8.125" style="33" customWidth="1"/>
+    <col min="2821" max="2821" width="12.5" style="33" customWidth="1"/>
+    <col min="2822" max="2822" width="16.25" style="33" customWidth="1"/>
+    <col min="2823" max="2823" width="6.125" style="33" customWidth="1"/>
+    <col min="2824" max="2824" width="9.375" style="33" customWidth="1"/>
+    <col min="2825" max="2825" width="13.125" style="33" customWidth="1"/>
+    <col min="2826" max="3073" width="9" style="33"/>
+    <col min="3074" max="3074" width="11.375" style="33" customWidth="1"/>
+    <col min="3075" max="3075" width="9.75" style="33" customWidth="1"/>
+    <col min="3076" max="3076" width="8.125" style="33" customWidth="1"/>
+    <col min="3077" max="3077" width="12.5" style="33" customWidth="1"/>
+    <col min="3078" max="3078" width="16.25" style="33" customWidth="1"/>
+    <col min="3079" max="3079" width="6.125" style="33" customWidth="1"/>
+    <col min="3080" max="3080" width="9.375" style="33" customWidth="1"/>
+    <col min="3081" max="3081" width="13.125" style="33" customWidth="1"/>
+    <col min="3082" max="3329" width="9" style="33"/>
+    <col min="3330" max="3330" width="11.375" style="33" customWidth="1"/>
+    <col min="3331" max="3331" width="9.75" style="33" customWidth="1"/>
+    <col min="3332" max="3332" width="8.125" style="33" customWidth="1"/>
+    <col min="3333" max="3333" width="12.5" style="33" customWidth="1"/>
+    <col min="3334" max="3334" width="16.25" style="33" customWidth="1"/>
+    <col min="3335" max="3335" width="6.125" style="33" customWidth="1"/>
+    <col min="3336" max="3336" width="9.375" style="33" customWidth="1"/>
+    <col min="3337" max="3337" width="13.125" style="33" customWidth="1"/>
+    <col min="3338" max="3585" width="9" style="33"/>
+    <col min="3586" max="3586" width="11.375" style="33" customWidth="1"/>
+    <col min="3587" max="3587" width="9.75" style="33" customWidth="1"/>
+    <col min="3588" max="3588" width="8.125" style="33" customWidth="1"/>
+    <col min="3589" max="3589" width="12.5" style="33" customWidth="1"/>
+    <col min="3590" max="3590" width="16.25" style="33" customWidth="1"/>
+    <col min="3591" max="3591" width="6.125" style="33" customWidth="1"/>
+    <col min="3592" max="3592" width="9.375" style="33" customWidth="1"/>
+    <col min="3593" max="3593" width="13.125" style="33" customWidth="1"/>
+    <col min="3594" max="3841" width="9" style="33"/>
+    <col min="3842" max="3842" width="11.375" style="33" customWidth="1"/>
+    <col min="3843" max="3843" width="9.75" style="33" customWidth="1"/>
+    <col min="3844" max="3844" width="8.125" style="33" customWidth="1"/>
+    <col min="3845" max="3845" width="12.5" style="33" customWidth="1"/>
+    <col min="3846" max="3846" width="16.25" style="33" customWidth="1"/>
+    <col min="3847" max="3847" width="6.125" style="33" customWidth="1"/>
+    <col min="3848" max="3848" width="9.375" style="33" customWidth="1"/>
+    <col min="3849" max="3849" width="13.125" style="33" customWidth="1"/>
+    <col min="3850" max="4097" width="9" style="33"/>
+    <col min="4098" max="4098" width="11.375" style="33" customWidth="1"/>
+    <col min="4099" max="4099" width="9.75" style="33" customWidth="1"/>
+    <col min="4100" max="4100" width="8.125" style="33" customWidth="1"/>
+    <col min="4101" max="4101" width="12.5" style="33" customWidth="1"/>
+    <col min="4102" max="4102" width="16.25" style="33" customWidth="1"/>
+    <col min="4103" max="4103" width="6.125" style="33" customWidth="1"/>
+    <col min="4104" max="4104" width="9.375" style="33" customWidth="1"/>
+    <col min="4105" max="4105" width="13.125" style="33" customWidth="1"/>
+    <col min="4106" max="4353" width="9" style="33"/>
+    <col min="4354" max="4354" width="11.375" style="33" customWidth="1"/>
+    <col min="4355" max="4355" width="9.75" style="33" customWidth="1"/>
+    <col min="4356" max="4356" width="8.125" style="33" customWidth="1"/>
+    <col min="4357" max="4357" width="12.5" style="33" customWidth="1"/>
+    <col min="4358" max="4358" width="16.25" style="33" customWidth="1"/>
+    <col min="4359" max="4359" width="6.125" style="33" customWidth="1"/>
+    <col min="4360" max="4360" width="9.375" style="33" customWidth="1"/>
+    <col min="4361" max="4361" width="13.125" style="33" customWidth="1"/>
+    <col min="4362" max="4609" width="9" style="33"/>
+    <col min="4610" max="4610" width="11.375" style="33" customWidth="1"/>
+    <col min="4611" max="4611" width="9.75" style="33" customWidth="1"/>
+    <col min="4612" max="4612" width="8.125" style="33" customWidth="1"/>
+    <col min="4613" max="4613" width="12.5" style="33" customWidth="1"/>
+    <col min="4614" max="4614" width="16.25" style="33" customWidth="1"/>
+    <col min="4615" max="4615" width="6.125" style="33" customWidth="1"/>
+    <col min="4616" max="4616" width="9.375" style="33" customWidth="1"/>
+    <col min="4617" max="4617" width="13.125" style="33" customWidth="1"/>
+    <col min="4618" max="4865" width="9" style="33"/>
+    <col min="4866" max="4866" width="11.375" style="33" customWidth="1"/>
+    <col min="4867" max="4867" width="9.75" style="33" customWidth="1"/>
+    <col min="4868" max="4868" width="8.125" style="33" customWidth="1"/>
+    <col min="4869" max="4869" width="12.5" style="33" customWidth="1"/>
+    <col min="4870" max="4870" width="16.25" style="33" customWidth="1"/>
+    <col min="4871" max="4871" width="6.125" style="33" customWidth="1"/>
+    <col min="4872" max="4872" width="9.375" style="33" customWidth="1"/>
+    <col min="4873" max="4873" width="13.125" style="33" customWidth="1"/>
+    <col min="4874" max="5121" width="9" style="33"/>
+    <col min="5122" max="5122" width="11.375" style="33" customWidth="1"/>
+    <col min="5123" max="5123" width="9.75" style="33" customWidth="1"/>
+    <col min="5124" max="5124" width="8.125" style="33" customWidth="1"/>
+    <col min="5125" max="5125" width="12.5" style="33" customWidth="1"/>
+    <col min="5126" max="5126" width="16.25" style="33" customWidth="1"/>
+    <col min="5127" max="5127" width="6.125" style="33" customWidth="1"/>
+    <col min="5128" max="5128" width="9.375" style="33" customWidth="1"/>
+    <col min="5129" max="5129" width="13.125" style="33" customWidth="1"/>
+    <col min="5130" max="5377" width="9" style="33"/>
+    <col min="5378" max="5378" width="11.375" style="33" customWidth="1"/>
+    <col min="5379" max="5379" width="9.75" style="33" customWidth="1"/>
+    <col min="5380" max="5380" width="8.125" style="33" customWidth="1"/>
+    <col min="5381" max="5381" width="12.5" style="33" customWidth="1"/>
+    <col min="5382" max="5382" width="16.25" style="33" customWidth="1"/>
+    <col min="5383" max="5383" width="6.125" style="33" customWidth="1"/>
+    <col min="5384" max="5384" width="9.375" style="33" customWidth="1"/>
+    <col min="5385" max="5385" width="13.125" style="33" customWidth="1"/>
+    <col min="5386" max="5633" width="9" style="33"/>
+    <col min="5634" max="5634" width="11.375" style="33" customWidth="1"/>
+    <col min="5635" max="5635" width="9.75" style="33" customWidth="1"/>
+    <col min="5636" max="5636" width="8.125" style="33" customWidth="1"/>
+    <col min="5637" max="5637" width="12.5" style="33" customWidth="1"/>
+    <col min="5638" max="5638" width="16.25" style="33" customWidth="1"/>
+    <col min="5639" max="5639" width="6.125" style="33" customWidth="1"/>
+    <col min="5640" max="5640" width="9.375" style="33" customWidth="1"/>
+    <col min="5641" max="5641" width="13.125" style="33" customWidth="1"/>
+    <col min="5642" max="5889" width="9" style="33"/>
+    <col min="5890" max="5890" width="11.375" style="33" customWidth="1"/>
+    <col min="5891" max="5891" width="9.75" style="33" customWidth="1"/>
+    <col min="5892" max="5892" width="8.125" style="33" customWidth="1"/>
+    <col min="5893" max="5893" width="12.5" style="33" customWidth="1"/>
+    <col min="5894" max="5894" width="16.25" style="33" customWidth="1"/>
+    <col min="5895" max="5895" width="6.125" style="33" customWidth="1"/>
+    <col min="5896" max="5896" width="9.375" style="33" customWidth="1"/>
+    <col min="5897" max="5897" width="13.125" style="33" customWidth="1"/>
+    <col min="5898" max="6145" width="9" style="33"/>
+    <col min="6146" max="6146" width="11.375" style="33" customWidth="1"/>
+    <col min="6147" max="6147" width="9.75" style="33" customWidth="1"/>
+    <col min="6148" max="6148" width="8.125" style="33" customWidth="1"/>
+    <col min="6149" max="6149" width="12.5" style="33" customWidth="1"/>
+    <col min="6150" max="6150" width="16.25" style="33" customWidth="1"/>
+    <col min="6151" max="6151" width="6.125" style="33" customWidth="1"/>
+    <col min="6152" max="6152" width="9.375" style="33" customWidth="1"/>
+    <col min="6153" max="6153" width="13.125" style="33" customWidth="1"/>
+    <col min="6154" max="6401" width="9" style="33"/>
+    <col min="6402" max="6402" width="11.375" style="33" customWidth="1"/>
+    <col min="6403" max="6403" width="9.75" style="33" customWidth="1"/>
+    <col min="6404" max="6404" width="8.125" style="33" customWidth="1"/>
+    <col min="6405" max="6405" width="12.5" style="33" customWidth="1"/>
+    <col min="6406" max="6406" width="16.25" style="33" customWidth="1"/>
+    <col min="6407" max="6407" width="6.125" style="33" customWidth="1"/>
+    <col min="6408" max="6408" width="9.375" style="33" customWidth="1"/>
+    <col min="6409" max="6409" width="13.125" style="33" customWidth="1"/>
+    <col min="6410" max="6657" width="9" style="33"/>
+    <col min="6658" max="6658" width="11.375" style="33" customWidth="1"/>
+    <col min="6659" max="6659" width="9.75" style="33" customWidth="1"/>
+    <col min="6660" max="6660" width="8.125" style="33" customWidth="1"/>
+    <col min="6661" max="6661" width="12.5" style="33" customWidth="1"/>
+    <col min="6662" max="6662" width="16.25" style="33" customWidth="1"/>
+    <col min="6663" max="6663" width="6.125" style="33" customWidth="1"/>
+    <col min="6664" max="6664" width="9.375" style="33" customWidth="1"/>
+    <col min="6665" max="6665" width="13.125" style="33" customWidth="1"/>
+    <col min="6666" max="6913" width="9" style="33"/>
+    <col min="6914" max="6914" width="11.375" style="33" customWidth="1"/>
+    <col min="6915" max="6915" width="9.75" style="33" customWidth="1"/>
+    <col min="6916" max="6916" width="8.125" style="33" customWidth="1"/>
+    <col min="6917" max="6917" width="12.5" style="33" customWidth="1"/>
+    <col min="6918" max="6918" width="16.25" style="33" customWidth="1"/>
+    <col min="6919" max="6919" width="6.125" style="33" customWidth="1"/>
+    <col min="6920" max="6920" width="9.375" style="33" customWidth="1"/>
+    <col min="6921" max="6921" width="13.125" style="33" customWidth="1"/>
+    <col min="6922" max="7169" width="9" style="33"/>
+    <col min="7170" max="7170" width="11.375" style="33" customWidth="1"/>
+    <col min="7171" max="7171" width="9.75" style="33" customWidth="1"/>
+    <col min="7172" max="7172" width="8.125" style="33" customWidth="1"/>
+    <col min="7173" max="7173" width="12.5" style="33" customWidth="1"/>
+    <col min="7174" max="7174" width="16.25" style="33" customWidth="1"/>
+    <col min="7175" max="7175" width="6.125" style="33" customWidth="1"/>
+    <col min="7176" max="7176" width="9.375" style="33" customWidth="1"/>
+    <col min="7177" max="7177" width="13.125" style="33" customWidth="1"/>
+    <col min="7178" max="7425" width="9" style="33"/>
+    <col min="7426" max="7426" width="11.375" style="33" customWidth="1"/>
+    <col min="7427" max="7427" width="9.75" style="33" customWidth="1"/>
+    <col min="7428" max="7428" width="8.125" style="33" customWidth="1"/>
+    <col min="7429" max="7429" width="12.5" style="33" customWidth="1"/>
+    <col min="7430" max="7430" width="16.25" style="33" customWidth="1"/>
+    <col min="7431" max="7431" width="6.125" style="33" customWidth="1"/>
+    <col min="7432" max="7432" width="9.375" style="33" customWidth="1"/>
+    <col min="7433" max="7433" width="13.125" style="33" customWidth="1"/>
+    <col min="7434" max="7681" width="9" style="33"/>
+    <col min="7682" max="7682" width="11.375" style="33" customWidth="1"/>
+    <col min="7683" max="7683" width="9.75" style="33" customWidth="1"/>
+    <col min="7684" max="7684" width="8.125" style="33" customWidth="1"/>
+    <col min="7685" max="7685" width="12.5" style="33" customWidth="1"/>
+    <col min="7686" max="7686" width="16.25" style="33" customWidth="1"/>
+    <col min="7687" max="7687" width="6.125" style="33" customWidth="1"/>
+    <col min="7688" max="7688" width="9.375" style="33" customWidth="1"/>
+    <col min="7689" max="7689" width="13.125" style="33" customWidth="1"/>
+    <col min="7690" max="7937" width="9" style="33"/>
+    <col min="7938" max="7938" width="11.375" style="33" customWidth="1"/>
+    <col min="7939" max="7939" width="9.75" style="33" customWidth="1"/>
+    <col min="7940" max="7940" width="8.125" style="33" customWidth="1"/>
+    <col min="7941" max="7941" width="12.5" style="33" customWidth="1"/>
+    <col min="7942" max="7942" width="16.25" style="33" customWidth="1"/>
+    <col min="7943" max="7943" width="6.125" style="33" customWidth="1"/>
+    <col min="7944" max="7944" width="9.375" style="33" customWidth="1"/>
+    <col min="7945" max="7945" width="13.125" style="33" customWidth="1"/>
+    <col min="7946" max="8193" width="9" style="33"/>
+    <col min="8194" max="8194" width="11.375" style="33" customWidth="1"/>
+    <col min="8195" max="8195" width="9.75" style="33" customWidth="1"/>
+    <col min="8196" max="8196" width="8.125" style="33" customWidth="1"/>
+    <col min="8197" max="8197" width="12.5" style="33" customWidth="1"/>
+    <col min="8198" max="8198" width="16.25" style="33" customWidth="1"/>
+    <col min="8199" max="8199" width="6.125" style="33" customWidth="1"/>
+    <col min="8200" max="8200" width="9.375" style="33" customWidth="1"/>
+    <col min="8201" max="8201" width="13.125" style="33" customWidth="1"/>
+    <col min="8202" max="8449" width="9" style="33"/>
+    <col min="8450" max="8450" width="11.375" style="33" customWidth="1"/>
+    <col min="8451" max="8451" width="9.75" style="33" customWidth="1"/>
+    <col min="8452" max="8452" width="8.125" style="33" customWidth="1"/>
+    <col min="8453" max="8453" width="12.5" style="33" customWidth="1"/>
+    <col min="8454" max="8454" width="16.25" style="33" customWidth="1"/>
+    <col min="8455" max="8455" width="6.125" style="33" customWidth="1"/>
+    <col min="8456" max="8456" width="9.375" style="33" customWidth="1"/>
+    <col min="8457" max="8457" width="13.125" style="33" customWidth="1"/>
+    <col min="8458" max="8705" width="9" style="33"/>
+    <col min="8706" max="8706" width="11.375" style="33" customWidth="1"/>
+    <col min="8707" max="8707" width="9.75" style="33" customWidth="1"/>
+    <col min="8708" max="8708" width="8.125" style="33" customWidth="1"/>
+    <col min="8709" max="8709" width="12.5" style="33" customWidth="1"/>
+    <col min="8710" max="8710" width="16.25" style="33" customWidth="1"/>
+    <col min="8711" max="8711" width="6.125" style="33" customWidth="1"/>
+    <col min="8712" max="8712" width="9.375" style="33" customWidth="1"/>
+    <col min="8713" max="8713" width="13.125" style="33" customWidth="1"/>
+    <col min="8714" max="8961" width="9" style="33"/>
+    <col min="8962" max="8962" width="11.375" style="33" customWidth="1"/>
+    <col min="8963" max="8963" width="9.75" style="33" customWidth="1"/>
+    <col min="8964" max="8964" width="8.125" style="33" customWidth="1"/>
+    <col min="8965" max="8965" width="12.5" style="33" customWidth="1"/>
+    <col min="8966" max="8966" width="16.25" style="33" customWidth="1"/>
+    <col min="8967" max="8967" width="6.125" style="33" customWidth="1"/>
+    <col min="8968" max="8968" width="9.375" style="33" customWidth="1"/>
+    <col min="8969" max="8969" width="13.125" style="33" customWidth="1"/>
+    <col min="8970" max="9217" width="9" style="33"/>
+    <col min="9218" max="9218" width="11.375" style="33" customWidth="1"/>
+    <col min="9219" max="9219" width="9.75" style="33" customWidth="1"/>
+    <col min="9220" max="9220" width="8.125" style="33" customWidth="1"/>
+    <col min="9221" max="9221" width="12.5" style="33" customWidth="1"/>
+    <col min="9222" max="9222" width="16.25" style="33" customWidth="1"/>
+    <col min="9223" max="9223" width="6.125" style="33" customWidth="1"/>
+    <col min="9224" max="9224" width="9.375" style="33" customWidth="1"/>
+    <col min="9225" max="9225" width="13.125" style="33" customWidth="1"/>
+    <col min="9226" max="9473" width="9" style="33"/>
+    <col min="9474" max="9474" width="11.375" style="33" customWidth="1"/>
+    <col min="9475" max="9475" width="9.75" style="33" customWidth="1"/>
+    <col min="9476" max="9476" width="8.125" style="33" customWidth="1"/>
+    <col min="9477" max="9477" width="12.5" style="33" customWidth="1"/>
+    <col min="9478" max="9478" width="16.25" style="33" customWidth="1"/>
+    <col min="9479" max="9479" width="6.125" style="33" customWidth="1"/>
+    <col min="9480" max="9480" width="9.375" style="33" customWidth="1"/>
+    <col min="9481" max="9481" width="13.125" style="33" customWidth="1"/>
+    <col min="9482" max="9729" width="9" style="33"/>
+    <col min="9730" max="9730" width="11.375" style="33" customWidth="1"/>
+    <col min="9731" max="9731" width="9.75" style="33" customWidth="1"/>
+    <col min="9732" max="9732" width="8.125" style="33" customWidth="1"/>
+    <col min="9733" max="9733" width="12.5" style="33" customWidth="1"/>
+    <col min="9734" max="9734" width="16.25" style="33" customWidth="1"/>
+    <col min="9735" max="9735" width="6.125" style="33" customWidth="1"/>
+    <col min="9736" max="9736" width="9.375" style="33" customWidth="1"/>
+    <col min="9737" max="9737" width="13.125" style="33" customWidth="1"/>
+    <col min="9738" max="9985" width="9" style="33"/>
+    <col min="9986" max="9986" width="11.375" style="33" customWidth="1"/>
+    <col min="9987" max="9987" width="9.75" style="33" customWidth="1"/>
+    <col min="9988" max="9988" width="8.125" style="33" customWidth="1"/>
+    <col min="9989" max="9989" width="12.5" style="33" customWidth="1"/>
+    <col min="9990" max="9990" width="16.25" style="33" customWidth="1"/>
+    <col min="9991" max="9991" width="6.125" style="33" customWidth="1"/>
+    <col min="9992" max="9992" width="9.375" style="33" customWidth="1"/>
+    <col min="9993" max="9993" width="13.125" style="33" customWidth="1"/>
+    <col min="9994" max="10241" width="9" style="33"/>
+    <col min="10242" max="10242" width="11.375" style="33" customWidth="1"/>
+    <col min="10243" max="10243" width="9.75" style="33" customWidth="1"/>
+    <col min="10244" max="10244" width="8.125" style="33" customWidth="1"/>
+    <col min="10245" max="10245" width="12.5" style="33" customWidth="1"/>
+    <col min="10246" max="10246" width="16.25" style="33" customWidth="1"/>
+    <col min="10247" max="10247" width="6.125" style="33" customWidth="1"/>
+    <col min="10248" max="10248" width="9.375" style="33" customWidth="1"/>
+    <col min="10249" max="10249" width="13.125" style="33" customWidth="1"/>
+    <col min="10250" max="10497" width="9" style="33"/>
+    <col min="10498" max="10498" width="11.375" style="33" customWidth="1"/>
+    <col min="10499" max="10499" width="9.75" style="33" customWidth="1"/>
+    <col min="10500" max="10500" width="8.125" style="33" customWidth="1"/>
+    <col min="10501" max="10501" width="12.5" style="33" customWidth="1"/>
+    <col min="10502" max="10502" width="16.25" style="33" customWidth="1"/>
+    <col min="10503" max="10503" width="6.125" style="33" customWidth="1"/>
+    <col min="10504" max="10504" width="9.375" style="33" customWidth="1"/>
+    <col min="10505" max="10505" width="13.125" style="33" customWidth="1"/>
+    <col min="10506" max="10753" width="9" style="33"/>
+    <col min="10754" max="10754" width="11.375" style="33" customWidth="1"/>
+    <col min="10755" max="10755" width="9.75" style="33" customWidth="1"/>
+    <col min="10756" max="10756" width="8.125" style="33" customWidth="1"/>
+    <col min="10757" max="10757" width="12.5" style="33" customWidth="1"/>
+    <col min="10758" max="10758" width="16.25" style="33" customWidth="1"/>
+    <col min="10759" max="10759" width="6.125" style="33" customWidth="1"/>
+    <col min="10760" max="10760" width="9.375" style="33" customWidth="1"/>
+    <col min="10761" max="10761" width="13.125" style="33" customWidth="1"/>
+    <col min="10762" max="11009" width="9" style="33"/>
+    <col min="11010" max="11010" width="11.375" style="33" customWidth="1"/>
+    <col min="11011" max="11011" width="9.75" style="33" customWidth="1"/>
+    <col min="11012" max="11012" width="8.125" style="33" customWidth="1"/>
+    <col min="11013" max="11013" width="12.5" style="33" customWidth="1"/>
+    <col min="11014" max="11014" width="16.25" style="33" customWidth="1"/>
+    <col min="11015" max="11015" width="6.125" style="33" customWidth="1"/>
+    <col min="11016" max="11016" width="9.375" style="33" customWidth="1"/>
+    <col min="11017" max="11017" width="13.125" style="33" customWidth="1"/>
+    <col min="11018" max="11265" width="9" style="33"/>
+    <col min="11266" max="11266" width="11.375" style="33" customWidth="1"/>
+    <col min="11267" max="11267" width="9.75" style="33" customWidth="1"/>
+    <col min="11268" max="11268" width="8.125" style="33" customWidth="1"/>
+    <col min="11269" max="11269" width="12.5" style="33" customWidth="1"/>
+    <col min="11270" max="11270" width="16.25" style="33" customWidth="1"/>
+    <col min="11271" max="11271" width="6.125" style="33" customWidth="1"/>
+    <col min="11272" max="11272" width="9.375" style="33" customWidth="1"/>
+    <col min="11273" max="11273" width="13.125" style="33" customWidth="1"/>
+    <col min="11274" max="11521" width="9" style="33"/>
+    <col min="11522" max="11522" width="11.375" style="33" customWidth="1"/>
+    <col min="11523" max="11523" width="9.75" style="33" customWidth="1"/>
+    <col min="11524" max="11524" width="8.125" style="33" customWidth="1"/>
+    <col min="11525" max="11525" width="12.5" style="33" customWidth="1"/>
+    <col min="11526" max="11526" width="16.25" style="33" customWidth="1"/>
+    <col min="11527" max="11527" width="6.125" style="33" customWidth="1"/>
+    <col min="11528" max="11528" width="9.375" style="33" customWidth="1"/>
+    <col min="11529" max="11529" width="13.125" style="33" customWidth="1"/>
+    <col min="11530" max="11777" width="9" style="33"/>
+    <col min="11778" max="11778" width="11.375" style="33" customWidth="1"/>
+    <col min="11779" max="11779" width="9.75" style="33" customWidth="1"/>
+    <col min="11780" max="11780" width="8.125" style="33" customWidth="1"/>
+    <col min="11781" max="11781" width="12.5" style="33" customWidth="1"/>
+    <col min="11782" max="11782" width="16.25" style="33" customWidth="1"/>
+    <col min="11783" max="11783" width="6.125" style="33" customWidth="1"/>
+    <col min="11784" max="11784" width="9.375" style="33" customWidth="1"/>
+    <col min="11785" max="11785" width="13.125" style="33" customWidth="1"/>
+    <col min="11786" max="12033" width="9" style="33"/>
+    <col min="12034" max="12034" width="11.375" style="33" customWidth="1"/>
+    <col min="12035" max="12035" width="9.75" style="33" customWidth="1"/>
+    <col min="12036" max="12036" width="8.125" style="33" customWidth="1"/>
+    <col min="12037" max="12037" width="12.5" style="33" customWidth="1"/>
+    <col min="12038" max="12038" width="16.25" style="33" customWidth="1"/>
+    <col min="12039" max="12039" width="6.125" style="33" customWidth="1"/>
+    <col min="12040" max="12040" width="9.375" style="33" customWidth="1"/>
+    <col min="12041" max="12041" width="13.125" style="33" customWidth="1"/>
+    <col min="12042" max="12289" width="9" style="33"/>
+    <col min="12290" max="12290" width="11.375" style="33" customWidth="1"/>
+    <col min="12291" max="12291" width="9.75" style="33" customWidth="1"/>
+    <col min="12292" max="12292" width="8.125" style="33" customWidth="1"/>
+    <col min="12293" max="12293" width="12.5" style="33" customWidth="1"/>
+    <col min="12294" max="12294" width="16.25" style="33" customWidth="1"/>
+    <col min="12295" max="12295" width="6.125" style="33" customWidth="1"/>
+    <col min="12296" max="12296" width="9.375" style="33" customWidth="1"/>
+    <col min="12297" max="12297" width="13.125" style="33" customWidth="1"/>
+    <col min="12298" max="12545" width="9" style="33"/>
+    <col min="12546" max="12546" width="11.375" style="33" customWidth="1"/>
+    <col min="12547" max="12547" width="9.75" style="33" customWidth="1"/>
+    <col min="12548" max="12548" width="8.125" style="33" customWidth="1"/>
+    <col min="12549" max="12549" width="12.5" style="33" customWidth="1"/>
+    <col min="12550" max="12550" width="16.25" style="33" customWidth="1"/>
+    <col min="12551" max="12551" width="6.125" style="33" customWidth="1"/>
+    <col min="12552" max="12552" width="9.375" style="33" customWidth="1"/>
+    <col min="12553" max="12553" width="13.125" style="33" customWidth="1"/>
+    <col min="12554" max="12801" width="9" style="33"/>
+    <col min="12802" max="12802" width="11.375" style="33" customWidth="1"/>
+    <col min="12803" max="12803" width="9.75" style="33" customWidth="1"/>
+    <col min="12804" max="12804" width="8.125" style="33" customWidth="1"/>
+    <col min="12805" max="12805" width="12.5" style="33" customWidth="1"/>
+    <col min="12806" max="12806" width="16.25" style="33" customWidth="1"/>
+    <col min="12807" max="12807" width="6.125" style="33" customWidth="1"/>
+    <col min="12808" max="12808" width="9.375" style="33" customWidth="1"/>
+    <col min="12809" max="12809" width="13.125" style="33" customWidth="1"/>
+    <col min="12810" max="13057" width="9" style="33"/>
+    <col min="13058" max="13058" width="11.375" style="33" customWidth="1"/>
+    <col min="13059" max="13059" width="9.75" style="33" customWidth="1"/>
+    <col min="13060" max="13060" width="8.125" style="33" customWidth="1"/>
+    <col min="13061" max="13061" width="12.5" style="33" customWidth="1"/>
+    <col min="13062" max="13062" width="16.25" style="33" customWidth="1"/>
+    <col min="13063" max="13063" width="6.125" style="33" customWidth="1"/>
+    <col min="13064" max="13064" width="9.375" style="33" customWidth="1"/>
+    <col min="13065" max="13065" width="13.125" style="33" customWidth="1"/>
+    <col min="13066" max="13313" width="9" style="33"/>
+    <col min="13314" max="13314" width="11.375" style="33" customWidth="1"/>
+    <col min="13315" max="13315" width="9.75" style="33" customWidth="1"/>
+    <col min="13316" max="13316" width="8.125" style="33" customWidth="1"/>
+    <col min="13317" max="13317" width="12.5" style="33" customWidth="1"/>
+    <col min="13318" max="13318" width="16.25" style="33" customWidth="1"/>
+    <col min="13319" max="13319" width="6.125" style="33" customWidth="1"/>
+    <col min="13320" max="13320" width="9.375" style="33" customWidth="1"/>
+    <col min="13321" max="13321" width="13.125" style="33" customWidth="1"/>
+    <col min="13322" max="13569" width="9" style="33"/>
+    <col min="13570" max="13570" width="11.375" style="33" customWidth="1"/>
+    <col min="13571" max="13571" width="9.75" style="33" customWidth="1"/>
+    <col min="13572" max="13572" width="8.125" style="33" customWidth="1"/>
+    <col min="13573" max="13573" width="12.5" style="33" customWidth="1"/>
+    <col min="13574" max="13574" width="16.25" style="33" customWidth="1"/>
+    <col min="13575" max="13575" width="6.125" style="33" customWidth="1"/>
+    <col min="13576" max="13576" width="9.375" style="33" customWidth="1"/>
+    <col min="13577" max="13577" width="13.125" style="33" customWidth="1"/>
+    <col min="13578" max="13825" width="9" style="33"/>
+    <col min="13826" max="13826" width="11.375" style="33" customWidth="1"/>
+    <col min="13827" max="13827" width="9.75" style="33" customWidth="1"/>
+    <col min="13828" max="13828" width="8.125" style="33" customWidth="1"/>
+    <col min="13829" max="13829" width="12.5" style="33" customWidth="1"/>
+    <col min="13830" max="13830" width="16.25" style="33" customWidth="1"/>
+    <col min="13831" max="13831" width="6.125" style="33" customWidth="1"/>
+    <col min="13832" max="13832" width="9.375" style="33" customWidth="1"/>
+    <col min="13833" max="13833" width="13.125" style="33" customWidth="1"/>
+    <col min="13834" max="14081" width="9" style="33"/>
+    <col min="14082" max="14082" width="11.375" style="33" customWidth="1"/>
+    <col min="14083" max="14083" width="9.75" style="33" customWidth="1"/>
+    <col min="14084" max="14084" width="8.125" style="33" customWidth="1"/>
+    <col min="14085" max="14085" width="12.5" style="33" customWidth="1"/>
+    <col min="14086" max="14086" width="16.25" style="33" customWidth="1"/>
+    <col min="14087" max="14087" width="6.125" style="33" customWidth="1"/>
+    <col min="14088" max="14088" width="9.375" style="33" customWidth="1"/>
+    <col min="14089" max="14089" width="13.125" style="33" customWidth="1"/>
+    <col min="14090" max="14337" width="9" style="33"/>
+    <col min="14338" max="14338" width="11.375" style="33" customWidth="1"/>
+    <col min="14339" max="14339" width="9.75" style="33" customWidth="1"/>
+    <col min="14340" max="14340" width="8.125" style="33" customWidth="1"/>
+    <col min="14341" max="14341" width="12.5" style="33" customWidth="1"/>
+    <col min="14342" max="14342" width="16.25" style="33" customWidth="1"/>
+    <col min="14343" max="14343" width="6.125" style="33" customWidth="1"/>
+    <col min="14344" max="14344" width="9.375" style="33" customWidth="1"/>
+    <col min="14345" max="14345" width="13.125" style="33" customWidth="1"/>
+    <col min="14346" max="14593" width="9" style="33"/>
+    <col min="14594" max="14594" width="11.375" style="33" customWidth="1"/>
+    <col min="14595" max="14595" width="9.75" style="33" customWidth="1"/>
+    <col min="14596" max="14596" width="8.125" style="33" customWidth="1"/>
+    <col min="14597" max="14597" width="12.5" style="33" customWidth="1"/>
+    <col min="14598" max="14598" width="16.25" style="33" customWidth="1"/>
+    <col min="14599" max="14599" width="6.125" style="33" customWidth="1"/>
+    <col min="14600" max="14600" width="9.375" style="33" customWidth="1"/>
+    <col min="14601" max="14601" width="13.125" style="33" customWidth="1"/>
+    <col min="14602" max="14849" width="9" style="33"/>
+    <col min="14850" max="14850" width="11.375" style="33" customWidth="1"/>
+    <col min="14851" max="14851" width="9.75" style="33" customWidth="1"/>
+    <col min="14852" max="14852" width="8.125" style="33" customWidth="1"/>
+    <col min="14853" max="14853" width="12.5" style="33" customWidth="1"/>
+    <col min="14854" max="14854" width="16.25" style="33" customWidth="1"/>
+    <col min="14855" max="14855" width="6.125" style="33" customWidth="1"/>
+    <col min="14856" max="14856" width="9.375" style="33" customWidth="1"/>
+    <col min="14857" max="14857" width="13.125" style="33" customWidth="1"/>
+    <col min="14858" max="15105" width="9" style="33"/>
+    <col min="15106" max="15106" width="11.375" style="33" customWidth="1"/>
+    <col min="15107" max="15107" width="9.75" style="33" customWidth="1"/>
+    <col min="15108" max="15108" width="8.125" style="33" customWidth="1"/>
+    <col min="15109" max="15109" width="12.5" style="33" customWidth="1"/>
+    <col min="15110" max="15110" width="16.25" style="33" customWidth="1"/>
+    <col min="15111" max="15111" width="6.125" style="33" customWidth="1"/>
+    <col min="15112" max="15112" width="9.375" style="33" customWidth="1"/>
+    <col min="15113" max="15113" width="13.125" style="33" customWidth="1"/>
+    <col min="15114" max="15361" width="9" style="33"/>
+    <col min="15362" max="15362" width="11.375" style="33" customWidth="1"/>
+    <col min="15363" max="15363" width="9.75" style="33" customWidth="1"/>
+    <col min="15364" max="15364" width="8.125" style="33" customWidth="1"/>
+    <col min="15365" max="15365" width="12.5" style="33" customWidth="1"/>
+    <col min="15366" max="15366" width="16.25" style="33" customWidth="1"/>
+    <col min="15367" max="15367" width="6.125" style="33" customWidth="1"/>
+    <col min="15368" max="15368" width="9.375" style="33" customWidth="1"/>
+    <col min="15369" max="15369" width="13.125" style="33" customWidth="1"/>
+    <col min="15370" max="15617" width="9" style="33"/>
+    <col min="15618" max="15618" width="11.375" style="33" customWidth="1"/>
+    <col min="15619" max="15619" width="9.75" style="33" customWidth="1"/>
+    <col min="15620" max="15620" width="8.125" style="33" customWidth="1"/>
+    <col min="15621" max="15621" width="12.5" style="33" customWidth="1"/>
+    <col min="15622" max="15622" width="16.25" style="33" customWidth="1"/>
+    <col min="15623" max="15623" width="6.125" style="33" customWidth="1"/>
+    <col min="15624" max="15624" width="9.375" style="33" customWidth="1"/>
+    <col min="15625" max="15625" width="13.125" style="33" customWidth="1"/>
+    <col min="15626" max="15873" width="9" style="33"/>
+    <col min="15874" max="15874" width="11.375" style="33" customWidth="1"/>
+    <col min="15875" max="15875" width="9.75" style="33" customWidth="1"/>
+    <col min="15876" max="15876" width="8.125" style="33" customWidth="1"/>
+    <col min="15877" max="15877" width="12.5" style="33" customWidth="1"/>
+    <col min="15878" max="15878" width="16.25" style="33" customWidth="1"/>
+    <col min="15879" max="15879" width="6.125" style="33" customWidth="1"/>
+    <col min="15880" max="15880" width="9.375" style="33" customWidth="1"/>
+    <col min="15881" max="15881" width="13.125" style="33" customWidth="1"/>
+    <col min="15882" max="16129" width="9" style="33"/>
+    <col min="16130" max="16130" width="11.375" style="33" customWidth="1"/>
+    <col min="16131" max="16131" width="9.75" style="33" customWidth="1"/>
+    <col min="16132" max="16132" width="8.125" style="33" customWidth="1"/>
+    <col min="16133" max="16133" width="12.5" style="33" customWidth="1"/>
+    <col min="16134" max="16134" width="16.25" style="33" customWidth="1"/>
+    <col min="16135" max="16135" width="6.125" style="33" customWidth="1"/>
+    <col min="16136" max="16136" width="9.375" style="33" customWidth="1"/>
+    <col min="16137" max="16137" width="13.125" style="33" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-    </row>
-    <row r="3" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+    </row>
+    <row r="3" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-    </row>
-    <row r="4" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B4" s="35" t="s">
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+    </row>
+    <row r="4" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-    </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" ht="24.95" customHeight="1">
-      <c r="B5" s="35" t="s">
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+    </row>
+    <row r="5" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="35" t="s">
+      <c r="D5" s="136"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="132"/>
-      <c r="I5" s="133"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="137"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-    </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="116" t="s">
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+    </row>
+    <row r="9" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="120" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="117" t="str">
+      <c r="C9" s="121" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="116" t="s">
+      <c r="D9" s="122"/>
+      <c r="E9" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="98" t="str">
+      <c r="F9" s="102" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="121" t="s">
+      <c r="G9" s="102"/>
+      <c r="H9" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="123" t="str">
+      <c r="I9" s="127" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="36" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="98"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-    </row>
-    <row r="11" spans="1:12" s="36" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="124" t="s">
+    <row r="10" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B10" s="102"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="127"/>
+    </row>
+    <row r="11" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
+      <c r="B11" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="125" t="str">
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="129" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="127"/>
-      <c r="L11" s="39"/>
-    </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="124" t="s">
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="131"/>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
+      <c r="B12" s="128" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125" t="str">
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="129" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="127"/>
-    </row>
-    <row r="13" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
-      <c r="B13" s="40" t="s">
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="131"/>
+    </row>
+    <row r="13" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
+      <c r="B13" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="111" t="str">
+      <c r="C13" s="115" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113"/>
-    </row>
-    <row r="14" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
-      <c r="B14" s="51" t="s">
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="117"/>
+    </row>
+    <row r="14" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
+      <c r="B14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="111" t="str">
+      <c r="C14" s="115" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="113"/>
-    </row>
-    <row r="15" spans="1:12" s="41" customFormat="1" ht="45" customHeight="1">
-      <c r="B15" s="52" t="s">
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="117"/>
+    </row>
+    <row r="15" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
+      <c r="B15" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="97" t="str">
+      <c r="C15" s="101" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="53" t="s">
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-    </row>
-    <row r="17" spans="2:9" s="45" customFormat="1" ht="15">
-      <c r="B17" s="42" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="2:9" s="44" customFormat="1" ht="15">
+      <c r="B17" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-    </row>
-    <row r="18" spans="2:9" s="45" customFormat="1" ht="15">
-      <c r="B18" s="46" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+    </row>
+    <row r="18" spans="2:9" s="44" customFormat="1" ht="15">
+      <c r="B18" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-    </row>
-    <row r="19" spans="2:9" s="45" customFormat="1" ht="50.45" customHeight="1">
-      <c r="B19" s="47" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+    </row>
+    <row r="19" spans="2:9" s="44" customFormat="1" ht="50.45" customHeight="1">
+      <c r="B19" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="47" t="s">
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="99" t="s">
+      <c r="G19" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="47" t="s">
+      <c r="H19" s="103"/>
+      <c r="I19" s="46" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="100" t="s">
+    <row r="20" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="101" t="str">
+      <c r="C20" s="105" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="110">
+      <c r="D20" s="106"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="114">
         <v>1</v>
       </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="137" t="str">
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="99" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="45" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="100"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="137"/>
-    </row>
-    <row r="22" spans="2:9" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="100"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="137"/>
-    </row>
-    <row r="23" spans="2:9" s="45" customFormat="1">
-      <c r="B23" s="92" t="s">
+    <row r="21" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B21" s="104"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="99"/>
+    </row>
+    <row r="22" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B22" s="104"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="99"/>
+    </row>
+    <row r="23" spans="2:9" s="44" customFormat="1">
+      <c r="B23" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="95">
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="98">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="95">
+      <c r="G23" s="98">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="95"/>
-      <c r="I23" s="137" t="str">
+      <c r="H23" s="98"/>
+      <c r="I23" s="99" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="45" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="92"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="137"/>
-    </row>
-    <row r="25" spans="2:9" s="45" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="96" t="s">
+    <row r="24" spans="2:9" s="44" customFormat="1" ht="15" thickBot="1">
+      <c r="B24" s="95"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
+    </row>
+    <row r="25" spans="2:9" s="44" customFormat="1" ht="24" customHeight="1" thickTop="1">
+      <c r="B25" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-    </row>
-    <row r="26" spans="2:9" s="45" customFormat="1">
-      <c r="B26" s="44" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+    </row>
+    <row r="26" spans="2:9" s="44" customFormat="1">
+      <c r="B26" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-    </row>
-    <row r="27" spans="2:9" s="45" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-    </row>
-    <row r="28" spans="2:9" s="45" customFormat="1">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="91" t="s">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+    </row>
+    <row r="27" spans="2:9" s="44" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+    </row>
+    <row r="28" spans="2:9" s="44" customFormat="1">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="44"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="43"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="91" t="s">
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="37"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="31" spans="2:9">
       <c r="F31" s="12"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="2:9">
       <c r="F32" s="8"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="37">

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -721,7 +721,7 @@
     <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1402,237 +1402,237 @@
     <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="181" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1677,7 +1677,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1732,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,8 +2062,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2077,14 +2077,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="D1" s="67" t="s">
+      <c r="B1" s="65"/>
+      <c r="D1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="68"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -2094,8 +2094,8 @@
       <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -2107,8 +2107,8 @@
       <c r="C3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="30" t="s">
@@ -2120,8 +2120,8 @@
       <c r="C4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="30" t="s">
@@ -2131,21 +2131,21 @@
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="63" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="32" t="s">
@@ -2155,8 +2155,8 @@
       <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="70"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="30" t="s">
@@ -2168,8 +2168,8 @@
       <c r="C8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -2179,8 +2179,8 @@
       <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="30" t="s">
@@ -2192,8 +2192,8 @@
       <c r="C10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="30" t="s">
@@ -2205,8 +2205,8 @@
       <c r="C11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="30" t="s">
@@ -2218,8 +2218,8 @@
       <c r="C12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="70"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -2231,34 +2231,34 @@
       <c r="C13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="136" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="136" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="30" t="s">
@@ -2268,8 +2268,8 @@
       <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="70"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -2279,8 +2279,8 @@
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="30" t="s">
@@ -2290,8 +2290,8 @@
       <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="30" t="s">
@@ -2303,8 +2303,8 @@
       <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="30" t="s">
@@ -2316,21 +2316,21 @@
       <c r="C20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="69"/>
-      <c r="E20" s="70"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="135" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="30" t="s">
@@ -2340,8 +2340,8 @@
       <c r="C22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="23" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -2351,8 +2351,8 @@
       <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -2362,21 +2362,21 @@
       <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="70"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="1:5" s="17" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="63" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="70"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -2388,8 +2388,8 @@
       <c r="C26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="70"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="69"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="31" t="s">
@@ -2401,8 +2401,8 @@
       <c r="C27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
     </row>
     <row r="28" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="31" t="s">
@@ -2412,8 +2412,8 @@
       <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="70"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="31" t="s">
@@ -2425,8 +2425,8 @@
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="31" t="s">
@@ -2438,8 +2438,8 @@
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="10"/>
@@ -2493,7 +2493,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H1" activeCellId="2" sqref="E14 C14 H1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2518,11 +2518,11 @@
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="88" t="str">
+      <c r="H1" s="138" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
-      <c r="I1" s="88"/>
+      <c r="I1" s="138"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="B2" s="12"/>
@@ -2533,49 +2533,49 @@
       <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="89" t="str">
+      <c r="H2" s="75" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="89"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="21"/>
       <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="89" t="str">
+      <c r="H3" s="75" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="89"/>
+      <c r="I3" s="75"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="58.9" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="91" t="str">
+      <c r="G4" s="72" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="91"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2583,103 +2583,103 @@
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="91" t="str">
+      <c r="G5" s="72" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="91"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
     </row>
     <row r="10" spans="1:11" ht="49.15" customHeight="1">
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="81" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="61" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
@@ -2689,28 +2689,28 @@
       <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="83" t="str">
+      <c r="C13" s="87" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="84"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="88"/>
       <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="65" t="str">
+      <c r="C14" s="137" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="65" t="str">
+      <c r="E14" s="137" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
@@ -2722,39 +2722,39 @@
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="80" t="str">
+      <c r="C15" s="84" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="85"/>
       <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:11" ht="43.9" customHeight="1">
       <c r="B16" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="85" t="str">
+      <c r="C16" s="89" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="87"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
       <c r="H16" s="55"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="62" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
@@ -2779,58 +2779,58 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" ht="13.15" customHeight="1">
@@ -2844,25 +2844,25 @@
     </row>
     <row r="26" spans="2:8" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73" t="s">
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="73"/>
+      <c r="H26" s="77"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3"/>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
       <c r="G27" s="57"/>
       <c r="H27" s="58"/>
     </row>
@@ -2946,23 +2946,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B24:G24"/>
@@ -2979,6 +2962,23 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2993,8 +2993,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3580,74 +3580,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="132" t="s">
+      <c r="B1" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
     </row>
     <row r="5" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="C5" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="137"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
       <c r="F5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="135" t="s">
+      <c r="G5" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="136"/>
-      <c r="I5" s="137"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="97"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="36"/>
@@ -3660,141 +3660,141 @@
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="121" t="str">
+      <c r="C9" s="105" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="122"/>
-      <c r="E9" s="120" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="102" t="str">
+      <c r="F9" s="104" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="102"/>
-      <c r="H9" s="125" t="s">
+      <c r="G9" s="104"/>
+      <c r="H9" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="127" t="str">
+      <c r="I9" s="139" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="102"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="126"/>
-      <c r="I10" s="127"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="139"/>
     </row>
     <row r="11" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129" t="str">
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="131"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="114"/>
       <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129" t="str">
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="131"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="114"/>
     </row>
     <row r="13" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="115" t="str">
+      <c r="C13" s="98" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="117"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
     </row>
     <row r="14" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="115" t="str">
+      <c r="C14" s="98" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="117"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
     </row>
     <row r="15" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="101" t="str">
+      <c r="C15" s="117" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="36"/>
@@ -3838,101 +3838,101 @@
       <c r="B19" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="103"/>
+      <c r="H19" s="118"/>
       <c r="I19" s="46" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="119" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="105" t="str">
+      <c r="C20" s="120" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="106"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="114">
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="129">
         <v>1</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="99" t="str">
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="115" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="104"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="99"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="115"/>
     </row>
     <row r="22" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="104"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="99"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="115"/>
     </row>
     <row r="23" spans="2:9" s="44" customFormat="1">
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="98">
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="130">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="98">
+      <c r="G23" s="130">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="98"/>
-      <c r="I23" s="99" t="str">
+      <c r="H23" s="130"/>
+      <c r="I23" s="115" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="44" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="95"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="99"/>
+      <c r="B24" s="132"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="115"/>
     </row>
     <row r="25" spans="2:9" s="44" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
@@ -3964,11 +3964,11 @@
       <c r="C28" s="47"/>
       <c r="D28" s="43"/>
       <c r="E28" s="47"/>
-      <c r="F28" s="94" t="s">
+      <c r="F28" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
       <c r="I28" s="43"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3976,11 +3976,11 @@
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="94" t="s">
+      <c r="F29" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
       <c r="I29" s="36"/>
     </row>
     <row r="31" spans="2:9">
@@ -3995,12 +3995,23 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -4015,23 +4026,12 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -721,7 +721,7 @@
     <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -833,6 +833,8 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -862,6 +864,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1238,7 +1242,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1408,6 +1412,17 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1429,6 +1444,60 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1438,55 +1507,118 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1507,142 +1639,17 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="標準 6" xfId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1677,7 +1684,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1739,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1780,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2062,8 +2069,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2077,14 +2084,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="68"/>
+      <c r="D1" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="67"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -2094,34 +2101,34 @@
       <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="140" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="140" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="72"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="30" t="s">
@@ -2131,8 +2138,8 @@
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1">
       <c r="A6" s="32" t="s">
@@ -2144,8 +2151,8 @@
       <c r="C6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="32" t="s">
@@ -2155,8 +2162,8 @@
       <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="30" t="s">
@@ -2168,8 +2175,8 @@
       <c r="C8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -2179,8 +2186,8 @@
       <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="30" t="s">
@@ -2192,8 +2199,8 @@
       <c r="C10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="30" t="s">
@@ -2205,8 +2212,8 @@
       <c r="C11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="30" t="s">
@@ -2218,8 +2225,8 @@
       <c r="C12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -2231,34 +2238,34 @@
       <c r="C13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="66" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="66" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="30" t="s">
@@ -2268,8 +2275,8 @@
       <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -2279,8 +2286,8 @@
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="30" t="s">
@@ -2290,8 +2297,8 @@
       <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="30" t="s">
@@ -2303,8 +2310,8 @@
       <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="30" t="s">
@@ -2316,21 +2323,21 @@
       <c r="C20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="65" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="30" t="s">
@@ -2340,8 +2347,8 @@
       <c r="C22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
     </row>
     <row r="23" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -2351,8 +2358,8 @@
       <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
     </row>
     <row r="24" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -2362,8 +2369,8 @@
       <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
     </row>
     <row r="25" spans="1:5" s="17" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="64" t="s">
@@ -2375,8 +2382,8 @@
       <c r="C25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="72"/>
     </row>
     <row r="26" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="31" t="s">
@@ -2388,8 +2395,8 @@
       <c r="C26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="72"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="31" t="s">
@@ -2401,8 +2408,8 @@
       <c r="C27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="72"/>
     </row>
     <row r="28" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="31" t="s">
@@ -2412,8 +2419,8 @@
       <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="31" t="s">
@@ -2425,8 +2432,8 @@
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="72"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="31" t="s">
@@ -2438,39 +2445,39 @@
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-    </row>
-    <row r="33" spans="1:3" ht="13.5">
+      <c r="D30" s="73"/>
+      <c r="E30" s="74"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:3" ht="13.5">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="10"/>
     </row>
-    <row r="35" spans="1:3" ht="13.5">
+    <row r="35" spans="1:3" ht="15">
       <c r="A35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="11" customFormat="1" ht="13.5">
+    <row r="36" spans="1:3" s="11" customFormat="1" ht="15">
       <c r="A36" s="10"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="11" customFormat="1" ht="13.5">
+    <row r="37" spans="1:3" s="11" customFormat="1" ht="15">
       <c r="A37" s="10"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="11" customFormat="1" ht="13.5">
+    <row r="38" spans="1:3" s="11" customFormat="1" ht="15">
       <c r="A38" s="10"/>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3" s="11" customFormat="1" ht="13.5">
+    <row r="39" spans="1:3" s="11" customFormat="1" ht="15">
       <c r="A39" s="10"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" s="11" customFormat="1" ht="13.5">
+    <row r="40" spans="1:3" s="11" customFormat="1" ht="15">
       <c r="A40" s="10"/>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="1:3" s="11" customFormat="1" ht="13.5">
+    <row r="41" spans="1:3" s="11" customFormat="1" ht="15">
       <c r="A41" s="10"/>
       <c r="C41" s="9"/>
     </row>
@@ -2492,8 +2499,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="2" sqref="E14 C14 H1:I1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2518,11 +2525,11 @@
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="138" t="str">
+      <c r="H1" s="90" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
-      <c r="I1" s="138"/>
+      <c r="I1" s="90"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="B2" s="12"/>
@@ -2533,49 +2540,49 @@
       <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="75" t="str">
+      <c r="H2" s="91" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="75"/>
+      <c r="I2" s="91"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="93"/>
+      <c r="D3" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="21"/>
       <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="75" t="str">
+      <c r="H3" s="91" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="75"/>
+      <c r="I3" s="91"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="58.9" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="72" t="str">
+      <c r="G4" s="93" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="72"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2583,103 +2590,103 @@
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="72" t="str">
+      <c r="G5" s="93" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="72"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:11" ht="49.15" customHeight="1">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="61" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
@@ -2689,28 +2696,28 @@
       <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="87" t="str">
+      <c r="C13" s="85" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="56"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="137" t="str">
+      <c r="C14" s="67" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="137" t="str">
+      <c r="E14" s="67" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
@@ -2722,39 +2729,39 @@
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="84" t="str">
+      <c r="C15" s="82" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:11" ht="43.9" customHeight="1">
       <c r="B16" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="89" t="str">
+      <c r="C16" s="87" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
       <c r="H16" s="55"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="62" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
@@ -2779,58 +2786,58 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" ht="13.15" customHeight="1">
@@ -2844,25 +2851,25 @@
     </row>
     <row r="26" spans="2:8" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="77"/>
+      <c r="H26" s="75"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3"/>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
       <c r="G27" s="57"/>
       <c r="H27" s="58"/>
     </row>
@@ -2946,6 +2953,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B24:G24"/>
@@ -2962,23 +2986,6 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2993,8 +3000,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3580,74 +3587,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
     </row>
     <row r="3" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
     </row>
     <row r="4" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="136" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
     </row>
     <row r="5" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="139"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="36"/>
@@ -3660,39 +3667,39 @@
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
     </row>
     <row r="9" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="105" t="str">
+      <c r="C9" s="123" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="103" t="s">
+      <c r="D9" s="124"/>
+      <c r="E9" s="122" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="104" t="str">
@@ -3700,95 +3707,95 @@
         <v>${pd.contractnumber}</v>
       </c>
       <c r="G9" s="104"/>
-      <c r="H9" s="109" t="s">
+      <c r="H9" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="139" t="str">
+      <c r="I9" s="129" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
       <c r="B10" s="104"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="126"/>
       <c r="E10" s="104"/>
       <c r="F10" s="104"/>
       <c r="G10" s="104"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="139"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
     </row>
     <row r="11" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112" t="str">
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="131" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
       <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112" t="str">
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="133"/>
     </row>
     <row r="13" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="98" t="str">
+      <c r="C13" s="117" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="98" t="str">
+      <c r="C14" s="117" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="117" t="str">
+      <c r="C15" s="103" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
       <c r="F15" s="52" t="s">
         <v>60</v>
       </c>
@@ -3838,101 +3845,101 @@
       <c r="B19" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="105" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="105" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="118"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="46" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="120" t="str">
+      <c r="C20" s="107" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="129">
+      <c r="D20" s="108"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="116">
         <v>1</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="115" t="str">
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="119"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="115"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="101"/>
     </row>
     <row r="22" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="119"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="115"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
     </row>
     <row r="23" spans="2:9" s="44" customFormat="1">
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="130">
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="100">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="130">
+      <c r="G23" s="100">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="130"/>
-      <c r="I23" s="115" t="str">
+      <c r="H23" s="100"/>
+      <c r="I23" s="101" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="44" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="132"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="115"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
     </row>
     <row r="25" spans="2:9" s="44" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
@@ -3964,11 +3971,11 @@
       <c r="C28" s="47"/>
       <c r="D28" s="43"/>
       <c r="E28" s="47"/>
-      <c r="F28" s="131" t="s">
+      <c r="F28" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
       <c r="I28" s="43"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3976,11 +3983,11 @@
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="131" t="s">
+      <c r="F29" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
       <c r="I29" s="36"/>
     </row>
     <row r="31" spans="2:9">
@@ -3995,23 +4002,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -4026,12 +4022,23 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1382,12 +1382,6 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1399,9 +1393,6 @@
     </xf>
     <xf numFmtId="7" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="7" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1423,6 +1414,9 @@
     <xf numFmtId="179" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1444,6 +1438,15 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1638,9 +1641,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2069,7 +2069,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2084,14 +2084,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="66"/>
+      <c r="D1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -2101,34 +2101,34 @@
       <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="65" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="65" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="71"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="30" t="s">
@@ -2138,21 +2138,21 @@
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="60" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="32" t="s">
@@ -2162,21 +2162,21 @@
       <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -2186,86 +2186,86 @@
       <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="57" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="57" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="63" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="63" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="72"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="30" t="s">
@@ -2275,8 +2275,8 @@
       <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="72"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -2286,8 +2286,8 @@
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="72"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="30" t="s">
@@ -2297,8 +2297,8 @@
       <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="30" t="s">
@@ -2310,34 +2310,34 @@
       <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="71"/>
-      <c r="E19" s="72"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="58" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="71"/>
-      <c r="E20" s="72"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="62" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="71"/>
-      <c r="E21" s="72"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="30" t="s">
@@ -2347,8 +2347,8 @@
       <c r="C22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="72"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
     </row>
     <row r="23" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -2358,8 +2358,8 @@
       <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -2369,47 +2369,47 @@
       <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
     </row>
     <row r="25" spans="1:5" s="17" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="60" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="72"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="57" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="72"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="57" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="72"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="31" t="s">
@@ -2419,8 +2419,8 @@
       <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="71"/>
-      <c r="E28" s="72"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="31" t="s">
@@ -2432,8 +2432,8 @@
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="71"/>
-      <c r="E29" s="72"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="31" t="s">
@@ -2445,39 +2445,39 @@
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="74"/>
-    </row>
-    <row r="33" spans="1:3" ht="15">
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
+    </row>
+    <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="10"/>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="13.5">
       <c r="A34" s="10"/>
     </row>
-    <row r="35" spans="1:3" ht="15">
+    <row r="35" spans="1:3" ht="13.5">
       <c r="A35" s="10"/>
     </row>
-    <row r="36" spans="1:3" s="11" customFormat="1" ht="15">
+    <row r="36" spans="1:3" s="11" customFormat="1" ht="13.5">
       <c r="A36" s="10"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="37" spans="1:3" s="11" customFormat="1" ht="15">
+    <row r="37" spans="1:3" s="11" customFormat="1" ht="13.5">
       <c r="A37" s="10"/>
       <c r="C37" s="9"/>
     </row>
-    <row r="38" spans="1:3" s="11" customFormat="1" ht="15">
+    <row r="38" spans="1:3" s="11" customFormat="1" ht="13.5">
       <c r="A38" s="10"/>
       <c r="C38" s="9"/>
     </row>
-    <row r="39" spans="1:3" s="11" customFormat="1" ht="15">
+    <row r="39" spans="1:3" s="11" customFormat="1" ht="13.5">
       <c r="A39" s="10"/>
       <c r="C39" s="9"/>
     </row>
-    <row r="40" spans="1:3" s="11" customFormat="1" ht="15">
+    <row r="40" spans="1:3" s="11" customFormat="1" ht="13.5">
       <c r="A40" s="10"/>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="1:3" s="11" customFormat="1" ht="15">
+    <row r="41" spans="1:3" s="11" customFormat="1" ht="13.5">
       <c r="A41" s="10"/>
       <c r="C41" s="9"/>
     </row>
@@ -2499,9 +2499,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2525,11 +2523,11 @@
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="90" t="str">
+      <c r="H1" s="91" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
-      <c r="I1" s="90"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="B2" s="12"/>
@@ -2540,49 +2538,49 @@
       <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="91" t="str">
+      <c r="H2" s="92" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="91"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="91" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="91"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="21"/>
       <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="91" t="str">
+      <c r="H3" s="92" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="91"/>
+      <c r="I3" s="92"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="58.9" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="93" t="str">
+      <c r="G4" s="94" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2590,104 +2588,104 @@
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="93" t="str">
+      <c r="G5" s="94" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:11" ht="49.15" customHeight="1">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="61" t="str">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="73" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2696,73 +2694,73 @@
       <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="85" t="str">
+      <c r="C13" s="86" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="56"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="67" t="str">
+      <c r="C14" s="64" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="67" t="str">
+      <c r="E14" s="64" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="56"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:11" ht="53.45" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="82" t="str">
+      <c r="C15" s="83" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="56"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="43.9" customHeight="1">
       <c r="B16" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="87" t="str">
+      <c r="C16" s="88" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="55"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="75"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="62" t="str">
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="59" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2786,58 +2784,58 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" ht="13.15" customHeight="1">
@@ -2851,27 +2849,27 @@
     </row>
     <row r="26" spans="2:8" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="75" t="s">
+      <c r="C26" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75" t="s">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="75"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3"/>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="3"/>
@@ -2952,13 +2950,10 @@
       <c r="H37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
+  <mergeCells count="34">
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C16:G16"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="H3:I3"/>
@@ -2970,6 +2965,11 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="H12:H16"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="B24:G24"/>
@@ -2985,7 +2985,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="E13:G13"/>
-    <mergeCell ref="C16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3000,8 +2999,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3587,74 +3586,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
     </row>
     <row r="4" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="C4" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
     </row>
     <row r="5" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="137" t="s">
+      <c r="G5" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="140"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="36"/>
@@ -3667,141 +3666,141 @@
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
     </row>
     <row r="9" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="123" t="str">
+      <c r="C9" s="124" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="122" t="s">
+      <c r="D9" s="125"/>
+      <c r="E9" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="104" t="str">
+      <c r="F9" s="105" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="127" t="s">
+      <c r="G9" s="105"/>
+      <c r="H9" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="129" t="str">
+      <c r="I9" s="130" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="104"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="129"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131" t="str">
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
       <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131" t="str">
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="134"/>
     </row>
     <row r="13" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="117" t="str">
+      <c r="C13" s="118" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
     </row>
     <row r="14" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="117" t="str">
+      <c r="C14" s="118" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="103" t="str">
+      <c r="C15" s="104" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="103"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="36"/>
@@ -3845,101 +3844,101 @@
       <c r="B19" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="105" t="s">
+      <c r="G19" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="105"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="46" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="107" t="str">
+      <c r="C20" s="108" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="108"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="116">
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="117">
         <v>1</v>
       </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="101" t="str">
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="106"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
     </row>
     <row r="22" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="106"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="2:9" s="44" customFormat="1">
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="100">
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="101">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="100">
+      <c r="G23" s="101">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="100"/>
-      <c r="I23" s="101" t="str">
+      <c r="H23" s="101"/>
+      <c r="I23" s="102" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="44" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="97"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="101"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="2:9" s="44" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
@@ -3971,11 +3970,11 @@
       <c r="C28" s="47"/>
       <c r="D28" s="43"/>
       <c r="E28" s="47"/>
-      <c r="F28" s="96" t="s">
+      <c r="F28" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="43"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3983,11 +3982,11 @@
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="96" t="s">
+      <c r="F29" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="36"/>
     </row>
     <row r="31" spans="2:9">

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -721,7 +721,7 @@
     <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -833,6 +833,8 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -862,6 +864,8 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1238,7 +1242,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1378,12 +1382,6 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1396,9 +1394,6 @@
     <xf numFmtId="7" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="7" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="7" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,6 +1403,20 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1429,6 +1438,69 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1438,55 +1510,118 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -1507,142 +1642,14 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="25" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="19" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="標準 6" xfId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1677,7 +1684,7 @@
         <xdr:cNvPr id="2" name="直線コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1732,7 +1739,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1773,7 +1780,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2062,8 +2069,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2077,14 +2084,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="66"/>
+      <c r="D1" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="67"/>
+      <c r="E1" s="68"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" s="30" t="s">
@@ -2094,34 +2101,34 @@
       <c r="C2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="65" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
       <c r="A4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="65" t="s">
         <v>105</v>
       </c>
       <c r="C4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="30" t="s">
@@ -2131,21 +2138,21 @@
       <c r="C5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1">
       <c r="A6" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="60" t="s">
         <v>106</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1">
       <c r="A7" s="32" t="s">
@@ -2155,21 +2162,21 @@
       <c r="C7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1">
       <c r="A8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="57" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1">
       <c r="A9" s="31" t="s">
@@ -2179,86 +2186,86 @@
       <c r="C9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
       <c r="A10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="57" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="57" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" spans="1:5" ht="15" customHeight="1">
       <c r="A12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="57" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" spans="1:5" ht="15" customHeight="1">
       <c r="A13" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="57" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1">
       <c r="A14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="136" t="s">
+      <c r="B14" s="63" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1">
       <c r="A15" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="63" t="s">
         <v>117</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1">
       <c r="A16" s="30" t="s">
@@ -2268,8 +2275,8 @@
       <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="30" t="s">
@@ -2279,8 +2286,8 @@
       <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="30" t="s">
@@ -2290,8 +2297,8 @@
       <c r="C18" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="30" t="s">
@@ -2303,34 +2310,34 @@
       <c r="C19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="70"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="58" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="70"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="135" t="s">
+      <c r="B21" s="62" t="s">
         <v>118</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="30" t="s">
@@ -2340,8 +2347,8 @@
       <c r="C22" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
     </row>
     <row r="23" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="31" t="s">
@@ -2351,8 +2358,8 @@
       <c r="C23" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
     </row>
     <row r="24" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -2362,47 +2369,47 @@
       <c r="C24" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="70"/>
     </row>
     <row r="25" spans="1:5" s="17" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="60" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="70"/>
     </row>
     <row r="26" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="57" t="s">
         <v>114</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="70"/>
     </row>
     <row r="27" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="57" t="s">
         <v>115</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" spans="1:5" s="17" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="31" t="s">
@@ -2412,8 +2419,8 @@
       <c r="C28" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="70"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1">
       <c r="A29" s="31" t="s">
@@ -2425,8 +2432,8 @@
       <c r="C29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1">
       <c r="A30" s="31" t="s">
@@ -2438,8 +2445,8 @@
       <c r="C30" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
     </row>
     <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="10"/>
@@ -2492,9 +2499,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="2" sqref="E14 C14 H1:I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -2518,11 +2523,11 @@
       <c r="G1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="138" t="str">
+      <c r="H1" s="91" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
-      <c r="I1" s="138"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="B2" s="12"/>
@@ -2533,49 +2538,49 @@
       <c r="G2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="75" t="str">
+      <c r="H2" s="92" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="75"/>
+      <c r="I2" s="92"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="94"/>
+      <c r="D3" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="21"/>
       <c r="G3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="75" t="str">
+      <c r="H3" s="92" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="75"/>
+      <c r="I3" s="92"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="58.9" customHeight="1">
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="72" t="str">
+      <c r="G4" s="94" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="72"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="2"/>
       <c r="K4" s="1"/>
     </row>
@@ -2583,104 +2588,104 @@
       <c r="B5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
       <c r="F5" s="21"/>
-      <c r="G5" s="72" t="str">
+      <c r="G5" s="94" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="72"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="21"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
     </row>
     <row r="10" spans="1:11" ht="49.15" customHeight="1">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="81" t="s">
+      <c r="B12" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="61" t="str">
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="73" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2689,73 +2694,73 @@
       <c r="B13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="87" t="str">
+      <c r="C13" s="86" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="56"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="137" t="str">
+      <c r="C14" s="64" t="str">
         <f>記入!B14</f>
         <v>${statime[0]}</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="137" t="str">
+      <c r="E14" s="64" t="str">
         <f>記入!B15</f>
         <v>${statime[1]}</v>
       </c>
       <c r="F14" s="25"/>
       <c r="G14" s="26"/>
-      <c r="H14" s="56"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:11" ht="53.45" customHeight="1">
       <c r="B15" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="84" t="str">
+      <c r="C15" s="83" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="56"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="43.9" customHeight="1">
       <c r="B16" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="89" t="str">
+      <c r="C16" s="88" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="55"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="75"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="62" t="str">
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="59" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2779,58 +2784,58 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="78"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
       <c r="H24" s="14"/>
     </row>
     <row r="25" spans="2:8" ht="13.15" customHeight="1">
@@ -2844,27 +2849,27 @@
     </row>
     <row r="26" spans="2:8" ht="14.45" customHeight="1">
       <c r="B26" s="7"/>
-      <c r="C26" s="77" t="s">
+      <c r="C26" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77" t="s">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="77"/>
+      <c r="H26" s="76"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="3"/>
-      <c r="C27" s="77" t="s">
+      <c r="C27" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="58"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="3"/>
@@ -2945,22 +2950,9 @@
       <c r="H37" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="E13:G13"/>
+  <mergeCells count="34">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
@@ -2977,8 +2969,22 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2993,8 +2999,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3580,74 +3586,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B3" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
     </row>
     <row r="4" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
     </row>
     <row r="5" spans="1:12" s="35" customFormat="1" ht="24.95" customHeight="1">
       <c r="B5" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="95" t="s">
+      <c r="C5" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="97"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="140"/>
       <c r="F5" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="97"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="140"/>
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="36"/>
@@ -3660,141 +3666,141 @@
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="121"/>
+      <c r="I7" s="121"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
     </row>
     <row r="9" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="105" t="str">
+      <c r="C9" s="124" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="103" t="s">
+      <c r="D9" s="125"/>
+      <c r="E9" s="123" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="104" t="str">
+      <c r="F9" s="105" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="109" t="s">
+      <c r="G9" s="105"/>
+      <c r="H9" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="139" t="str">
+      <c r="I9" s="130" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="35" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="104"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="139"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="111" t="s">
+      <c r="B11" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112" t="str">
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="114"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="134"/>
       <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:12" s="35" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="131" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112" t="str">
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="114"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="134"/>
     </row>
     <row r="13" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="98" t="str">
+      <c r="C13" s="118" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
     </row>
     <row r="14" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="98" t="str">
+      <c r="C14" s="118" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:12" s="40" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="117" t="str">
+      <c r="C15" s="104" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="36"/>
@@ -3838,101 +3844,101 @@
       <c r="B19" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
       <c r="F19" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="118" t="s">
+      <c r="G19" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="118"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="46" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="120" t="str">
+      <c r="C20" s="108" t="str">
         <f>記入!B11</f>
         <v>${pd.pjnamechinese}</v>
       </c>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="129">
+      <c r="D20" s="109"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="117">
         <v>1</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="115" t="str">
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="44" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="119"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="115"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
     </row>
     <row r="22" spans="2:9" s="44" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="119"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="115"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="102"/>
     </row>
     <row r="23" spans="2:9" s="44" customFormat="1">
-      <c r="B23" s="132" t="s">
+      <c r="B23" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="130">
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="101">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="130">
+      <c r="G23" s="101">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="130"/>
-      <c r="I23" s="115" t="str">
+      <c r="H23" s="101"/>
+      <c r="I23" s="102" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="44" customFormat="1" ht="15" thickBot="1">
-      <c r="B24" s="132"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="115"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="2:9" s="44" customFormat="1" ht="24" customHeight="1" thickTop="1">
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="103"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
@@ -3964,11 +3970,11 @@
       <c r="C28" s="47"/>
       <c r="D28" s="43"/>
       <c r="E28" s="47"/>
-      <c r="F28" s="131" t="s">
+      <c r="F28" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
       <c r="I28" s="43"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3976,11 +3982,11 @@
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
       <c r="E29" s="36"/>
-      <c r="F29" s="131" t="s">
+      <c r="F29" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="G29" s="131"/>
-      <c r="H29" s="131"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="36"/>
     </row>
     <row r="31" spans="2:9">
@@ -3995,23 +4001,12 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="C14:I14"/>
     <mergeCell ref="B7:I7"/>
     <mergeCell ref="B8:I8"/>
@@ -4026,12 +4021,23 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="C13:I13"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
+++ b/controller/src/main/resources/jxls_templates/qingqiushu_ribenrmb.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\03_release\newparkcloudRELEASE\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23328" windowHeight="9840" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23325" windowHeight="9840" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -342,36 +342,6 @@
     <t>G.TOTAL</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft GothicNeo"/>
-        <family val="1"/>
-      </rPr>
-      <t>備考：PDF書類はオリジナルデ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei UI"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Microsoft GothicNeo"/>
-        <family val="1"/>
-      </rPr>
-      <t>タであり、紙は送付しません （PS：This invoice is issued in PDF only）</t>
-    </r>
-  </si>
-  <si>
     <t>Issued Sect.: PSDCD Accounting Section</t>
   </si>
   <si>
@@ -491,7 +461,11 @@
   </si>
   <si>
     <t>${pd.pjnamejapanese}</t>
-    <phoneticPr fontId="28" type="noConversion"/>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>備考：PDF書類はオリジナルデータであり、紙は送付しません （PS： This PDF invoice is Original and is issued in PDF only）</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -499,17 +473,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="180" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;US$&quot;#,##0;\-&quot;US$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.00_ "/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="168" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -600,16 +574,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft GothicNeo"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -650,7 +618,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -659,13 +627,6 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -682,7 +643,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -694,6 +655,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -975,14 +944,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="140">
@@ -1049,7 +1018,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,7 +1039,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1082,13 +1051,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1097,83 +1066,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="20" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="179" fontId="21" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1208,49 +1216,91 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,9 +1315,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,95 +1348,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
     <cellStyle name="標準 3" xfId="1"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="標準 6" xfId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1508,7 +1477,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1796,21 +1765,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="45" customWidth="1"/>
     <col min="3" max="3" width="9" style="46" customWidth="1"/>
-    <col min="4" max="4" width="5.109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="4.109375" style="46" customWidth="1"/>
+    <col min="4" max="4" width="5.125" style="46" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="46" customWidth="1"/>
     <col min="6" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.05" customHeight="1">
+    <row r="1" spans="1:5" ht="13.15" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +1837,7 @@
       <c r="D5" s="67"/>
       <c r="E5" s="68"/>
     </row>
-    <row r="6" spans="1:5" ht="25.05" customHeight="1">
+    <row r="6" spans="1:5" ht="25.15" customHeight="1">
       <c r="A6" s="54" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1890,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>6</v>
@@ -2099,7 +2068,7 @@
       <c r="D24" s="67"/>
       <c r="E24" s="68"/>
     </row>
-    <row r="25" spans="1:5" s="44" customFormat="1" ht="25.05" customHeight="1">
+    <row r="25" spans="1:5" s="44" customFormat="1" ht="25.15" customHeight="1">
       <c r="A25" s="61" t="s">
         <v>39</v>
       </c>
@@ -2175,36 +2144,36 @@
       <c r="D30" s="69"/>
       <c r="E30" s="70"/>
     </row>
-    <row r="33" spans="1:3" ht="13.8">
+    <row r="33" spans="1:3" ht="13.5">
       <c r="A33" s="63"/>
     </row>
-    <row r="34" spans="1:3" ht="13.8">
+    <row r="34" spans="1:3" ht="13.5">
       <c r="A34" s="63"/>
     </row>
-    <row r="35" spans="1:3" ht="13.8">
+    <row r="35" spans="1:3" ht="13.5">
       <c r="A35" s="63"/>
     </row>
-    <row r="36" spans="1:3" s="45" customFormat="1" ht="13.8">
+    <row r="36" spans="1:3" s="45" customFormat="1" ht="13.5">
       <c r="A36" s="63"/>
       <c r="C36" s="46"/>
     </row>
-    <row r="37" spans="1:3" s="45" customFormat="1" ht="13.8">
+    <row r="37" spans="1:3" s="45" customFormat="1" ht="13.5">
       <c r="A37" s="63"/>
       <c r="C37" s="46"/>
     </row>
-    <row r="38" spans="1:3" s="45" customFormat="1" ht="13.8">
+    <row r="38" spans="1:3" s="45" customFormat="1" ht="13.5">
       <c r="A38" s="63"/>
       <c r="C38" s="46"/>
     </row>
-    <row r="39" spans="1:3" s="45" customFormat="1" ht="13.8">
+    <row r="39" spans="1:3" s="45" customFormat="1" ht="13.5">
       <c r="A39" s="63"/>
       <c r="C39" s="46"/>
     </row>
-    <row r="40" spans="1:3" s="45" customFormat="1" ht="13.8">
+    <row r="40" spans="1:3" s="45" customFormat="1" ht="13.5">
       <c r="A40" s="63"/>
       <c r="C40" s="46"/>
     </row>
-    <row r="41" spans="1:3" s="45" customFormat="1" ht="13.8">
+    <row r="41" spans="1:3" s="45" customFormat="1" ht="13.5">
       <c r="A41" s="63"/>
       <c r="C41" s="46"/>
     </row>
@@ -2213,7 +2182,7 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E30"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -2225,19 +2194,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:H18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.375" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
+    <col min="9" max="9" width="2.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1">
@@ -2249,11 +2220,11 @@
       <c r="G1" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="94" t="str">
+      <c r="H1" s="71" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
-      <c r="I1" s="94"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:11" ht="24" customHeight="1">
       <c r="B2" s="17"/>
@@ -2264,49 +2235,49 @@
       <c r="G2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="90" t="str">
+      <c r="H2" s="72" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="I2" s="90"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:11" ht="27" customHeight="1">
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="95" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="90"/>
+      <c r="E3" s="72"/>
       <c r="F3" s="23"/>
       <c r="G3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="90" t="str">
+      <c r="H3" s="72" t="str">
         <f>記入!B8</f>
         <v>${pd.businesscode}</v>
       </c>
-      <c r="I3" s="90"/>
+      <c r="I3" s="72"/>
       <c r="K3" s="42"/>
     </row>
-    <row r="4" spans="1:11" ht="58.95" customHeight="1">
+    <row r="4" spans="1:11" ht="58.9" customHeight="1">
       <c r="B4" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="90" t="str">
+      <c r="G4" s="72" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="H4" s="90"/>
+      <c r="H4" s="72"/>
       <c r="I4" s="43"/>
       <c r="K4" s="42"/>
     </row>
@@ -2314,104 +2285,104 @@
       <c r="B5" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="90" t="str">
+      <c r="G5" s="72" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="H5" s="90"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="B6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
     </row>
     <row r="7" spans="1:11" ht="27" customHeight="1">
       <c r="B7" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
     </row>
     <row r="8" spans="1:11" ht="39" customHeight="1">
       <c r="B8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1">
       <c r="B9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-    </row>
-    <row r="10" spans="1:11" ht="49.2" customHeight="1">
-      <c r="B10" s="83" t="s">
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+    </row>
+    <row r="10" spans="1:11" ht="49.15" customHeight="1">
+      <c r="B10" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="72" t="str">
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="85" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
@@ -2420,15 +2391,15 @@
       <c r="B13" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="88" t="str">
+      <c r="C13" s="82" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="73"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="86"/>
     </row>
     <row r="14" spans="1:11" ht="27" customHeight="1">
       <c r="B14" s="26" t="s">
@@ -2447,60 +2418,60 @@
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="73"/>
-    </row>
-    <row r="15" spans="1:11" ht="53.55" customHeight="1">
+      <c r="H14" s="86"/>
+    </row>
+    <row r="15" spans="1:11" ht="53.65" customHeight="1">
       <c r="B15" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="76" t="str">
+      <c r="C15" s="89" t="str">
         <f>記入!B10</f>
         <v>${pd.pjnamejapanese}</v>
       </c>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="73"/>
-    </row>
-    <row r="16" spans="1:11" ht="43.95" customHeight="1">
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:11" ht="43.9" customHeight="1">
       <c r="B16" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="78" t="str">
+      <c r="C16" s="91" t="str">
         <f>記入!B27</f>
         <v>${pd.remarks}</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="74"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="87"/>
     </row>
     <row r="17" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="32" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="22.5" customHeight="1">
-      <c r="B18" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="B18" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
     </row>
     <row r="19" spans="2:8" ht="22.5" customHeight="1">
       <c r="B19" s="33"/>
@@ -2512,61 +2483,61 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="2:8" ht="24" customHeight="1">
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="2:8" ht="24" customHeight="1">
+      <c r="B21" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="2:8" ht="24" customHeight="1">
-      <c r="B21" s="75" t="s">
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="2:8" ht="23.25" customHeight="1">
+      <c r="B22" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="35"/>
-    </row>
-    <row r="22" spans="2:8" ht="23.25" customHeight="1">
-      <c r="B22" s="75" t="s">
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="2:8" ht="24.75" customHeight="1">
+      <c r="B23" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="36"/>
-    </row>
-    <row r="23" spans="2:8" ht="24.75" customHeight="1">
-      <c r="B23" s="75" t="s">
+      <c r="C23" s="88"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="2:8" ht="28.5" customHeight="1">
+      <c r="B24" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="36"/>
-    </row>
-    <row r="24" spans="2:8" ht="28.5" customHeight="1">
-      <c r="B24" s="75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="36"/>
     </row>
-    <row r="25" spans="2:8" ht="13.2" customHeight="1">
+    <row r="25" spans="2:8" ht="13.15" customHeight="1">
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
@@ -2575,31 +2546,31 @@
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
     </row>
-    <row r="26" spans="2:8" ht="14.55" customHeight="1">
+    <row r="26" spans="2:8" ht="14.65" customHeight="1">
       <c r="B26" s="35"/>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71" t="s">
+      <c r="H26" s="84"/>
+    </row>
+    <row r="27" spans="2:8" ht="13.9" customHeight="1">
+      <c r="B27" s="37"/>
+      <c r="C27" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="71"/>
-    </row>
-    <row r="27" spans="2:8" ht="13.95" customHeight="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
       <c r="G27" s="38"/>
       <c r="H27" s="39"/>
     </row>
-    <row r="28" spans="2:8" ht="13.95" customHeight="1">
+    <row r="28" spans="2:8" ht="13.9" customHeight="1">
       <c r="B28" s="37"/>
       <c r="C28" s="40"/>
       <c r="D28" s="40"/>
@@ -2607,7 +2578,7 @@
       <c r="F28" s="40"/>
       <c r="G28" s="37"/>
     </row>
-    <row r="29" spans="2:8" ht="13.95" customHeight="1">
+    <row r="29" spans="2:8" ht="13.9" customHeight="1">
       <c r="B29" s="37"/>
       <c r="C29" s="40"/>
       <c r="D29" s="40"/>
@@ -2615,7 +2586,7 @@
       <c r="F29" s="40"/>
       <c r="G29" s="37"/>
     </row>
-    <row r="30" spans="2:8" ht="13.95" customHeight="1">
+    <row r="30" spans="2:8" ht="13.9" customHeight="1">
       <c r="B30" s="37"/>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -2623,7 +2594,7 @@
       <c r="F30" s="40"/>
       <c r="G30" s="37"/>
     </row>
-    <row r="31" spans="2:8" ht="13.95" customHeight="1">
+    <row r="31" spans="2:8" ht="13.9" customHeight="1">
       <c r="B31" s="37"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
@@ -2631,7 +2602,7 @@
       <c r="F31" s="37"/>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="2:8" ht="13.95" customHeight="1">
+    <row r="32" spans="2:8" ht="13.9" customHeight="1">
       <c r="B32" s="37"/>
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
@@ -2639,7 +2610,7 @@
       <c r="F32" s="37"/>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="2:8" ht="13.95" customHeight="1">
+    <row r="33" spans="2:8" ht="13.9" customHeight="1">
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
@@ -2679,28 +2650,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="H12:H16"/>
     <mergeCell ref="B21:G21"/>
@@ -2714,8 +2663,30 @@
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:H18"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="0.55118110236220497" bottom="0.55118110236220497" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2731,660 +2702,660 @@
       <selection activeCell="F11" sqref="F11:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="2" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="17" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="7" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="0.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="0.625" style="4" hidden="1" customWidth="1"/>
     <col min="11" max="257" width="9" style="4"/>
-    <col min="258" max="258" width="11.33203125" style="4" customWidth="1"/>
-    <col min="259" max="259" width="9.77734375" style="4" customWidth="1"/>
-    <col min="260" max="260" width="8.109375" style="4" customWidth="1"/>
-    <col min="261" max="261" width="12.44140625" style="4" customWidth="1"/>
-    <col min="262" max="262" width="16.21875" style="4" customWidth="1"/>
-    <col min="263" max="263" width="6.109375" style="4" customWidth="1"/>
-    <col min="264" max="264" width="9.33203125" style="4" customWidth="1"/>
-    <col min="265" max="265" width="13.109375" style="4" customWidth="1"/>
+    <col min="258" max="258" width="11.375" style="4" customWidth="1"/>
+    <col min="259" max="259" width="9.75" style="4" customWidth="1"/>
+    <col min="260" max="260" width="8.125" style="4" customWidth="1"/>
+    <col min="261" max="261" width="12.5" style="4" customWidth="1"/>
+    <col min="262" max="262" width="16.25" style="4" customWidth="1"/>
+    <col min="263" max="263" width="6.125" style="4" customWidth="1"/>
+    <col min="264" max="264" width="9.375" style="4" customWidth="1"/>
+    <col min="265" max="265" width="13.125" style="4" customWidth="1"/>
     <col min="266" max="513" width="9" style="4"/>
-    <col min="514" max="514" width="11.33203125" style="4" customWidth="1"/>
-    <col min="515" max="515" width="9.77734375" style="4" customWidth="1"/>
-    <col min="516" max="516" width="8.109375" style="4" customWidth="1"/>
-    <col min="517" max="517" width="12.44140625" style="4" customWidth="1"/>
-    <col min="518" max="518" width="16.21875" style="4" customWidth="1"/>
-    <col min="519" max="519" width="6.109375" style="4" customWidth="1"/>
-    <col min="520" max="520" width="9.33203125" style="4" customWidth="1"/>
-    <col min="521" max="521" width="13.109375" style="4" customWidth="1"/>
+    <col min="514" max="514" width="11.375" style="4" customWidth="1"/>
+    <col min="515" max="515" width="9.75" style="4" customWidth="1"/>
+    <col min="516" max="516" width="8.125" style="4" customWidth="1"/>
+    <col min="517" max="517" width="12.5" style="4" customWidth="1"/>
+    <col min="518" max="518" width="16.25" style="4" customWidth="1"/>
+    <col min="519" max="519" width="6.125" style="4" customWidth="1"/>
+    <col min="520" max="520" width="9.375" style="4" customWidth="1"/>
+    <col min="521" max="521" width="13.125" style="4" customWidth="1"/>
     <col min="522" max="769" width="9" style="4"/>
-    <col min="770" max="770" width="11.33203125" style="4" customWidth="1"/>
-    <col min="771" max="771" width="9.77734375" style="4" customWidth="1"/>
-    <col min="772" max="772" width="8.109375" style="4" customWidth="1"/>
-    <col min="773" max="773" width="12.44140625" style="4" customWidth="1"/>
-    <col min="774" max="774" width="16.21875" style="4" customWidth="1"/>
-    <col min="775" max="775" width="6.109375" style="4" customWidth="1"/>
-    <col min="776" max="776" width="9.33203125" style="4" customWidth="1"/>
-    <col min="777" max="777" width="13.109375" style="4" customWidth="1"/>
+    <col min="770" max="770" width="11.375" style="4" customWidth="1"/>
+    <col min="771" max="771" width="9.75" style="4" customWidth="1"/>
+    <col min="772" max="772" width="8.125" style="4" customWidth="1"/>
+    <col min="773" max="773" width="12.5" style="4" customWidth="1"/>
+    <col min="774" max="774" width="16.25" style="4" customWidth="1"/>
+    <col min="775" max="775" width="6.125" style="4" customWidth="1"/>
+    <col min="776" max="776" width="9.375" style="4" customWidth="1"/>
+    <col min="777" max="777" width="13.125" style="4" customWidth="1"/>
     <col min="778" max="1025" width="9" style="4"/>
-    <col min="1026" max="1026" width="11.33203125" style="4" customWidth="1"/>
-    <col min="1027" max="1027" width="9.77734375" style="4" customWidth="1"/>
-    <col min="1028" max="1028" width="8.109375" style="4" customWidth="1"/>
-    <col min="1029" max="1029" width="12.44140625" style="4" customWidth="1"/>
-    <col min="1030" max="1030" width="16.21875" style="4" customWidth="1"/>
-    <col min="1031" max="1031" width="6.109375" style="4" customWidth="1"/>
-    <col min="1032" max="1032" width="9.33203125" style="4" customWidth="1"/>
-    <col min="1033" max="1033" width="13.109375" style="4" customWidth="1"/>
+    <col min="1026" max="1026" width="11.375" style="4" customWidth="1"/>
+    <col min="1027" max="1027" width="9.75" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="8.125" style="4" customWidth="1"/>
+    <col min="1029" max="1029" width="12.5" style="4" customWidth="1"/>
+    <col min="1030" max="1030" width="16.25" style="4" customWidth="1"/>
+    <col min="1031" max="1031" width="6.125" style="4" customWidth="1"/>
+    <col min="1032" max="1032" width="9.375" style="4" customWidth="1"/>
+    <col min="1033" max="1033" width="13.125" style="4" customWidth="1"/>
     <col min="1034" max="1281" width="9" style="4"/>
-    <col min="1282" max="1282" width="11.33203125" style="4" customWidth="1"/>
-    <col min="1283" max="1283" width="9.77734375" style="4" customWidth="1"/>
-    <col min="1284" max="1284" width="8.109375" style="4" customWidth="1"/>
-    <col min="1285" max="1285" width="12.44140625" style="4" customWidth="1"/>
-    <col min="1286" max="1286" width="16.21875" style="4" customWidth="1"/>
-    <col min="1287" max="1287" width="6.109375" style="4" customWidth="1"/>
-    <col min="1288" max="1288" width="9.33203125" style="4" customWidth="1"/>
-    <col min="1289" max="1289" width="13.109375" style="4" customWidth="1"/>
+    <col min="1282" max="1282" width="11.375" style="4" customWidth="1"/>
+    <col min="1283" max="1283" width="9.75" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="8.125" style="4" customWidth="1"/>
+    <col min="1285" max="1285" width="12.5" style="4" customWidth="1"/>
+    <col min="1286" max="1286" width="16.25" style="4" customWidth="1"/>
+    <col min="1287" max="1287" width="6.125" style="4" customWidth="1"/>
+    <col min="1288" max="1288" width="9.375" style="4" customWidth="1"/>
+    <col min="1289" max="1289" width="13.125" style="4" customWidth="1"/>
     <col min="1290" max="1537" width="9" style="4"/>
-    <col min="1538" max="1538" width="11.33203125" style="4" customWidth="1"/>
-    <col min="1539" max="1539" width="9.77734375" style="4" customWidth="1"/>
-    <col min="1540" max="1540" width="8.109375" style="4" customWidth="1"/>
-    <col min="1541" max="1541" width="12.44140625" style="4" customWidth="1"/>
-    <col min="1542" max="1542" width="16.21875" style="4" customWidth="1"/>
-    <col min="1543" max="1543" width="6.109375" style="4" customWidth="1"/>
-    <col min="1544" max="1544" width="9.33203125" style="4" customWidth="1"/>
-    <col min="1545" max="1545" width="13.109375" style="4" customWidth="1"/>
+    <col min="1538" max="1538" width="11.375" style="4" customWidth="1"/>
+    <col min="1539" max="1539" width="9.75" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="8.125" style="4" customWidth="1"/>
+    <col min="1541" max="1541" width="12.5" style="4" customWidth="1"/>
+    <col min="1542" max="1542" width="16.25" style="4" customWidth="1"/>
+    <col min="1543" max="1543" width="6.125" style="4" customWidth="1"/>
+    <col min="1544" max="1544" width="9.375" style="4" customWidth="1"/>
+    <col min="1545" max="1545" width="13.125" style="4" customWidth="1"/>
     <col min="1546" max="1793" width="9" style="4"/>
-    <col min="1794" max="1794" width="11.33203125" style="4" customWidth="1"/>
-    <col min="1795" max="1795" width="9.77734375" style="4" customWidth="1"/>
-    <col min="1796" max="1796" width="8.109375" style="4" customWidth="1"/>
-    <col min="1797" max="1797" width="12.44140625" style="4" customWidth="1"/>
-    <col min="1798" max="1798" width="16.21875" style="4" customWidth="1"/>
-    <col min="1799" max="1799" width="6.109375" style="4" customWidth="1"/>
-    <col min="1800" max="1800" width="9.33203125" style="4" customWidth="1"/>
-    <col min="1801" max="1801" width="13.109375" style="4" customWidth="1"/>
+    <col min="1794" max="1794" width="11.375" style="4" customWidth="1"/>
+    <col min="1795" max="1795" width="9.75" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="8.125" style="4" customWidth="1"/>
+    <col min="1797" max="1797" width="12.5" style="4" customWidth="1"/>
+    <col min="1798" max="1798" width="16.25" style="4" customWidth="1"/>
+    <col min="1799" max="1799" width="6.125" style="4" customWidth="1"/>
+    <col min="1800" max="1800" width="9.375" style="4" customWidth="1"/>
+    <col min="1801" max="1801" width="13.125" style="4" customWidth="1"/>
     <col min="1802" max="2049" width="9" style="4"/>
-    <col min="2050" max="2050" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2051" max="2051" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2052" max="2052" width="8.109375" style="4" customWidth="1"/>
-    <col min="2053" max="2053" width="12.44140625" style="4" customWidth="1"/>
-    <col min="2054" max="2054" width="16.21875" style="4" customWidth="1"/>
-    <col min="2055" max="2055" width="6.109375" style="4" customWidth="1"/>
-    <col min="2056" max="2056" width="9.33203125" style="4" customWidth="1"/>
-    <col min="2057" max="2057" width="13.109375" style="4" customWidth="1"/>
+    <col min="2050" max="2050" width="11.375" style="4" customWidth="1"/>
+    <col min="2051" max="2051" width="9.75" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="8.125" style="4" customWidth="1"/>
+    <col min="2053" max="2053" width="12.5" style="4" customWidth="1"/>
+    <col min="2054" max="2054" width="16.25" style="4" customWidth="1"/>
+    <col min="2055" max="2055" width="6.125" style="4" customWidth="1"/>
+    <col min="2056" max="2056" width="9.375" style="4" customWidth="1"/>
+    <col min="2057" max="2057" width="13.125" style="4" customWidth="1"/>
     <col min="2058" max="2305" width="9" style="4"/>
-    <col min="2306" max="2306" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2307" max="2307" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2308" max="2308" width="8.109375" style="4" customWidth="1"/>
-    <col min="2309" max="2309" width="12.44140625" style="4" customWidth="1"/>
-    <col min="2310" max="2310" width="16.21875" style="4" customWidth="1"/>
-    <col min="2311" max="2311" width="6.109375" style="4" customWidth="1"/>
-    <col min="2312" max="2312" width="9.33203125" style="4" customWidth="1"/>
-    <col min="2313" max="2313" width="13.109375" style="4" customWidth="1"/>
+    <col min="2306" max="2306" width="11.375" style="4" customWidth="1"/>
+    <col min="2307" max="2307" width="9.75" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="8.125" style="4" customWidth="1"/>
+    <col min="2309" max="2309" width="12.5" style="4" customWidth="1"/>
+    <col min="2310" max="2310" width="16.25" style="4" customWidth="1"/>
+    <col min="2311" max="2311" width="6.125" style="4" customWidth="1"/>
+    <col min="2312" max="2312" width="9.375" style="4" customWidth="1"/>
+    <col min="2313" max="2313" width="13.125" style="4" customWidth="1"/>
     <col min="2314" max="2561" width="9" style="4"/>
-    <col min="2562" max="2562" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2563" max="2563" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2564" max="2564" width="8.109375" style="4" customWidth="1"/>
-    <col min="2565" max="2565" width="12.44140625" style="4" customWidth="1"/>
-    <col min="2566" max="2566" width="16.21875" style="4" customWidth="1"/>
-    <col min="2567" max="2567" width="6.109375" style="4" customWidth="1"/>
-    <col min="2568" max="2568" width="9.33203125" style="4" customWidth="1"/>
-    <col min="2569" max="2569" width="13.109375" style="4" customWidth="1"/>
+    <col min="2562" max="2562" width="11.375" style="4" customWidth="1"/>
+    <col min="2563" max="2563" width="9.75" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="8.125" style="4" customWidth="1"/>
+    <col min="2565" max="2565" width="12.5" style="4" customWidth="1"/>
+    <col min="2566" max="2566" width="16.25" style="4" customWidth="1"/>
+    <col min="2567" max="2567" width="6.125" style="4" customWidth="1"/>
+    <col min="2568" max="2568" width="9.375" style="4" customWidth="1"/>
+    <col min="2569" max="2569" width="13.125" style="4" customWidth="1"/>
     <col min="2570" max="2817" width="9" style="4"/>
-    <col min="2818" max="2818" width="11.33203125" style="4" customWidth="1"/>
-    <col min="2819" max="2819" width="9.77734375" style="4" customWidth="1"/>
-    <col min="2820" max="2820" width="8.109375" style="4" customWidth="1"/>
-    <col min="2821" max="2821" width="12.44140625" style="4" customWidth="1"/>
-    <col min="2822" max="2822" width="16.21875" style="4" customWidth="1"/>
-    <col min="2823" max="2823" width="6.109375" style="4" customWidth="1"/>
-    <col min="2824" max="2824" width="9.33203125" style="4" customWidth="1"/>
-    <col min="2825" max="2825" width="13.109375" style="4" customWidth="1"/>
+    <col min="2818" max="2818" width="11.375" style="4" customWidth="1"/>
+    <col min="2819" max="2819" width="9.75" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="8.125" style="4" customWidth="1"/>
+    <col min="2821" max="2821" width="12.5" style="4" customWidth="1"/>
+    <col min="2822" max="2822" width="16.25" style="4" customWidth="1"/>
+    <col min="2823" max="2823" width="6.125" style="4" customWidth="1"/>
+    <col min="2824" max="2824" width="9.375" style="4" customWidth="1"/>
+    <col min="2825" max="2825" width="13.125" style="4" customWidth="1"/>
     <col min="2826" max="3073" width="9" style="4"/>
-    <col min="3074" max="3074" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3075" max="3075" width="9.77734375" style="4" customWidth="1"/>
-    <col min="3076" max="3076" width="8.109375" style="4" customWidth="1"/>
-    <col min="3077" max="3077" width="12.44140625" style="4" customWidth="1"/>
-    <col min="3078" max="3078" width="16.21875" style="4" customWidth="1"/>
-    <col min="3079" max="3079" width="6.109375" style="4" customWidth="1"/>
-    <col min="3080" max="3080" width="9.33203125" style="4" customWidth="1"/>
-    <col min="3081" max="3081" width="13.109375" style="4" customWidth="1"/>
+    <col min="3074" max="3074" width="11.375" style="4" customWidth="1"/>
+    <col min="3075" max="3075" width="9.75" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="8.125" style="4" customWidth="1"/>
+    <col min="3077" max="3077" width="12.5" style="4" customWidth="1"/>
+    <col min="3078" max="3078" width="16.25" style="4" customWidth="1"/>
+    <col min="3079" max="3079" width="6.125" style="4" customWidth="1"/>
+    <col min="3080" max="3080" width="9.375" style="4" customWidth="1"/>
+    <col min="3081" max="3081" width="13.125" style="4" customWidth="1"/>
     <col min="3082" max="3329" width="9" style="4"/>
-    <col min="3330" max="3330" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3331" max="3331" width="9.77734375" style="4" customWidth="1"/>
-    <col min="3332" max="3332" width="8.109375" style="4" customWidth="1"/>
-    <col min="3333" max="3333" width="12.44140625" style="4" customWidth="1"/>
-    <col min="3334" max="3334" width="16.21875" style="4" customWidth="1"/>
-    <col min="3335" max="3335" width="6.109375" style="4" customWidth="1"/>
-    <col min="3336" max="3336" width="9.33203125" style="4" customWidth="1"/>
-    <col min="3337" max="3337" width="13.109375" style="4" customWidth="1"/>
+    <col min="3330" max="3330" width="11.375" style="4" customWidth="1"/>
+    <col min="3331" max="3331" width="9.75" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="8.125" style="4" customWidth="1"/>
+    <col min="3333" max="3333" width="12.5" style="4" customWidth="1"/>
+    <col min="3334" max="3334" width="16.25" style="4" customWidth="1"/>
+    <col min="3335" max="3335" width="6.125" style="4" customWidth="1"/>
+    <col min="3336" max="3336" width="9.375" style="4" customWidth="1"/>
+    <col min="3337" max="3337" width="13.125" style="4" customWidth="1"/>
     <col min="3338" max="3585" width="9" style="4"/>
-    <col min="3586" max="3586" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3587" max="3587" width="9.77734375" style="4" customWidth="1"/>
-    <col min="3588" max="3588" width="8.109375" style="4" customWidth="1"/>
-    <col min="3589" max="3589" width="12.44140625" style="4" customWidth="1"/>
-    <col min="3590" max="3590" width="16.21875" style="4" customWidth="1"/>
-    <col min="3591" max="3591" width="6.109375" style="4" customWidth="1"/>
-    <col min="3592" max="3592" width="9.33203125" style="4" customWidth="1"/>
-    <col min="3593" max="3593" width="13.109375" style="4" customWidth="1"/>
+    <col min="3586" max="3586" width="11.375" style="4" customWidth="1"/>
+    <col min="3587" max="3587" width="9.75" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="8.125" style="4" customWidth="1"/>
+    <col min="3589" max="3589" width="12.5" style="4" customWidth="1"/>
+    <col min="3590" max="3590" width="16.25" style="4" customWidth="1"/>
+    <col min="3591" max="3591" width="6.125" style="4" customWidth="1"/>
+    <col min="3592" max="3592" width="9.375" style="4" customWidth="1"/>
+    <col min="3593" max="3593" width="13.125" style="4" customWidth="1"/>
     <col min="3594" max="3841" width="9" style="4"/>
-    <col min="3842" max="3842" width="11.33203125" style="4" customWidth="1"/>
-    <col min="3843" max="3843" width="9.77734375" style="4" customWidth="1"/>
-    <col min="3844" max="3844" width="8.109375" style="4" customWidth="1"/>
-    <col min="3845" max="3845" width="12.44140625" style="4" customWidth="1"/>
-    <col min="3846" max="3846" width="16.21875" style="4" customWidth="1"/>
-    <col min="3847" max="3847" width="6.109375" style="4" customWidth="1"/>
-    <col min="3848" max="3848" width="9.33203125" style="4" customWidth="1"/>
-    <col min="3849" max="3849" width="13.109375" style="4" customWidth="1"/>
+    <col min="3842" max="3842" width="11.375" style="4" customWidth="1"/>
+    <col min="3843" max="3843" width="9.75" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="8.125" style="4" customWidth="1"/>
+    <col min="3845" max="3845" width="12.5" style="4" customWidth="1"/>
+    <col min="3846" max="3846" width="16.25" style="4" customWidth="1"/>
+    <col min="3847" max="3847" width="6.125" style="4" customWidth="1"/>
+    <col min="3848" max="3848" width="9.375" style="4" customWidth="1"/>
+    <col min="3849" max="3849" width="13.125" style="4" customWidth="1"/>
     <col min="3850" max="4097" width="9" style="4"/>
-    <col min="4098" max="4098" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4099" max="4099" width="9.77734375" style="4" customWidth="1"/>
-    <col min="4100" max="4100" width="8.109375" style="4" customWidth="1"/>
-    <col min="4101" max="4101" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4102" max="4102" width="16.21875" style="4" customWidth="1"/>
-    <col min="4103" max="4103" width="6.109375" style="4" customWidth="1"/>
-    <col min="4104" max="4104" width="9.33203125" style="4" customWidth="1"/>
-    <col min="4105" max="4105" width="13.109375" style="4" customWidth="1"/>
+    <col min="4098" max="4098" width="11.375" style="4" customWidth="1"/>
+    <col min="4099" max="4099" width="9.75" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="8.125" style="4" customWidth="1"/>
+    <col min="4101" max="4101" width="12.5" style="4" customWidth="1"/>
+    <col min="4102" max="4102" width="16.25" style="4" customWidth="1"/>
+    <col min="4103" max="4103" width="6.125" style="4" customWidth="1"/>
+    <col min="4104" max="4104" width="9.375" style="4" customWidth="1"/>
+    <col min="4105" max="4105" width="13.125" style="4" customWidth="1"/>
     <col min="4106" max="4353" width="9" style="4"/>
-    <col min="4354" max="4354" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4355" max="4355" width="9.77734375" style="4" customWidth="1"/>
-    <col min="4356" max="4356" width="8.109375" style="4" customWidth="1"/>
-    <col min="4357" max="4357" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4358" max="4358" width="16.21875" style="4" customWidth="1"/>
-    <col min="4359" max="4359" width="6.109375" style="4" customWidth="1"/>
-    <col min="4360" max="4360" width="9.33203125" style="4" customWidth="1"/>
-    <col min="4361" max="4361" width="13.109375" style="4" customWidth="1"/>
+    <col min="4354" max="4354" width="11.375" style="4" customWidth="1"/>
+    <col min="4355" max="4355" width="9.75" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="8.125" style="4" customWidth="1"/>
+    <col min="4357" max="4357" width="12.5" style="4" customWidth="1"/>
+    <col min="4358" max="4358" width="16.25" style="4" customWidth="1"/>
+    <col min="4359" max="4359" width="6.125" style="4" customWidth="1"/>
+    <col min="4360" max="4360" width="9.375" style="4" customWidth="1"/>
+    <col min="4361" max="4361" width="13.125" style="4" customWidth="1"/>
     <col min="4362" max="4609" width="9" style="4"/>
-    <col min="4610" max="4610" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4611" max="4611" width="9.77734375" style="4" customWidth="1"/>
-    <col min="4612" max="4612" width="8.109375" style="4" customWidth="1"/>
-    <col min="4613" max="4613" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4614" max="4614" width="16.21875" style="4" customWidth="1"/>
-    <col min="4615" max="4615" width="6.109375" style="4" customWidth="1"/>
-    <col min="4616" max="4616" width="9.33203125" style="4" customWidth="1"/>
-    <col min="4617" max="4617" width="13.109375" style="4" customWidth="1"/>
+    <col min="4610" max="4610" width="11.375" style="4" customWidth="1"/>
+    <col min="4611" max="4611" width="9.75" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="8.125" style="4" customWidth="1"/>
+    <col min="4613" max="4613" width="12.5" style="4" customWidth="1"/>
+    <col min="4614" max="4614" width="16.25" style="4" customWidth="1"/>
+    <col min="4615" max="4615" width="6.125" style="4" customWidth="1"/>
+    <col min="4616" max="4616" width="9.375" style="4" customWidth="1"/>
+    <col min="4617" max="4617" width="13.125" style="4" customWidth="1"/>
     <col min="4618" max="4865" width="9" style="4"/>
-    <col min="4866" max="4866" width="11.33203125" style="4" customWidth="1"/>
-    <col min="4867" max="4867" width="9.77734375" style="4" customWidth="1"/>
-    <col min="4868" max="4868" width="8.109375" style="4" customWidth="1"/>
-    <col min="4869" max="4869" width="12.44140625" style="4" customWidth="1"/>
-    <col min="4870" max="4870" width="16.21875" style="4" customWidth="1"/>
-    <col min="4871" max="4871" width="6.109375" style="4" customWidth="1"/>
-    <col min="4872" max="4872" width="9.33203125" style="4" customWidth="1"/>
-    <col min="4873" max="4873" width="13.109375" style="4" customWidth="1"/>
+    <col min="4866" max="4866" width="11.375" style="4" customWidth="1"/>
+    <col min="4867" max="4867" width="9.75" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="8.125" style="4" customWidth="1"/>
+    <col min="4869" max="4869" width="12.5" style="4" customWidth="1"/>
+    <col min="4870" max="4870" width="16.25" style="4" customWidth="1"/>
+    <col min="4871" max="4871" width="6.125" style="4" customWidth="1"/>
+    <col min="4872" max="4872" width="9.375" style="4" customWidth="1"/>
+    <col min="4873" max="4873" width="13.125" style="4" customWidth="1"/>
     <col min="4874" max="5121" width="9" style="4"/>
-    <col min="5122" max="5122" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5123" max="5123" width="9.77734375" style="4" customWidth="1"/>
-    <col min="5124" max="5124" width="8.109375" style="4" customWidth="1"/>
-    <col min="5125" max="5125" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5126" max="5126" width="16.21875" style="4" customWidth="1"/>
-    <col min="5127" max="5127" width="6.109375" style="4" customWidth="1"/>
-    <col min="5128" max="5128" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5129" max="5129" width="13.109375" style="4" customWidth="1"/>
+    <col min="5122" max="5122" width="11.375" style="4" customWidth="1"/>
+    <col min="5123" max="5123" width="9.75" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="8.125" style="4" customWidth="1"/>
+    <col min="5125" max="5125" width="12.5" style="4" customWidth="1"/>
+    <col min="5126" max="5126" width="16.25" style="4" customWidth="1"/>
+    <col min="5127" max="5127" width="6.125" style="4" customWidth="1"/>
+    <col min="5128" max="5128" width="9.375" style="4" customWidth="1"/>
+    <col min="5129" max="5129" width="13.125" style="4" customWidth="1"/>
     <col min="5130" max="5377" width="9" style="4"/>
-    <col min="5378" max="5378" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5379" max="5379" width="9.77734375" style="4" customWidth="1"/>
-    <col min="5380" max="5380" width="8.109375" style="4" customWidth="1"/>
-    <col min="5381" max="5381" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5382" max="5382" width="16.21875" style="4" customWidth="1"/>
-    <col min="5383" max="5383" width="6.109375" style="4" customWidth="1"/>
-    <col min="5384" max="5384" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5385" max="5385" width="13.109375" style="4" customWidth="1"/>
+    <col min="5378" max="5378" width="11.375" style="4" customWidth="1"/>
+    <col min="5379" max="5379" width="9.75" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="8.125" style="4" customWidth="1"/>
+    <col min="5381" max="5381" width="12.5" style="4" customWidth="1"/>
+    <col min="5382" max="5382" width="16.25" style="4" customWidth="1"/>
+    <col min="5383" max="5383" width="6.125" style="4" customWidth="1"/>
+    <col min="5384" max="5384" width="9.375" style="4" customWidth="1"/>
+    <col min="5385" max="5385" width="13.125" style="4" customWidth="1"/>
     <col min="5386" max="5633" width="9" style="4"/>
-    <col min="5634" max="5634" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5635" max="5635" width="9.77734375" style="4" customWidth="1"/>
-    <col min="5636" max="5636" width="8.109375" style="4" customWidth="1"/>
-    <col min="5637" max="5637" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5638" max="5638" width="16.21875" style="4" customWidth="1"/>
-    <col min="5639" max="5639" width="6.109375" style="4" customWidth="1"/>
-    <col min="5640" max="5640" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5641" max="5641" width="13.109375" style="4" customWidth="1"/>
+    <col min="5634" max="5634" width="11.375" style="4" customWidth="1"/>
+    <col min="5635" max="5635" width="9.75" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="8.125" style="4" customWidth="1"/>
+    <col min="5637" max="5637" width="12.5" style="4" customWidth="1"/>
+    <col min="5638" max="5638" width="16.25" style="4" customWidth="1"/>
+    <col min="5639" max="5639" width="6.125" style="4" customWidth="1"/>
+    <col min="5640" max="5640" width="9.375" style="4" customWidth="1"/>
+    <col min="5641" max="5641" width="13.125" style="4" customWidth="1"/>
     <col min="5642" max="5889" width="9" style="4"/>
-    <col min="5890" max="5890" width="11.33203125" style="4" customWidth="1"/>
-    <col min="5891" max="5891" width="9.77734375" style="4" customWidth="1"/>
-    <col min="5892" max="5892" width="8.109375" style="4" customWidth="1"/>
-    <col min="5893" max="5893" width="12.44140625" style="4" customWidth="1"/>
-    <col min="5894" max="5894" width="16.21875" style="4" customWidth="1"/>
-    <col min="5895" max="5895" width="6.109375" style="4" customWidth="1"/>
-    <col min="5896" max="5896" width="9.33203125" style="4" customWidth="1"/>
-    <col min="5897" max="5897" width="13.109375" style="4" customWidth="1"/>
+    <col min="5890" max="5890" width="11.375" style="4" customWidth="1"/>
+    <col min="5891" max="5891" width="9.75" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="8.125" style="4" customWidth="1"/>
+    <col min="5893" max="5893" width="12.5" style="4" customWidth="1"/>
+    <col min="5894" max="5894" width="16.25" style="4" customWidth="1"/>
+    <col min="5895" max="5895" width="6.125" style="4" customWidth="1"/>
+    <col min="5896" max="5896" width="9.375" style="4" customWidth="1"/>
+    <col min="5897" max="5897" width="13.125" style="4" customWidth="1"/>
     <col min="5898" max="6145" width="9" style="4"/>
-    <col min="6146" max="6146" width="11.33203125" style="4" customWidth="1"/>
-    <col min="6147" max="6147" width="9.77734375" style="4" customWidth="1"/>
-    <col min="6148" max="6148" width="8.109375" style="4" customWidth="1"/>
-    <col min="6149" max="6149" width="12.44140625" style="4" customWidth="1"/>
-    <col min="6150" max="6150" width="16.21875" style="4" customWidth="1"/>
-    <col min="6151" max="6151" width="6.109375" style="4" customWidth="1"/>
-    <col min="6152" max="6152" width="9.33203125" style="4" customWidth="1"/>
-    <col min="6153" max="6153" width="13.109375" style="4" customWidth="1"/>
+    <col min="6146" max="6146" width="11.375" style="4" customWidth="1"/>
+    <col min="6147" max="6147" width="9.75" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="8.125" style="4" customWidth="1"/>
+    <col min="6149" max="6149" width="12.5" style="4" customWidth="1"/>
+    <col min="6150" max="6150" width="16.25" style="4" customWidth="1"/>
+    <col min="6151" max="6151" width="6.125" style="4" customWidth="1"/>
+    <col min="6152" max="6152" width="9.375" style="4" customWidth="1"/>
+    <col min="6153" max="6153" width="13.125" style="4" customWidth="1"/>
     <col min="6154" max="6401" width="9" style="4"/>
-    <col min="6402" max="6402" width="11.33203125" style="4" customWidth="1"/>
-    <col min="6403" max="6403" width="9.77734375" style="4" customWidth="1"/>
-    <col min="6404" max="6404" width="8.109375" style="4" customWidth="1"/>
-    <col min="6405" max="6405" width="12.44140625" style="4" customWidth="1"/>
-    <col min="6406" max="6406" width="16.21875" style="4" customWidth="1"/>
-    <col min="6407" max="6407" width="6.109375" style="4" customWidth="1"/>
-    <col min="6408" max="6408" width="9.33203125" style="4" customWidth="1"/>
-    <col min="6409" max="6409" width="13.109375" style="4" customWidth="1"/>
+    <col min="6402" max="6402" width="11.375" style="4" customWidth="1"/>
+    <col min="6403" max="6403" width="9.75" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="8.125" style="4" customWidth="1"/>
+    <col min="6405" max="6405" width="12.5" style="4" customWidth="1"/>
+    <col min="6406" max="6406" width="16.25" style="4" customWidth="1"/>
+    <col min="6407" max="6407" width="6.125" style="4" customWidth="1"/>
+    <col min="6408" max="6408" width="9.375" style="4" customWidth="1"/>
+    <col min="6409" max="6409" width="13.125" style="4" customWidth="1"/>
     <col min="6410" max="6657" width="9" style="4"/>
-    <col min="6658" max="6658" width="11.33203125" style="4" customWidth="1"/>
-    <col min="6659" max="6659" width="9.77734375" style="4" customWidth="1"/>
-    <col min="6660" max="6660" width="8.109375" style="4" customWidth="1"/>
-    <col min="6661" max="6661" width="12.44140625" style="4" customWidth="1"/>
-    <col min="6662" max="6662" width="16.21875" style="4" customWidth="1"/>
-    <col min="6663" max="6663" width="6.109375" style="4" customWidth="1"/>
-    <col min="6664" max="6664" width="9.33203125" style="4" customWidth="1"/>
-    <col min="6665" max="6665" width="13.109375" style="4" customWidth="1"/>
+    <col min="6658" max="6658" width="11.375" style="4" customWidth="1"/>
+    <col min="6659" max="6659" width="9.75" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="8.125" style="4" customWidth="1"/>
+    <col min="6661" max="6661" width="12.5" style="4" customWidth="1"/>
+    <col min="6662" max="6662" width="16.25" style="4" customWidth="1"/>
+    <col min="6663" max="6663" width="6.125" style="4" customWidth="1"/>
+    <col min="6664" max="6664" width="9.375" style="4" customWidth="1"/>
+    <col min="6665" max="6665" width="13.125" style="4" customWidth="1"/>
     <col min="6666" max="6913" width="9" style="4"/>
-    <col min="6914" max="6914" width="11.33203125" style="4" customWidth="1"/>
-    <col min="6915" max="6915" width="9.77734375" style="4" customWidth="1"/>
-    <col min="6916" max="6916" width="8.109375" style="4" customWidth="1"/>
-    <col min="6917" max="6917" width="12.44140625" style="4" customWidth="1"/>
-    <col min="6918" max="6918" width="16.21875" style="4" customWidth="1"/>
-    <col min="6919" max="6919" width="6.109375" style="4" customWidth="1"/>
-    <col min="6920" max="6920" width="9.33203125" style="4" customWidth="1"/>
-    <col min="6921" max="6921" width="13.109375" style="4" customWidth="1"/>
+    <col min="6914" max="6914" width="11.375" style="4" customWidth="1"/>
+    <col min="6915" max="6915" width="9.75" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="8.125" style="4" customWidth="1"/>
+    <col min="6917" max="6917" width="12.5" style="4" customWidth="1"/>
+    <col min="6918" max="6918" width="16.25" style="4" customWidth="1"/>
+    <col min="6919" max="6919" width="6.125" style="4" customWidth="1"/>
+    <col min="6920" max="6920" width="9.375" style="4" customWidth="1"/>
+    <col min="6921" max="6921" width="13.125" style="4" customWidth="1"/>
     <col min="6922" max="7169" width="9" style="4"/>
-    <col min="7170" max="7170" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7171" max="7171" width="9.77734375" style="4" customWidth="1"/>
-    <col min="7172" max="7172" width="8.109375" style="4" customWidth="1"/>
-    <col min="7173" max="7173" width="12.44140625" style="4" customWidth="1"/>
-    <col min="7174" max="7174" width="16.21875" style="4" customWidth="1"/>
-    <col min="7175" max="7175" width="6.109375" style="4" customWidth="1"/>
-    <col min="7176" max="7176" width="9.33203125" style="4" customWidth="1"/>
-    <col min="7177" max="7177" width="13.109375" style="4" customWidth="1"/>
+    <col min="7170" max="7170" width="11.375" style="4" customWidth="1"/>
+    <col min="7171" max="7171" width="9.75" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="8.125" style="4" customWidth="1"/>
+    <col min="7173" max="7173" width="12.5" style="4" customWidth="1"/>
+    <col min="7174" max="7174" width="16.25" style="4" customWidth="1"/>
+    <col min="7175" max="7175" width="6.125" style="4" customWidth="1"/>
+    <col min="7176" max="7176" width="9.375" style="4" customWidth="1"/>
+    <col min="7177" max="7177" width="13.125" style="4" customWidth="1"/>
     <col min="7178" max="7425" width="9" style="4"/>
-    <col min="7426" max="7426" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7427" max="7427" width="9.77734375" style="4" customWidth="1"/>
-    <col min="7428" max="7428" width="8.109375" style="4" customWidth="1"/>
-    <col min="7429" max="7429" width="12.44140625" style="4" customWidth="1"/>
-    <col min="7430" max="7430" width="16.21875" style="4" customWidth="1"/>
-    <col min="7431" max="7431" width="6.109375" style="4" customWidth="1"/>
-    <col min="7432" max="7432" width="9.33203125" style="4" customWidth="1"/>
-    <col min="7433" max="7433" width="13.109375" style="4" customWidth="1"/>
+    <col min="7426" max="7426" width="11.375" style="4" customWidth="1"/>
+    <col min="7427" max="7427" width="9.75" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="8.125" style="4" customWidth="1"/>
+    <col min="7429" max="7429" width="12.5" style="4" customWidth="1"/>
+    <col min="7430" max="7430" width="16.25" style="4" customWidth="1"/>
+    <col min="7431" max="7431" width="6.125" style="4" customWidth="1"/>
+    <col min="7432" max="7432" width="9.375" style="4" customWidth="1"/>
+    <col min="7433" max="7433" width="13.125" style="4" customWidth="1"/>
     <col min="7434" max="7681" width="9" style="4"/>
-    <col min="7682" max="7682" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7683" max="7683" width="9.77734375" style="4" customWidth="1"/>
-    <col min="7684" max="7684" width="8.109375" style="4" customWidth="1"/>
-    <col min="7685" max="7685" width="12.44140625" style="4" customWidth="1"/>
-    <col min="7686" max="7686" width="16.21875" style="4" customWidth="1"/>
-    <col min="7687" max="7687" width="6.109375" style="4" customWidth="1"/>
-    <col min="7688" max="7688" width="9.33203125" style="4" customWidth="1"/>
-    <col min="7689" max="7689" width="13.109375" style="4" customWidth="1"/>
+    <col min="7682" max="7682" width="11.375" style="4" customWidth="1"/>
+    <col min="7683" max="7683" width="9.75" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="8.125" style="4" customWidth="1"/>
+    <col min="7685" max="7685" width="12.5" style="4" customWidth="1"/>
+    <col min="7686" max="7686" width="16.25" style="4" customWidth="1"/>
+    <col min="7687" max="7687" width="6.125" style="4" customWidth="1"/>
+    <col min="7688" max="7688" width="9.375" style="4" customWidth="1"/>
+    <col min="7689" max="7689" width="13.125" style="4" customWidth="1"/>
     <col min="7690" max="7937" width="9" style="4"/>
-    <col min="7938" max="7938" width="11.33203125" style="4" customWidth="1"/>
-    <col min="7939" max="7939" width="9.77734375" style="4" customWidth="1"/>
-    <col min="7940" max="7940" width="8.109375" style="4" customWidth="1"/>
-    <col min="7941" max="7941" width="12.44140625" style="4" customWidth="1"/>
-    <col min="7942" max="7942" width="16.21875" style="4" customWidth="1"/>
-    <col min="7943" max="7943" width="6.109375" style="4" customWidth="1"/>
-    <col min="7944" max="7944" width="9.33203125" style="4" customWidth="1"/>
-    <col min="7945" max="7945" width="13.109375" style="4" customWidth="1"/>
+    <col min="7938" max="7938" width="11.375" style="4" customWidth="1"/>
+    <col min="7939" max="7939" width="9.75" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="8.125" style="4" customWidth="1"/>
+    <col min="7941" max="7941" width="12.5" style="4" customWidth="1"/>
+    <col min="7942" max="7942" width="16.25" style="4" customWidth="1"/>
+    <col min="7943" max="7943" width="6.125" style="4" customWidth="1"/>
+    <col min="7944" max="7944" width="9.375" style="4" customWidth="1"/>
+    <col min="7945" max="7945" width="13.125" style="4" customWidth="1"/>
     <col min="7946" max="8193" width="9" style="4"/>
-    <col min="8194" max="8194" width="11.33203125" style="4" customWidth="1"/>
-    <col min="8195" max="8195" width="9.77734375" style="4" customWidth="1"/>
-    <col min="8196" max="8196" width="8.109375" style="4" customWidth="1"/>
-    <col min="8197" max="8197" width="12.44140625" style="4" customWidth="1"/>
-    <col min="8198" max="8198" width="16.21875" style="4" customWidth="1"/>
-    <col min="8199" max="8199" width="6.109375" style="4" customWidth="1"/>
-    <col min="8200" max="8200" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8201" max="8201" width="13.109375" style="4" customWidth="1"/>
+    <col min="8194" max="8194" width="11.375" style="4" customWidth="1"/>
+    <col min="8195" max="8195" width="9.75" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="8.125" style="4" customWidth="1"/>
+    <col min="8197" max="8197" width="12.5" style="4" customWidth="1"/>
+    <col min="8198" max="8198" width="16.25" style="4" customWidth="1"/>
+    <col min="8199" max="8199" width="6.125" style="4" customWidth="1"/>
+    <col min="8200" max="8200" width="9.375" style="4" customWidth="1"/>
+    <col min="8201" max="8201" width="13.125" style="4" customWidth="1"/>
     <col min="8202" max="8449" width="9" style="4"/>
-    <col min="8450" max="8450" width="11.33203125" style="4" customWidth="1"/>
-    <col min="8451" max="8451" width="9.77734375" style="4" customWidth="1"/>
-    <col min="8452" max="8452" width="8.109375" style="4" customWidth="1"/>
-    <col min="8453" max="8453" width="12.44140625" style="4" customWidth="1"/>
-    <col min="8454" max="8454" width="16.21875" style="4" customWidth="1"/>
-    <col min="8455" max="8455" width="6.109375" style="4" customWidth="1"/>
-    <col min="8456" max="8456" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8457" max="8457" width="13.109375" style="4" customWidth="1"/>
+    <col min="8450" max="8450" width="11.375" style="4" customWidth="1"/>
+    <col min="8451" max="8451" width="9.75" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="8.125" style="4" customWidth="1"/>
+    <col min="8453" max="8453" width="12.5" style="4" customWidth="1"/>
+    <col min="8454" max="8454" width="16.25" style="4" customWidth="1"/>
+    <col min="8455" max="8455" width="6.125" style="4" customWidth="1"/>
+    <col min="8456" max="8456" width="9.375" style="4" customWidth="1"/>
+    <col min="8457" max="8457" width="13.125" style="4" customWidth="1"/>
     <col min="8458" max="8705" width="9" style="4"/>
-    <col min="8706" max="8706" width="11.33203125" style="4" customWidth="1"/>
-    <col min="8707" max="8707" width="9.77734375" style="4" customWidth="1"/>
-    <col min="8708" max="8708" width="8.109375" style="4" customWidth="1"/>
-    <col min="8709" max="8709" width="12.44140625" style="4" customWidth="1"/>
-    <col min="8710" max="8710" width="16.21875" style="4" customWidth="1"/>
-    <col min="8711" max="8711" width="6.109375" style="4" customWidth="1"/>
-    <col min="8712" max="8712" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8713" max="8713" width="13.109375" style="4" customWidth="1"/>
+    <col min="8706" max="8706" width="11.375" style="4" customWidth="1"/>
+    <col min="8707" max="8707" width="9.75" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="8.125" style="4" customWidth="1"/>
+    <col min="8709" max="8709" width="12.5" style="4" customWidth="1"/>
+    <col min="8710" max="8710" width="16.25" style="4" customWidth="1"/>
+    <col min="8711" max="8711" width="6.125" style="4" customWidth="1"/>
+    <col min="8712" max="8712" width="9.375" style="4" customWidth="1"/>
+    <col min="8713" max="8713" width="13.125" style="4" customWidth="1"/>
     <col min="8714" max="8961" width="9" style="4"/>
-    <col min="8962" max="8962" width="11.33203125" style="4" customWidth="1"/>
-    <col min="8963" max="8963" width="9.77734375" style="4" customWidth="1"/>
-    <col min="8964" max="8964" width="8.109375" style="4" customWidth="1"/>
-    <col min="8965" max="8965" width="12.44140625" style="4" customWidth="1"/>
-    <col min="8966" max="8966" width="16.21875" style="4" customWidth="1"/>
-    <col min="8967" max="8967" width="6.109375" style="4" customWidth="1"/>
-    <col min="8968" max="8968" width="9.33203125" style="4" customWidth="1"/>
-    <col min="8969" max="8969" width="13.109375" style="4" customWidth="1"/>
+    <col min="8962" max="8962" width="11.375" style="4" customWidth="1"/>
+    <col min="8963" max="8963" width="9.75" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="8.125" style="4" customWidth="1"/>
+    <col min="8965" max="8965" width="12.5" style="4" customWidth="1"/>
+    <col min="8966" max="8966" width="16.25" style="4" customWidth="1"/>
+    <col min="8967" max="8967" width="6.125" style="4" customWidth="1"/>
+    <col min="8968" max="8968" width="9.375" style="4" customWidth="1"/>
+    <col min="8969" max="8969" width="13.125" style="4" customWidth="1"/>
     <col min="8970" max="9217" width="9" style="4"/>
-    <col min="9218" max="9218" width="11.33203125" style="4" customWidth="1"/>
-    <col min="9219" max="9219" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9220" max="9220" width="8.109375" style="4" customWidth="1"/>
-    <col min="9221" max="9221" width="12.44140625" style="4" customWidth="1"/>
-    <col min="9222" max="9222" width="16.21875" style="4" customWidth="1"/>
-    <col min="9223" max="9223" width="6.109375" style="4" customWidth="1"/>
-    <col min="9224" max="9224" width="9.33203125" style="4" customWidth="1"/>
-    <col min="9225" max="9225" width="13.109375" style="4" customWidth="1"/>
+    <col min="9218" max="9218" width="11.375" style="4" customWidth="1"/>
+    <col min="9219" max="9219" width="9.75" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="8.125" style="4" customWidth="1"/>
+    <col min="9221" max="9221" width="12.5" style="4" customWidth="1"/>
+    <col min="9222" max="9222" width="16.25" style="4" customWidth="1"/>
+    <col min="9223" max="9223" width="6.125" style="4" customWidth="1"/>
+    <col min="9224" max="9224" width="9.375" style="4" customWidth="1"/>
+    <col min="9225" max="9225" width="13.125" style="4" customWidth="1"/>
     <col min="9226" max="9473" width="9" style="4"/>
-    <col min="9474" max="9474" width="11.33203125" style="4" customWidth="1"/>
-    <col min="9475" max="9475" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9476" max="9476" width="8.109375" style="4" customWidth="1"/>
-    <col min="9477" max="9477" width="12.44140625" style="4" customWidth="1"/>
-    <col min="9478" max="9478" width="16.21875" style="4" customWidth="1"/>
-    <col min="9479" max="9479" width="6.109375" style="4" customWidth="1"/>
-    <col min="9480" max="9480" width="9.33203125" style="4" customWidth="1"/>
-    <col min="9481" max="9481" width="13.109375" style="4" customWidth="1"/>
+    <col min="9474" max="9474" width="11.375" style="4" customWidth="1"/>
+    <col min="9475" max="9475" width="9.75" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="8.125" style="4" customWidth="1"/>
+    <col min="9477" max="9477" width="12.5" style="4" customWidth="1"/>
+    <col min="9478" max="9478" width="16.25" style="4" customWidth="1"/>
+    <col min="9479" max="9479" width="6.125" style="4" customWidth="1"/>
+    <col min="9480" max="9480" width="9.375" style="4" customWidth="1"/>
+    <col min="9481" max="9481" width="13.125" style="4" customWidth="1"/>
     <col min="9482" max="9729" width="9" style="4"/>
-    <col min="9730" max="9730" width="11.33203125" style="4" customWidth="1"/>
-    <col min="9731" max="9731" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9732" max="9732" width="8.109375" style="4" customWidth="1"/>
-    <col min="9733" max="9733" width="12.44140625" style="4" customWidth="1"/>
-    <col min="9734" max="9734" width="16.21875" style="4" customWidth="1"/>
-    <col min="9735" max="9735" width="6.109375" style="4" customWidth="1"/>
-    <col min="9736" max="9736" width="9.33203125" style="4" customWidth="1"/>
-    <col min="9737" max="9737" width="13.109375" style="4" customWidth="1"/>
+    <col min="9730" max="9730" width="11.375" style="4" customWidth="1"/>
+    <col min="9731" max="9731" width="9.75" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="8.125" style="4" customWidth="1"/>
+    <col min="9733" max="9733" width="12.5" style="4" customWidth="1"/>
+    <col min="9734" max="9734" width="16.25" style="4" customWidth="1"/>
+    <col min="9735" max="9735" width="6.125" style="4" customWidth="1"/>
+    <col min="9736" max="9736" width="9.375" style="4" customWidth="1"/>
+    <col min="9737" max="9737" width="13.125" style="4" customWidth="1"/>
     <col min="9738" max="9985" width="9" style="4"/>
-    <col min="9986" max="9986" width="11.33203125" style="4" customWidth="1"/>
-    <col min="9987" max="9987" width="9.77734375" style="4" customWidth="1"/>
-    <col min="9988" max="9988" width="8.109375" style="4" customWidth="1"/>
-    <col min="9989" max="9989" width="12.44140625" style="4" customWidth="1"/>
-    <col min="9990" max="9990" width="16.21875" style="4" customWidth="1"/>
-    <col min="9991" max="9991" width="6.109375" style="4" customWidth="1"/>
-    <col min="9992" max="9992" width="9.33203125" style="4" customWidth="1"/>
-    <col min="9993" max="9993" width="13.109375" style="4" customWidth="1"/>
+    <col min="9986" max="9986" width="11.375" style="4" customWidth="1"/>
+    <col min="9987" max="9987" width="9.75" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="8.125" style="4" customWidth="1"/>
+    <col min="9989" max="9989" width="12.5" style="4" customWidth="1"/>
+    <col min="9990" max="9990" width="16.25" style="4" customWidth="1"/>
+    <col min="9991" max="9991" width="6.125" style="4" customWidth="1"/>
+    <col min="9992" max="9992" width="9.375" style="4" customWidth="1"/>
+    <col min="9993" max="9993" width="13.125" style="4" customWidth="1"/>
     <col min="9994" max="10241" width="9" style="4"/>
-    <col min="10242" max="10242" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10243" max="10243" width="9.77734375" style="4" customWidth="1"/>
-    <col min="10244" max="10244" width="8.109375" style="4" customWidth="1"/>
-    <col min="10245" max="10245" width="12.44140625" style="4" customWidth="1"/>
-    <col min="10246" max="10246" width="16.21875" style="4" customWidth="1"/>
-    <col min="10247" max="10247" width="6.109375" style="4" customWidth="1"/>
-    <col min="10248" max="10248" width="9.33203125" style="4" customWidth="1"/>
-    <col min="10249" max="10249" width="13.109375" style="4" customWidth="1"/>
+    <col min="10242" max="10242" width="11.375" style="4" customWidth="1"/>
+    <col min="10243" max="10243" width="9.75" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="8.125" style="4" customWidth="1"/>
+    <col min="10245" max="10245" width="12.5" style="4" customWidth="1"/>
+    <col min="10246" max="10246" width="16.25" style="4" customWidth="1"/>
+    <col min="10247" max="10247" width="6.125" style="4" customWidth="1"/>
+    <col min="10248" max="10248" width="9.375" style="4" customWidth="1"/>
+    <col min="10249" max="10249" width="13.125" style="4" customWidth="1"/>
     <col min="10250" max="10497" width="9" style="4"/>
-    <col min="10498" max="10498" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10499" max="10499" width="9.77734375" style="4" customWidth="1"/>
-    <col min="10500" max="10500" width="8.109375" style="4" customWidth="1"/>
-    <col min="10501" max="10501" width="12.44140625" style="4" customWidth="1"/>
-    <col min="10502" max="10502" width="16.21875" style="4" customWidth="1"/>
-    <col min="10503" max="10503" width="6.109375" style="4" customWidth="1"/>
-    <col min="10504" max="10504" width="9.33203125" style="4" customWidth="1"/>
-    <col min="10505" max="10505" width="13.109375" style="4" customWidth="1"/>
+    <col min="10498" max="10498" width="11.375" style="4" customWidth="1"/>
+    <col min="10499" max="10499" width="9.75" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="8.125" style="4" customWidth="1"/>
+    <col min="10501" max="10501" width="12.5" style="4" customWidth="1"/>
+    <col min="10502" max="10502" width="16.25" style="4" customWidth="1"/>
+    <col min="10503" max="10503" width="6.125" style="4" customWidth="1"/>
+    <col min="10504" max="10504" width="9.375" style="4" customWidth="1"/>
+    <col min="10505" max="10505" width="13.125" style="4" customWidth="1"/>
     <col min="10506" max="10753" width="9" style="4"/>
-    <col min="10754" max="10754" width="11.33203125" style="4" customWidth="1"/>
-    <col min="10755" max="10755" width="9.77734375" style="4" customWidth="1"/>
-    <col min="10756" max="10756" width="8.109375" style="4" customWidth="1"/>
-    <col min="10757" max="10757" width="12.44140625" style="4" customWidth="1"/>
-    <col min="10758" max="10758" width="16.21875" style="4" customWidth="1"/>
-    <col min="10759" max="10759" width="6.109375" style="4" customWidth="1"/>
-    <col min="10760" max="10760" width="9.33203125" style="4" customWidth="1"/>
-    <col min="10761" max="10761" width="13.109375" style="4" customWidth="1"/>
+    <col min="10754" max="10754" width="11.375" style="4" customWidth="1"/>
+    <col min="10755" max="10755" width="9.75" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="8.125" style="4" customWidth="1"/>
+    <col min="10757" max="10757" width="12.5" style="4" customWidth="1"/>
+    <col min="10758" max="10758" width="16.25" style="4" customWidth="1"/>
+    <col min="10759" max="10759" width="6.125" style="4" customWidth="1"/>
+    <col min="10760" max="10760" width="9.375" style="4" customWidth="1"/>
+    <col min="10761" max="10761" width="13.125" style="4" customWidth="1"/>
     <col min="10762" max="11009" width="9" style="4"/>
-    <col min="11010" max="11010" width="11.33203125" style="4" customWidth="1"/>
-    <col min="11011" max="11011" width="9.77734375" style="4" customWidth="1"/>
-    <col min="11012" max="11012" width="8.109375" style="4" customWidth="1"/>
-    <col min="11013" max="11013" width="12.44140625" style="4" customWidth="1"/>
-    <col min="11014" max="11014" width="16.21875" style="4" customWidth="1"/>
-    <col min="11015" max="11015" width="6.109375" style="4" customWidth="1"/>
-    <col min="11016" max="11016" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11017" max="11017" width="13.109375" style="4" customWidth="1"/>
+    <col min="11010" max="11010" width="11.375" style="4" customWidth="1"/>
+    <col min="11011" max="11011" width="9.75" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="8.125" style="4" customWidth="1"/>
+    <col min="11013" max="11013" width="12.5" style="4" customWidth="1"/>
+    <col min="11014" max="11014" width="16.25" style="4" customWidth="1"/>
+    <col min="11015" max="11015" width="6.125" style="4" customWidth="1"/>
+    <col min="11016" max="11016" width="9.375" style="4" customWidth="1"/>
+    <col min="11017" max="11017" width="13.125" style="4" customWidth="1"/>
     <col min="11018" max="11265" width="9" style="4"/>
-    <col min="11266" max="11266" width="11.33203125" style="4" customWidth="1"/>
-    <col min="11267" max="11267" width="9.77734375" style="4" customWidth="1"/>
-    <col min="11268" max="11268" width="8.109375" style="4" customWidth="1"/>
-    <col min="11269" max="11269" width="12.44140625" style="4" customWidth="1"/>
-    <col min="11270" max="11270" width="16.21875" style="4" customWidth="1"/>
-    <col min="11271" max="11271" width="6.109375" style="4" customWidth="1"/>
-    <col min="11272" max="11272" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11273" max="11273" width="13.109375" style="4" customWidth="1"/>
+    <col min="11266" max="11266" width="11.375" style="4" customWidth="1"/>
+    <col min="11267" max="11267" width="9.75" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="8.125" style="4" customWidth="1"/>
+    <col min="11269" max="11269" width="12.5" style="4" customWidth="1"/>
+    <col min="11270" max="11270" width="16.25" style="4" customWidth="1"/>
+    <col min="11271" max="11271" width="6.125" style="4" customWidth="1"/>
+    <col min="11272" max="11272" width="9.375" style="4" customWidth="1"/>
+    <col min="11273" max="11273" width="13.125" style="4" customWidth="1"/>
     <col min="11274" max="11521" width="9" style="4"/>
-    <col min="11522" max="11522" width="11.33203125" style="4" customWidth="1"/>
-    <col min="11523" max="11523" width="9.77734375" style="4" customWidth="1"/>
-    <col min="11524" max="11524" width="8.109375" style="4" customWidth="1"/>
-    <col min="11525" max="11525" width="12.44140625" style="4" customWidth="1"/>
-    <col min="11526" max="11526" width="16.21875" style="4" customWidth="1"/>
-    <col min="11527" max="11527" width="6.109375" style="4" customWidth="1"/>
-    <col min="11528" max="11528" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11529" max="11529" width="13.109375" style="4" customWidth="1"/>
+    <col min="11522" max="11522" width="11.375" style="4" customWidth="1"/>
+    <col min="11523" max="11523" width="9.75" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="8.125" style="4" customWidth="1"/>
+    <col min="11525" max="11525" width="12.5" style="4" customWidth="1"/>
+    <col min="11526" max="11526" width="16.25" style="4" customWidth="1"/>
+    <col min="11527" max="11527" width="6.125" style="4" customWidth="1"/>
+    <col min="11528" max="11528" width="9.375" style="4" customWidth="1"/>
+    <col min="11529" max="11529" width="13.125" style="4" customWidth="1"/>
     <col min="11530" max="11777" width="9" style="4"/>
-    <col min="11778" max="11778" width="11.33203125" style="4" customWidth="1"/>
-    <col min="11779" max="11779" width="9.77734375" style="4" customWidth="1"/>
-    <col min="11780" max="11780" width="8.109375" style="4" customWidth="1"/>
-    <col min="11781" max="11781" width="12.44140625" style="4" customWidth="1"/>
-    <col min="11782" max="11782" width="16.21875" style="4" customWidth="1"/>
-    <col min="11783" max="11783" width="6.109375" style="4" customWidth="1"/>
-    <col min="11784" max="11784" width="9.33203125" style="4" customWidth="1"/>
-    <col min="11785" max="11785" width="13.109375" style="4" customWidth="1"/>
+    <col min="11778" max="11778" width="11.375" style="4" customWidth="1"/>
+    <col min="11779" max="11779" width="9.75" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="8.125" style="4" customWidth="1"/>
+    <col min="11781" max="11781" width="12.5" style="4" customWidth="1"/>
+    <col min="11782" max="11782" width="16.25" style="4" customWidth="1"/>
+    <col min="11783" max="11783" width="6.125" style="4" customWidth="1"/>
+    <col min="11784" max="11784" width="9.375" style="4" customWidth="1"/>
+    <col min="11785" max="11785" width="13.125" style="4" customWidth="1"/>
     <col min="11786" max="12033" width="9" style="4"/>
-    <col min="12034" max="12034" width="11.33203125" style="4" customWidth="1"/>
-    <col min="12035" max="12035" width="9.77734375" style="4" customWidth="1"/>
-    <col min="12036" max="12036" width="8.109375" style="4" customWidth="1"/>
-    <col min="12037" max="12037" width="12.44140625" style="4" customWidth="1"/>
-    <col min="12038" max="12038" width="16.21875" style="4" customWidth="1"/>
-    <col min="12039" max="12039" width="6.109375" style="4" customWidth="1"/>
-    <col min="12040" max="12040" width="9.33203125" style="4" customWidth="1"/>
-    <col min="12041" max="12041" width="13.109375" style="4" customWidth="1"/>
+    <col min="12034" max="12034" width="11.375" style="4" customWidth="1"/>
+    <col min="12035" max="12035" width="9.75" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="8.125" style="4" customWidth="1"/>
+    <col min="12037" max="12037" width="12.5" style="4" customWidth="1"/>
+    <col min="12038" max="12038" width="16.25" style="4" customWidth="1"/>
+    <col min="12039" max="12039" width="6.125" style="4" customWidth="1"/>
+    <col min="12040" max="12040" width="9.375" style="4" customWidth="1"/>
+    <col min="12041" max="12041" width="13.125" style="4" customWidth="1"/>
     <col min="12042" max="12289" width="9" style="4"/>
-    <col min="12290" max="12290" width="11.33203125" style="4" customWidth="1"/>
-    <col min="12291" max="12291" width="9.77734375" style="4" customWidth="1"/>
-    <col min="12292" max="12292" width="8.109375" style="4" customWidth="1"/>
-    <col min="12293" max="12293" width="12.44140625" style="4" customWidth="1"/>
-    <col min="12294" max="12294" width="16.21875" style="4" customWidth="1"/>
-    <col min="12295" max="12295" width="6.109375" style="4" customWidth="1"/>
-    <col min="12296" max="12296" width="9.33203125" style="4" customWidth="1"/>
-    <col min="12297" max="12297" width="13.109375" style="4" customWidth="1"/>
+    <col min="12290" max="12290" width="11.375" style="4" customWidth="1"/>
+    <col min="12291" max="12291" width="9.75" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="8.125" style="4" customWidth="1"/>
+    <col min="12293" max="12293" width="12.5" style="4" customWidth="1"/>
+    <col min="12294" max="12294" width="16.25" style="4" customWidth="1"/>
+    <col min="12295" max="12295" width="6.125" style="4" customWidth="1"/>
+    <col min="12296" max="12296" width="9.375" style="4" customWidth="1"/>
+    <col min="12297" max="12297" width="13.125" style="4" customWidth="1"/>
     <col min="12298" max="12545" width="9" style="4"/>
-    <col min="12546" max="12546" width="11.33203125" style="4" customWidth="1"/>
-    <col min="12547" max="12547" width="9.77734375" style="4" customWidth="1"/>
-    <col min="12548" max="12548" width="8.109375" style="4" customWidth="1"/>
-    <col min="12549" max="12549" width="12.44140625" style="4" customWidth="1"/>
-    <col min="12550" max="12550" width="16.21875" style="4" customWidth="1"/>
-    <col min="12551" max="12551" width="6.109375" style="4" customWidth="1"/>
-    <col min="12552" max="12552" width="9.33203125" style="4" customWidth="1"/>
-    <col min="12553" max="12553" width="13.109375" style="4" customWidth="1"/>
+    <col min="12546" max="12546" width="11.375" style="4" customWidth="1"/>
+    <col min="12547" max="12547" width="9.75" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="8.125" style="4" customWidth="1"/>
+    <col min="12549" max="12549" width="12.5" style="4" customWidth="1"/>
+    <col min="12550" max="12550" width="16.25" style="4" customWidth="1"/>
+    <col min="12551" max="12551" width="6.125" style="4" customWidth="1"/>
+    <col min="12552" max="12552" width="9.375" style="4" customWidth="1"/>
+    <col min="12553" max="12553" width="13.125" style="4" customWidth="1"/>
     <col min="12554" max="12801" width="9" style="4"/>
-    <col min="12802" max="12802" width="11.33203125" style="4" customWidth="1"/>
-    <col min="12803" max="12803" width="9.77734375" style="4" customWidth="1"/>
-    <col min="12804" max="12804" width="8.109375" style="4" customWidth="1"/>
-    <col min="12805" max="12805" width="12.44140625" style="4" customWidth="1"/>
-    <col min="12806" max="12806" width="16.21875" style="4" customWidth="1"/>
-    <col min="12807" max="12807" width="6.109375" style="4" customWidth="1"/>
-    <col min="12808" max="12808" width="9.33203125" style="4" customWidth="1"/>
-    <col min="12809" max="12809" width="13.109375" style="4" customWidth="1"/>
+    <col min="12802" max="12802" width="11.375" style="4" customWidth="1"/>
+    <col min="12803" max="12803" width="9.75" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="8.125" style="4" customWidth="1"/>
+    <col min="12805" max="12805" width="12.5" style="4" customWidth="1"/>
+    <col min="12806" max="12806" width="16.25" style="4" customWidth="1"/>
+    <col min="12807" max="12807" width="6.125" style="4" customWidth="1"/>
+    <col min="12808" max="12808" width="9.375" style="4" customWidth="1"/>
+    <col min="12809" max="12809" width="13.125" style="4" customWidth="1"/>
     <col min="12810" max="13057" width="9" style="4"/>
-    <col min="13058" max="13058" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13059" max="13059" width="9.77734375" style="4" customWidth="1"/>
-    <col min="13060" max="13060" width="8.109375" style="4" customWidth="1"/>
-    <col min="13061" max="13061" width="12.44140625" style="4" customWidth="1"/>
-    <col min="13062" max="13062" width="16.21875" style="4" customWidth="1"/>
-    <col min="13063" max="13063" width="6.109375" style="4" customWidth="1"/>
-    <col min="13064" max="13064" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13065" max="13065" width="13.109375" style="4" customWidth="1"/>
+    <col min="13058" max="13058" width="11.375" style="4" customWidth="1"/>
+    <col min="13059" max="13059" width="9.75" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="8.125" style="4" customWidth="1"/>
+    <col min="13061" max="13061" width="12.5" style="4" customWidth="1"/>
+    <col min="13062" max="13062" width="16.25" style="4" customWidth="1"/>
+    <col min="13063" max="13063" width="6.125" style="4" customWidth="1"/>
+    <col min="13064" max="13064" width="9.375" style="4" customWidth="1"/>
+    <col min="13065" max="13065" width="13.125" style="4" customWidth="1"/>
     <col min="13066" max="13313" width="9" style="4"/>
-    <col min="13314" max="13314" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13315" max="13315" width="9.77734375" style="4" customWidth="1"/>
-    <col min="13316" max="13316" width="8.109375" style="4" customWidth="1"/>
-    <col min="13317" max="13317" width="12.44140625" style="4" customWidth="1"/>
-    <col min="13318" max="13318" width="16.21875" style="4" customWidth="1"/>
-    <col min="13319" max="13319" width="6.109375" style="4" customWidth="1"/>
-    <col min="13320" max="13320" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13321" max="13321" width="13.109375" style="4" customWidth="1"/>
+    <col min="13314" max="13314" width="11.375" style="4" customWidth="1"/>
+    <col min="13315" max="13315" width="9.75" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="8.125" style="4" customWidth="1"/>
+    <col min="13317" max="13317" width="12.5" style="4" customWidth="1"/>
+    <col min="13318" max="13318" width="16.25" style="4" customWidth="1"/>
+    <col min="13319" max="13319" width="6.125" style="4" customWidth="1"/>
+    <col min="13320" max="13320" width="9.375" style="4" customWidth="1"/>
+    <col min="13321" max="13321" width="13.125" style="4" customWidth="1"/>
     <col min="13322" max="13569" width="9" style="4"/>
-    <col min="13570" max="13570" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13571" max="13571" width="9.77734375" style="4" customWidth="1"/>
-    <col min="13572" max="13572" width="8.109375" style="4" customWidth="1"/>
-    <col min="13573" max="13573" width="12.44140625" style="4" customWidth="1"/>
-    <col min="13574" max="13574" width="16.21875" style="4" customWidth="1"/>
-    <col min="13575" max="13575" width="6.109375" style="4" customWidth="1"/>
-    <col min="13576" max="13576" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13577" max="13577" width="13.109375" style="4" customWidth="1"/>
+    <col min="13570" max="13570" width="11.375" style="4" customWidth="1"/>
+    <col min="13571" max="13571" width="9.75" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="8.125" style="4" customWidth="1"/>
+    <col min="13573" max="13573" width="12.5" style="4" customWidth="1"/>
+    <col min="13574" max="13574" width="16.25" style="4" customWidth="1"/>
+    <col min="13575" max="13575" width="6.125" style="4" customWidth="1"/>
+    <col min="13576" max="13576" width="9.375" style="4" customWidth="1"/>
+    <col min="13577" max="13577" width="13.125" style="4" customWidth="1"/>
     <col min="13578" max="13825" width="9" style="4"/>
-    <col min="13826" max="13826" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13827" max="13827" width="9.77734375" style="4" customWidth="1"/>
-    <col min="13828" max="13828" width="8.109375" style="4" customWidth="1"/>
-    <col min="13829" max="13829" width="12.44140625" style="4" customWidth="1"/>
-    <col min="13830" max="13830" width="16.21875" style="4" customWidth="1"/>
-    <col min="13831" max="13831" width="6.109375" style="4" customWidth="1"/>
-    <col min="13832" max="13832" width="9.33203125" style="4" customWidth="1"/>
-    <col min="13833" max="13833" width="13.109375" style="4" customWidth="1"/>
+    <col min="13826" max="13826" width="11.375" style="4" customWidth="1"/>
+    <col min="13827" max="13827" width="9.75" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="8.125" style="4" customWidth="1"/>
+    <col min="13829" max="13829" width="12.5" style="4" customWidth="1"/>
+    <col min="13830" max="13830" width="16.25" style="4" customWidth="1"/>
+    <col min="13831" max="13831" width="6.125" style="4" customWidth="1"/>
+    <col min="13832" max="13832" width="9.375" style="4" customWidth="1"/>
+    <col min="13833" max="13833" width="13.125" style="4" customWidth="1"/>
     <col min="13834" max="14081" width="9" style="4"/>
-    <col min="14082" max="14082" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14083" max="14083" width="9.77734375" style="4" customWidth="1"/>
-    <col min="14084" max="14084" width="8.109375" style="4" customWidth="1"/>
-    <col min="14085" max="14085" width="12.44140625" style="4" customWidth="1"/>
-    <col min="14086" max="14086" width="16.21875" style="4" customWidth="1"/>
-    <col min="14087" max="14087" width="6.109375" style="4" customWidth="1"/>
-    <col min="14088" max="14088" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14089" max="14089" width="13.109375" style="4" customWidth="1"/>
+    <col min="14082" max="14082" width="11.375" style="4" customWidth="1"/>
+    <col min="14083" max="14083" width="9.75" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="8.125" style="4" customWidth="1"/>
+    <col min="14085" max="14085" width="12.5" style="4" customWidth="1"/>
+    <col min="14086" max="14086" width="16.25" style="4" customWidth="1"/>
+    <col min="14087" max="14087" width="6.125" style="4" customWidth="1"/>
+    <col min="14088" max="14088" width="9.375" style="4" customWidth="1"/>
+    <col min="14089" max="14089" width="13.125" style="4" customWidth="1"/>
     <col min="14090" max="14337" width="9" style="4"/>
-    <col min="14338" max="14338" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14339" max="14339" width="9.77734375" style="4" customWidth="1"/>
-    <col min="14340" max="14340" width="8.109375" style="4" customWidth="1"/>
-    <col min="14341" max="14341" width="12.44140625" style="4" customWidth="1"/>
-    <col min="14342" max="14342" width="16.21875" style="4" customWidth="1"/>
-    <col min="14343" max="14343" width="6.109375" style="4" customWidth="1"/>
-    <col min="14344" max="14344" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14345" max="14345" width="13.109375" style="4" customWidth="1"/>
+    <col min="14338" max="14338" width="11.375" style="4" customWidth="1"/>
+    <col min="14339" max="14339" width="9.75" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="8.125" style="4" customWidth="1"/>
+    <col min="14341" max="14341" width="12.5" style="4" customWidth="1"/>
+    <col min="14342" max="14342" width="16.25" style="4" customWidth="1"/>
+    <col min="14343" max="14343" width="6.125" style="4" customWidth="1"/>
+    <col min="14344" max="14344" width="9.375" style="4" customWidth="1"/>
+    <col min="14345" max="14345" width="13.125" style="4" customWidth="1"/>
     <col min="14346" max="14593" width="9" style="4"/>
-    <col min="14594" max="14594" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14595" max="14595" width="9.77734375" style="4" customWidth="1"/>
-    <col min="14596" max="14596" width="8.109375" style="4" customWidth="1"/>
-    <col min="14597" max="14597" width="12.44140625" style="4" customWidth="1"/>
-    <col min="14598" max="14598" width="16.21875" style="4" customWidth="1"/>
-    <col min="14599" max="14599" width="6.109375" style="4" customWidth="1"/>
-    <col min="14600" max="14600" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14601" max="14601" width="13.109375" style="4" customWidth="1"/>
+    <col min="14594" max="14594" width="11.375" style="4" customWidth="1"/>
+    <col min="14595" max="14595" width="9.75" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="8.125" style="4" customWidth="1"/>
+    <col min="14597" max="14597" width="12.5" style="4" customWidth="1"/>
+    <col min="14598" max="14598" width="16.25" style="4" customWidth="1"/>
+    <col min="14599" max="14599" width="6.125" style="4" customWidth="1"/>
+    <col min="14600" max="14600" width="9.375" style="4" customWidth="1"/>
+    <col min="14601" max="14601" width="13.125" style="4" customWidth="1"/>
     <col min="14602" max="14849" width="9" style="4"/>
-    <col min="14850" max="14850" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14851" max="14851" width="9.77734375" style="4" customWidth="1"/>
-    <col min="14852" max="14852" width="8.109375" style="4" customWidth="1"/>
-    <col min="14853" max="14853" width="12.44140625" style="4" customWidth="1"/>
-    <col min="14854" max="14854" width="16.21875" style="4" customWidth="1"/>
-    <col min="14855" max="14855" width="6.109375" style="4" customWidth="1"/>
-    <col min="14856" max="14856" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14857" max="14857" width="13.109375" style="4" customWidth="1"/>
+    <col min="14850" max="14850" width="11.375" style="4" customWidth="1"/>
+    <col min="14851" max="14851" width="9.75" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="8.125" style="4" customWidth="1"/>
+    <col min="14853" max="14853" width="12.5" style="4" customWidth="1"/>
+    <col min="14854" max="14854" width="16.25" style="4" customWidth="1"/>
+    <col min="14855" max="14855" width="6.125" style="4" customWidth="1"/>
+    <col min="14856" max="14856" width="9.375" style="4" customWidth="1"/>
+    <col min="14857" max="14857" width="13.125" style="4" customWidth="1"/>
     <col min="14858" max="15105" width="9" style="4"/>
-    <col min="15106" max="15106" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15107" max="15107" width="9.77734375" style="4" customWidth="1"/>
-    <col min="15108" max="15108" width="8.109375" style="4" customWidth="1"/>
-    <col min="15109" max="15109" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15110" max="15110" width="16.21875" style="4" customWidth="1"/>
-    <col min="15111" max="15111" width="6.109375" style="4" customWidth="1"/>
-    <col min="15112" max="15112" width="9.33203125" style="4" customWidth="1"/>
-    <col min="15113" max="15113" width="13.109375" style="4" customWidth="1"/>
+    <col min="15106" max="15106" width="11.375" style="4" customWidth="1"/>
+    <col min="15107" max="15107" width="9.75" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="8.125" style="4" customWidth="1"/>
+    <col min="15109" max="15109" width="12.5" style="4" customWidth="1"/>
+    <col min="15110" max="15110" width="16.25" style="4" customWidth="1"/>
+    <col min="15111" max="15111" width="6.125" style="4" customWidth="1"/>
+    <col min="15112" max="15112" width="9.375" style="4" customWidth="1"/>
+    <col min="15113" max="15113" width="13.125" style="4" customWidth="1"/>
     <col min="15114" max="15361" width="9" style="4"/>
-    <col min="15362" max="15362" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15363" max="15363" width="9.77734375" style="4" customWidth="1"/>
-    <col min="15364" max="15364" width="8.109375" style="4" customWidth="1"/>
-    <col min="15365" max="15365" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15366" max="15366" width="16.21875" style="4" customWidth="1"/>
-    <col min="15367" max="15367" width="6.109375" style="4" customWidth="1"/>
-    <col min="15368" max="15368" width="9.33203125" style="4" customWidth="1"/>
-    <col min="15369" max="15369" width="13.109375" style="4" customWidth="1"/>
+    <col min="15362" max="15362" width="11.375" style="4" customWidth="1"/>
+    <col min="15363" max="15363" width="9.75" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="8.125" style="4" customWidth="1"/>
+    <col min="15365" max="15365" width="12.5" style="4" customWidth="1"/>
+    <col min="15366" max="15366" width="16.25" style="4" customWidth="1"/>
+    <col min="15367" max="15367" width="6.125" style="4" customWidth="1"/>
+    <col min="15368" max="15368" width="9.375" style="4" customWidth="1"/>
+    <col min="15369" max="15369" width="13.125" style="4" customWidth="1"/>
     <col min="15370" max="15617" width="9" style="4"/>
-    <col min="15618" max="15618" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15619" max="15619" width="9.77734375" style="4" customWidth="1"/>
-    <col min="15620" max="15620" width="8.109375" style="4" customWidth="1"/>
-    <col min="15621" max="15621" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15622" max="15622" width="16.21875" style="4" customWidth="1"/>
-    <col min="15623" max="15623" width="6.109375" style="4" customWidth="1"/>
-    <col min="15624" max="15624" width="9.33203125" style="4" customWidth="1"/>
-    <col min="15625" max="15625" width="13.109375" style="4" customWidth="1"/>
+    <col min="15618" max="15618" width="11.375" style="4" customWidth="1"/>
+    <col min="15619" max="15619" width="9.75" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="8.125" style="4" customWidth="1"/>
+    <col min="15621" max="15621" width="12.5" style="4" customWidth="1"/>
+    <col min="15622" max="15622" width="16.25" style="4" customWidth="1"/>
+    <col min="15623" max="15623" width="6.125" style="4" customWidth="1"/>
+    <col min="15624" max="15624" width="9.375" style="4" customWidth="1"/>
+    <col min="15625" max="15625" width="13.125" style="4" customWidth="1"/>
     <col min="15626" max="15873" width="9" style="4"/>
-    <col min="15874" max="15874" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15875" max="15875" width="9.77734375" style="4" customWidth="1"/>
-    <col min="15876" max="15876" width="8.109375" style="4" customWidth="1"/>
-    <col min="15877" max="15877" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15878" max="15878" width="16.21875" style="4" customWidth="1"/>
-    <col min="15879" max="15879" width="6.109375" style="4" customWidth="1"/>
-    <col min="15880" max="15880" width="9.33203125" style="4" customWidth="1"/>
-    <col min="15881" max="15881" width="13.109375" style="4" customWidth="1"/>
+    <col min="15874" max="15874" width="11.375" style="4" customWidth="1"/>
+    <col min="15875" max="15875" width="9.75" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="8.125" style="4" customWidth="1"/>
+    <col min="15877" max="15877" width="12.5" style="4" customWidth="1"/>
+    <col min="15878" max="15878" width="16.25" style="4" customWidth="1"/>
+    <col min="15879" max="15879" width="6.125" style="4" customWidth="1"/>
+    <col min="15880" max="15880" width="9.375" style="4" customWidth="1"/>
+    <col min="15881" max="15881" width="13.125" style="4" customWidth="1"/>
     <col min="15882" max="16129" width="9" style="4"/>
-    <col min="16130" max="16130" width="11.33203125" style="4" customWidth="1"/>
-    <col min="16131" max="16131" width="9.77734375" style="4" customWidth="1"/>
-    <col min="16132" max="16132" width="8.109375" style="4" customWidth="1"/>
-    <col min="16133" max="16133" width="12.44140625" style="4" customWidth="1"/>
-    <col min="16134" max="16134" width="16.21875" style="4" customWidth="1"/>
-    <col min="16135" max="16135" width="6.109375" style="4" customWidth="1"/>
-    <col min="16136" max="16136" width="9.33203125" style="4" customWidth="1"/>
-    <col min="16137" max="16137" width="13.109375" style="4" customWidth="1"/>
+    <col min="16130" max="16130" width="11.375" style="4" customWidth="1"/>
+    <col min="16131" max="16131" width="9.75" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="8.125" style="4" customWidth="1"/>
+    <col min="16133" max="16133" width="12.5" style="4" customWidth="1"/>
+    <col min="16134" max="16134" width="16.25" style="4" customWidth="1"/>
+    <col min="16135" max="16135" width="6.125" style="4" customWidth="1"/>
+    <col min="16136" max="16136" width="9.375" style="4" customWidth="1"/>
+    <col min="16137" max="16137" width="13.125" style="4" customWidth="1"/>
     <col min="16138" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1">
-      <c r="B1" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
+      <c r="B1" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
     </row>
     <row r="2" spans="1:12" ht="21.75" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-    </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="25.05" customHeight="1">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
       <c r="B3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="135" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="25.05" customHeight="1">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="136" t="s">
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="25.15" customHeight="1">
+      <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="25.05" customHeight="1">
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="D5" s="99"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="138"/>
-      <c r="I5" s="139"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="B6" s="6"/>
@@ -3397,141 +3368,141 @@
       <c r="I6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1">
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
+      <c r="B8" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-    </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="B8" s="128" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B9" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="128"/>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B9" s="116" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="97" t="str">
+      <c r="C9" s="124" t="str">
         <f>記入!B13</f>
         <v>${pd.claimnumber}</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="116" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="101" t="str">
+      <c r="D9" s="125"/>
+      <c r="E9" s="110" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="111" t="str">
         <f>記入!B12</f>
         <v>${pd.contractnumber}</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="120" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="133" t="str">
+      <c r="G9" s="111"/>
+      <c r="H9" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="107" t="str">
         <f>記入!B21</f>
         <v>${pd.claimdate}</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B10" s="101"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="133"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="107"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130" t="str">
+      <c r="B11" s="103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104" t="str">
         <f>記入!B3</f>
         <v>${pd.custoenglish}</v>
       </c>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="132"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
       <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B12" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130" t="str">
+      <c r="B12" s="103" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104" t="str">
         <f>記入!B4</f>
         <v>${pd.custochinese}</v>
       </c>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="132"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="106"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B13" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" s="122" t="str">
+        <v>86</v>
+      </c>
+      <c r="C13" s="118" t="str">
         <f>記入!B6</f>
         <v>${pd.placeenglish}</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="124"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B14" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="122" t="str">
+        <v>87</v>
+      </c>
+      <c r="C14" s="118" t="str">
         <f>記入!B25</f>
         <v>${pd.placechinese}</v>
       </c>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="124"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" ht="45" customHeight="1">
       <c r="B15" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="125" t="str">
+        <v>89</v>
+      </c>
+      <c r="C15" s="121" t="str">
         <f>記入!B26</f>
         <v>${pd.responphone}</v>
       </c>
-      <c r="D15" s="125"/>
-      <c r="E15" s="125"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
+        <v>91</v>
+      </c>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="B16" s="6"/>
@@ -3545,10 +3516,10 @@
     </row>
     <row r="17" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="B17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -3559,10 +3530,10 @@
     </row>
     <row r="18" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="B18" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -3571,111 +3542,111 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
     </row>
-    <row r="19" spans="2:9" s="3" customFormat="1" ht="50.55" customHeight="1">
+    <row r="19" spans="2:9" s="3" customFormat="1" ht="50.65" customHeight="1">
       <c r="B19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="122" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="126" t="s">
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="15" t="s">
+      <c r="G19" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="H19" s="122"/>
+      <c r="I19" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="126"/>
-      <c r="I19" s="15" t="s">
+    </row>
+    <row r="20" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B20" s="112" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B20" s="117" t="s">
+      <c r="C20" s="128" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="119">
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="114">
         <v>1</v>
       </c>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="96" t="str">
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="123" t="str">
         <f>記入!B20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B21" s="117"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="96"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="2:9" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B22" s="117"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="96"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="136"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="123"/>
     </row>
     <row r="23" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="B23" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="113">
+      <c r="B23" s="113" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="137"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="115">
         <f>SUM(F20:F22)</f>
         <v>1</v>
       </c>
-      <c r="G23" s="113">
+      <c r="G23" s="115">
         <f>G20</f>
         <v>0</v>
       </c>
-      <c r="H23" s="113"/>
-      <c r="I23" s="96" t="str">
+      <c r="H23" s="115"/>
+      <c r="I23" s="123" t="str">
         <f>I20</f>
         <v>${pd.claimamount}</v>
       </c>
     </row>
     <row r="24" spans="2:9" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B24" s="118"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="96"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="2:9" s="3" customFormat="1" ht="24" customHeight="1">
-      <c r="B25" s="114" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="B25" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="2:9" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B26" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3700,11 +3671,11 @@
       <c r="C28" s="16"/>
       <c r="D28" s="13"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="115" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
+      <c r="F28" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="G28" s="109"/>
+      <c r="H28" s="109"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="2:9" ht="19.5" customHeight="1">
@@ -3712,11 +3683,11 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
+      <c r="F29" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="109"/>
+      <c r="H29" s="109"/>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="2:9" ht="15" customHeight="1"/>
@@ -3733,19 +3704,14 @@
     <row r="33" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="F9:G10"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="C23:E24"/>
+    <mergeCell ref="G20:H22"/>
+    <mergeCell ref="G23:H24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="F29:H29"/>
@@ -3762,16 +3728,21 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="F9:G10"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="C23:E24"/>
-    <mergeCell ref="G20:H22"/>
-    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
